--- a/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
+++ b/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="klt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="260">
   <si>
     <t>N8573</t>
   </si>
@@ -350,6 +350,456 @@
   </si>
   <si>
     <t>advanced_boundary_representation</t>
+  </si>
+  <si>
+    <t>N8670</t>
+  </si>
+  <si>
+    <t>N8671</t>
+  </si>
+  <si>
+    <t>N8672</t>
+  </si>
+  <si>
+    <t>N8673</t>
+  </si>
+  <si>
+    <t>N8674</t>
+  </si>
+  <si>
+    <t>N8675</t>
+  </si>
+  <si>
+    <t>N8676</t>
+  </si>
+  <si>
+    <t>N8677</t>
+  </si>
+  <si>
+    <t>N8678</t>
+  </si>
+  <si>
+    <t>N8679</t>
+  </si>
+  <si>
+    <t>N8680</t>
+  </si>
+  <si>
+    <t>N8681</t>
+  </si>
+  <si>
+    <t>N8682</t>
+  </si>
+  <si>
+    <t>N8683</t>
+  </si>
+  <si>
+    <t>N8684</t>
+  </si>
+  <si>
+    <t>N8685</t>
+  </si>
+  <si>
+    <t>N8686</t>
+  </si>
+  <si>
+    <t>N8687</t>
+  </si>
+  <si>
+    <t>N8688</t>
+  </si>
+  <si>
+    <t>N8689</t>
+  </si>
+  <si>
+    <t>N8690</t>
+  </si>
+  <si>
+    <t>N8691</t>
+  </si>
+  <si>
+    <t>N8692</t>
+  </si>
+  <si>
+    <t>N8693</t>
+  </si>
+  <si>
+    <t>N8694</t>
+  </si>
+  <si>
+    <t>N8695</t>
+  </si>
+  <si>
+    <t>N8696</t>
+  </si>
+  <si>
+    <t>N8697</t>
+  </si>
+  <si>
+    <t>N8698</t>
+  </si>
+  <si>
+    <t>N8699</t>
+  </si>
+  <si>
+    <t>N8700</t>
+  </si>
+  <si>
+    <t>N8701</t>
+  </si>
+  <si>
+    <t>N8702</t>
+  </si>
+  <si>
+    <t>N8703</t>
+  </si>
+  <si>
+    <t>N8704</t>
+  </si>
+  <si>
+    <t>N8705</t>
+  </si>
+  <si>
+    <t>N8706</t>
+  </si>
+  <si>
+    <t>N8707</t>
+  </si>
+  <si>
+    <t>N8708</t>
+  </si>
+  <si>
+    <t>N8709</t>
+  </si>
+  <si>
+    <t>N8710</t>
+  </si>
+  <si>
+    <t>N8711</t>
+  </si>
+  <si>
+    <t>N8712</t>
+  </si>
+  <si>
+    <t>N8713</t>
+  </si>
+  <si>
+    <t>N8714</t>
+  </si>
+  <si>
+    <t>N8715</t>
+  </si>
+  <si>
+    <t>N8716</t>
+  </si>
+  <si>
+    <t>N8717</t>
+  </si>
+  <si>
+    <t>N8718</t>
+  </si>
+  <si>
+    <t>N8719</t>
+  </si>
+  <si>
+    <t>N8720</t>
+  </si>
+  <si>
+    <t>N8721</t>
+  </si>
+  <si>
+    <t>N8722</t>
+  </si>
+  <si>
+    <t>N8723</t>
+  </si>
+  <si>
+    <t>N8724</t>
+  </si>
+  <si>
+    <t>N8725</t>
+  </si>
+  <si>
+    <t>N8726</t>
+  </si>
+  <si>
+    <t>N8727</t>
+  </si>
+  <si>
+    <t>N8728</t>
+  </si>
+  <si>
+    <t>N8729</t>
+  </si>
+  <si>
+    <t>N8730</t>
+  </si>
+  <si>
+    <t>N8731</t>
+  </si>
+  <si>
+    <t>N8732</t>
+  </si>
+  <si>
+    <t>N8733</t>
+  </si>
+  <si>
+    <t>N8734</t>
+  </si>
+  <si>
+    <t>N8735</t>
+  </si>
+  <si>
+    <t>N8736</t>
+  </si>
+  <si>
+    <t>N8737</t>
+  </si>
+  <si>
+    <t>N8738</t>
+  </si>
+  <si>
+    <t>N8739</t>
+  </si>
+  <si>
+    <t>N8740</t>
+  </si>
+  <si>
+    <t>N8741</t>
+  </si>
+  <si>
+    <t>N8742</t>
+  </si>
+  <si>
+    <t>N8743</t>
+  </si>
+  <si>
+    <t>N8744</t>
+  </si>
+  <si>
+    <t>N8745</t>
+  </si>
+  <si>
+    <t>N8746</t>
+  </si>
+  <si>
+    <t>N8747</t>
+  </si>
+  <si>
+    <t>N8748</t>
+  </si>
+  <si>
+    <t>N8749</t>
+  </si>
+  <si>
+    <t>N8750</t>
+  </si>
+  <si>
+    <t>N8751</t>
+  </si>
+  <si>
+    <t>N8752</t>
+  </si>
+  <si>
+    <t>N8753</t>
+  </si>
+  <si>
+    <t>N8754</t>
+  </si>
+  <si>
+    <t>N8755</t>
+  </si>
+  <si>
+    <t>N8756</t>
+  </si>
+  <si>
+    <t>N8757</t>
+  </si>
+  <si>
+    <t>N8758</t>
+  </si>
+  <si>
+    <t>N8759</t>
+  </si>
+  <si>
+    <t>N8760</t>
+  </si>
+  <si>
+    <t>N8761</t>
+  </si>
+  <si>
+    <t>N8762</t>
+  </si>
+  <si>
+    <t>N8763</t>
+  </si>
+  <si>
+    <t>N8764</t>
+  </si>
+  <si>
+    <t>N8765</t>
+  </si>
+  <si>
+    <t>N8766</t>
+  </si>
+  <si>
+    <t>N8767</t>
+  </si>
+  <si>
+    <t>N8768</t>
+  </si>
+  <si>
+    <t>N8769</t>
+  </si>
+  <si>
+    <t>N8770</t>
+  </si>
+  <si>
+    <t>N8771</t>
+  </si>
+  <si>
+    <t>N8772</t>
+  </si>
+  <si>
+    <t>N8773</t>
+  </si>
+  <si>
+    <t>N8774</t>
+  </si>
+  <si>
+    <t>N8775</t>
+  </si>
+  <si>
+    <t>N8776</t>
+  </si>
+  <si>
+    <t>N8777</t>
+  </si>
+  <si>
+    <t>N8778</t>
+  </si>
+  <si>
+    <t>N8779</t>
+  </si>
+  <si>
+    <t>N8780</t>
+  </si>
+  <si>
+    <t>N8781</t>
+  </si>
+  <si>
+    <t>N8782</t>
+  </si>
+  <si>
+    <t>N8783</t>
+  </si>
+  <si>
+    <t>N8784</t>
+  </si>
+  <si>
+    <t>N8785</t>
+  </si>
+  <si>
+    <t>N8786</t>
+  </si>
+  <si>
+    <t>N8787</t>
+  </si>
+  <si>
+    <t>N8788</t>
+  </si>
+  <si>
+    <t>N8789</t>
+  </si>
+  <si>
+    <t>N8790</t>
+  </si>
+  <si>
+    <t>N8791</t>
+  </si>
+  <si>
+    <t>N8792</t>
+  </si>
+  <si>
+    <t>N8793</t>
+  </si>
+  <si>
+    <t>N8794</t>
+  </si>
+  <si>
+    <t>N8795</t>
+  </si>
+  <si>
+    <t>N8796</t>
+  </si>
+  <si>
+    <t>N8797</t>
+  </si>
+  <si>
+    <t>N8798</t>
+  </si>
+  <si>
+    <t>N8799</t>
+  </si>
+  <si>
+    <t>N8800</t>
+  </si>
+  <si>
+    <t>N8801</t>
+  </si>
+  <si>
+    <t>N8802</t>
+  </si>
+  <si>
+    <t>N8803</t>
+  </si>
+  <si>
+    <t>N8804</t>
+  </si>
+  <si>
+    <t>N8805</t>
+  </si>
+  <si>
+    <t>N8806</t>
+  </si>
+  <si>
+    <t>N8807</t>
+  </si>
+  <si>
+    <t>N8808</t>
+  </si>
+  <si>
+    <t>N8809</t>
+  </si>
+  <si>
+    <t>N8810</t>
+  </si>
+  <si>
+    <t>N8811</t>
+  </si>
+  <si>
+    <t>N8812</t>
+  </si>
+  <si>
+    <t>N8813</t>
+  </si>
+  <si>
+    <t>N8814</t>
+  </si>
+  <si>
+    <t>N8815</t>
+  </si>
+  <si>
+    <t>N8816</t>
+  </si>
+  <si>
+    <t>N8817</t>
+  </si>
+  <si>
+    <t>N8818</t>
+  </si>
+  <si>
+    <t>N8819</t>
   </si>
 </sst>
 </file>
@@ -404,8 +854,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -448,7 +910,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="49">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -467,6 +929,12 @@
     <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -485,6 +953,12 @@
     <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T537"/>
+  <dimension ref="A2:T249"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250:N537"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -2931,6 +3405,12 @@
       <c r="G100" s="1">
         <v>8670</v>
       </c>
+      <c r="H100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M100" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
@@ -2945,6 +3425,12 @@
       <c r="G101" s="1">
         <v>8671</v>
       </c>
+      <c r="H101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M101" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
@@ -2959,6 +3445,12 @@
       <c r="G102" s="1">
         <v>8672</v>
       </c>
+      <c r="H102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M102" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
@@ -2973,6 +3465,12 @@
       <c r="G103" s="1">
         <v>8673</v>
       </c>
+      <c r="H103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M103" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
@@ -2987,6 +3485,12 @@
       <c r="G104" s="1">
         <v>8674</v>
       </c>
+      <c r="H104" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M104" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
@@ -3001,6 +3505,12 @@
       <c r="G105" s="1">
         <v>8675</v>
       </c>
+      <c r="H105" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M105" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
@@ -3015,6 +3525,12 @@
       <c r="G106" s="1">
         <v>8676</v>
       </c>
+      <c r="H106" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M106" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
@@ -3029,6 +3545,12 @@
       <c r="G107" s="1">
         <v>8677</v>
       </c>
+      <c r="H107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M107" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
@@ -3043,6 +3565,12 @@
       <c r="G108" s="1">
         <v>8678</v>
       </c>
+      <c r="H108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M108" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
@@ -3057,6 +3585,12 @@
       <c r="G109" s="1">
         <v>8679</v>
       </c>
+      <c r="H109" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M109" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
@@ -3071,6 +3605,12 @@
       <c r="G110" s="1">
         <v>8680</v>
       </c>
+      <c r="H110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M110" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
@@ -3085,6 +3625,12 @@
       <c r="G111" s="1">
         <v>8681</v>
       </c>
+      <c r="H111" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M111" s="2">
+        <v>42248</v>
+      </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
@@ -3099,8 +3645,14 @@
       <c r="G112" s="1">
         <v>8682</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M112" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
         <v>103</v>
       </c>
@@ -3113,8 +3665,14 @@
       <c r="G113" s="1">
         <v>8683</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M113" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
         <v>103</v>
       </c>
@@ -3127,8 +3685,14 @@
       <c r="G114" s="1">
         <v>8684</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M114" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
         <v>103</v>
       </c>
@@ -3141,8 +3705,14 @@
       <c r="G115" s="1">
         <v>8685</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M115" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
         <v>103</v>
       </c>
@@ -3155,8 +3725,14 @@
       <c r="G116" s="1">
         <v>8686</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M116" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
         <v>103</v>
       </c>
@@ -3169,8 +3745,14 @@
       <c r="G117" s="1">
         <v>8687</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M117" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
         <v>103</v>
       </c>
@@ -3183,8 +3765,14 @@
       <c r="G118" s="1">
         <v>8688</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M118" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
         <v>103</v>
       </c>
@@ -3197,8 +3785,14 @@
       <c r="G119" s="1">
         <v>8689</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M119" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
         <v>103</v>
       </c>
@@ -3211,8 +3805,14 @@
       <c r="G120" s="1">
         <v>8690</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M120" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
         <v>103</v>
       </c>
@@ -3225,8 +3825,14 @@
       <c r="G121" s="1">
         <v>8691</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M121" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
         <v>103</v>
       </c>
@@ -3239,8 +3845,14 @@
       <c r="G122" s="1">
         <v>8692</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M122" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
         <v>103</v>
       </c>
@@ -3253,8 +3865,14 @@
       <c r="G123" s="1">
         <v>8693</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M123" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
         <v>103</v>
       </c>
@@ -3267,8 +3885,14 @@
       <c r="G124" s="1">
         <v>8694</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M124" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
         <v>103</v>
       </c>
@@ -3281,8 +3905,14 @@
       <c r="G125" s="1">
         <v>8695</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M125" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
         <v>103</v>
       </c>
@@ -3295,8 +3925,14 @@
       <c r="G126" s="1">
         <v>8696</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M126" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
         <v>103</v>
       </c>
@@ -3309,8 +3945,14 @@
       <c r="G127" s="1">
         <v>8697</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M127" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
         <v>103</v>
       </c>
@@ -3323,8 +3965,14 @@
       <c r="G128" s="1">
         <v>8698</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M128" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>103</v>
       </c>
@@ -3337,8 +3985,14 @@
       <c r="G129" s="1">
         <v>8699</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M129" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>103</v>
       </c>
@@ -3351,8 +4005,14 @@
       <c r="G130" s="1">
         <v>8700</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M130" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>103</v>
       </c>
@@ -3365,8 +4025,14 @@
       <c r="G131" s="1">
         <v>8701</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M131" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>103</v>
       </c>
@@ -3379,8 +4045,14 @@
       <c r="G132" s="1">
         <v>8702</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M132" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>103</v>
       </c>
@@ -3393,8 +4065,14 @@
       <c r="G133" s="1">
         <v>8703</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M133" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>103</v>
       </c>
@@ -3407,8 +4085,14 @@
       <c r="G134" s="1">
         <v>8704</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M134" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>103</v>
       </c>
@@ -3421,8 +4105,14 @@
       <c r="G135" s="1">
         <v>8705</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M135" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>103</v>
       </c>
@@ -3435,8 +4125,14 @@
       <c r="G136" s="1">
         <v>8706</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M136" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>103</v>
       </c>
@@ -3449,8 +4145,14 @@
       <c r="G137" s="1">
         <v>8707</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M137" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>103</v>
       </c>
@@ -3463,8 +4165,14 @@
       <c r="G138" s="1">
         <v>8708</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M138" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>103</v>
       </c>
@@ -3477,8 +4185,14 @@
       <c r="G139" s="1">
         <v>8709</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M139" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>103</v>
       </c>
@@ -3491,8 +4205,14 @@
       <c r="G140" s="1">
         <v>8710</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M140" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>103</v>
       </c>
@@ -3505,8 +4225,14 @@
       <c r="G141" s="1">
         <v>8711</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M141" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>103</v>
       </c>
@@ -3519,8 +4245,14 @@
       <c r="G142" s="1">
         <v>8712</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M142" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>103</v>
       </c>
@@ -3533,8 +4265,14 @@
       <c r="G143" s="1">
         <v>8713</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M143" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>103</v>
       </c>
@@ -3547,8 +4285,14 @@
       <c r="G144" s="1">
         <v>8714</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M144" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>103</v>
       </c>
@@ -3561,8 +4305,14 @@
       <c r="G145" s="1">
         <v>8715</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M145" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>103</v>
       </c>
@@ -3575,8 +4325,14 @@
       <c r="G146" s="1">
         <v>8716</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M146" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>103</v>
       </c>
@@ -3589,8 +4345,14 @@
       <c r="G147" s="1">
         <v>8717</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M147" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>103</v>
       </c>
@@ -3603,8 +4365,14 @@
       <c r="G148" s="1">
         <v>8718</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M148" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>103</v>
       </c>
@@ -3617,8 +4385,14 @@
       <c r="G149" s="1">
         <v>8719</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M149" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>103</v>
       </c>
@@ -3631,8 +4405,14 @@
       <c r="G150" s="1">
         <v>8720</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M150" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>103</v>
       </c>
@@ -3645,8 +4425,14 @@
       <c r="G151" s="1">
         <v>8721</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M151" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>103</v>
       </c>
@@ -3659,8 +4445,14 @@
       <c r="G152" s="1">
         <v>8722</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M152" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>103</v>
       </c>
@@ -3673,8 +4465,14 @@
       <c r="G153" s="1">
         <v>8723</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M153" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>103</v>
       </c>
@@ -3687,8 +4485,14 @@
       <c r="G154" s="1">
         <v>8724</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M154" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>103</v>
       </c>
@@ -3701,8 +4505,14 @@
       <c r="G155" s="1">
         <v>8725</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M155" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>103</v>
       </c>
@@ -3715,8 +4525,14 @@
       <c r="G156" s="1">
         <v>8726</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M156" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
         <v>103</v>
       </c>
@@ -3729,8 +4545,14 @@
       <c r="G157" s="1">
         <v>8727</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M157" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
         <v>103</v>
       </c>
@@ -3743,8 +4565,14 @@
       <c r="G158" s="1">
         <v>8728</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M158" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>103</v>
       </c>
@@ -3757,8 +4585,14 @@
       <c r="G159" s="1">
         <v>8729</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M159" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>103</v>
       </c>
@@ -3771,8 +4605,14 @@
       <c r="G160" s="1">
         <v>8730</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M160" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
         <v>103</v>
       </c>
@@ -3785,8 +4625,14 @@
       <c r="G161" s="1">
         <v>8731</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M161" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
         <v>103</v>
       </c>
@@ -3799,8 +4645,14 @@
       <c r="G162" s="1">
         <v>8732</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M162" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
         <v>103</v>
       </c>
@@ -3813,8 +4665,14 @@
       <c r="G163" s="1">
         <v>8733</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M163" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
         <v>103</v>
       </c>
@@ -3827,8 +4685,14 @@
       <c r="G164" s="1">
         <v>8734</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M164" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
         <v>103</v>
       </c>
@@ -3841,8 +4705,14 @@
       <c r="G165" s="1">
         <v>8735</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M165" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
         <v>103</v>
       </c>
@@ -3855,8 +4725,14 @@
       <c r="G166" s="1">
         <v>8736</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M166" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
         <v>103</v>
       </c>
@@ -3869,8 +4745,14 @@
       <c r="G167" s="1">
         <v>8737</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M167" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
         <v>103</v>
       </c>
@@ -3883,8 +4765,14 @@
       <c r="G168" s="1">
         <v>8738</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M168" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
         <v>103</v>
       </c>
@@ -3897,8 +4785,14 @@
       <c r="G169" s="1">
         <v>8739</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M169" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
         <v>103</v>
       </c>
@@ -3911,8 +4805,14 @@
       <c r="G170" s="1">
         <v>8740</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M170" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
         <v>103</v>
       </c>
@@ -3925,8 +4825,14 @@
       <c r="G171" s="1">
         <v>8741</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M171" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
         <v>103</v>
       </c>
@@ -3939,8 +4845,14 @@
       <c r="G172" s="1">
         <v>8742</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M172" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
         <v>103</v>
       </c>
@@ -3953,8 +4865,14 @@
       <c r="G173" s="1">
         <v>8743</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M173" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
         <v>103</v>
       </c>
@@ -3967,8 +4885,14 @@
       <c r="G174" s="1">
         <v>8744</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M174" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
         <v>103</v>
       </c>
@@ -3981,8 +4905,14 @@
       <c r="G175" s="1">
         <v>8745</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M175" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
         <v>103</v>
       </c>
@@ -3995,8 +4925,14 @@
       <c r="G176" s="1">
         <v>8746</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M176" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
         <v>103</v>
       </c>
@@ -4009,8 +4945,14 @@
       <c r="G177" s="1">
         <v>8747</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M177" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
         <v>103</v>
       </c>
@@ -4023,8 +4965,14 @@
       <c r="G178" s="1">
         <v>8748</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M178" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
         <v>103</v>
       </c>
@@ -4037,8 +4985,14 @@
       <c r="G179" s="1">
         <v>8749</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M179" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
         <v>103</v>
       </c>
@@ -4051,8 +5005,14 @@
       <c r="G180" s="1">
         <v>8750</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M180" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
         <v>103</v>
       </c>
@@ -4065,8 +5025,14 @@
       <c r="G181" s="1">
         <v>8751</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M181" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
         <v>103</v>
       </c>
@@ -4079,8 +5045,14 @@
       <c r="G182" s="1">
         <v>8752</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M182" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" s="1" t="s">
         <v>103</v>
       </c>
@@ -4093,8 +5065,14 @@
       <c r="G183" s="1">
         <v>8753</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M183" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" s="1" t="s">
         <v>103</v>
       </c>
@@ -4107,8 +5085,14 @@
       <c r="G184" s="1">
         <v>8754</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M184" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" s="1" t="s">
         <v>103</v>
       </c>
@@ -4121,8 +5105,14 @@
       <c r="G185" s="1">
         <v>8755</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M185" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" s="1" t="s">
         <v>103</v>
       </c>
@@ -4135,8 +5125,14 @@
       <c r="G186" s="1">
         <v>8756</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M186" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
         <v>103</v>
       </c>
@@ -4149,8 +5145,14 @@
       <c r="G187" s="1">
         <v>8757</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M187" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" s="1" t="s">
         <v>103</v>
       </c>
@@ -4163,8 +5165,14 @@
       <c r="G188" s="1">
         <v>8758</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M188" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" s="1" t="s">
         <v>103</v>
       </c>
@@ -4177,8 +5185,14 @@
       <c r="G189" s="1">
         <v>8759</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M189" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" s="1" t="s">
         <v>103</v>
       </c>
@@ -4191,8 +5205,14 @@
       <c r="G190" s="1">
         <v>8760</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M190" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" s="1" t="s">
         <v>103</v>
       </c>
@@ -4205,8 +5225,14 @@
       <c r="G191" s="1">
         <v>8761</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M191" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" s="1" t="s">
         <v>103</v>
       </c>
@@ -4219,8 +5245,14 @@
       <c r="G192" s="1">
         <v>8762</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M192" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" s="1" t="s">
         <v>103</v>
       </c>
@@ -4233,8 +5265,14 @@
       <c r="G193" s="1">
         <v>8763</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M193" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" s="1" t="s">
         <v>103</v>
       </c>
@@ -4247,8 +5285,14 @@
       <c r="G194" s="1">
         <v>8764</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M194" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="1" t="s">
         <v>103</v>
       </c>
@@ -4261,8 +5305,14 @@
       <c r="G195" s="1">
         <v>8765</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M195" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" s="1" t="s">
         <v>103</v>
       </c>
@@ -4275,8 +5325,14 @@
       <c r="G196" s="1">
         <v>8766</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M196" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="1" t="s">
         <v>103</v>
       </c>
@@ -4289,8 +5345,14 @@
       <c r="G197" s="1">
         <v>8767</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M197" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" s="1" t="s">
         <v>103</v>
       </c>
@@ -4303,8 +5365,14 @@
       <c r="G198" s="1">
         <v>8768</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M198" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" s="1" t="s">
         <v>103</v>
       </c>
@@ -4317,8 +5385,14 @@
       <c r="G199" s="1">
         <v>8769</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M199" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" s="1" t="s">
         <v>103</v>
       </c>
@@ -4331,8 +5405,14 @@
       <c r="G200" s="1">
         <v>8770</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M200" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" s="1" t="s">
         <v>103</v>
       </c>
@@ -4345,8 +5425,14 @@
       <c r="G201" s="1">
         <v>8771</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M201" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" s="1" t="s">
         <v>103</v>
       </c>
@@ -4359,8 +5445,14 @@
       <c r="G202" s="1">
         <v>8772</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M202" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" s="1" t="s">
         <v>103</v>
       </c>
@@ -4373,8 +5465,14 @@
       <c r="G203" s="1">
         <v>8773</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M203" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" s="1" t="s">
         <v>103</v>
       </c>
@@ -4387,8 +5485,14 @@
       <c r="G204" s="1">
         <v>8774</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M204" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" s="1" t="s">
         <v>103</v>
       </c>
@@ -4401,8 +5505,14 @@
       <c r="G205" s="1">
         <v>8775</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M205" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" s="1" t="s">
         <v>103</v>
       </c>
@@ -4415,8 +5525,14 @@
       <c r="G206" s="1">
         <v>8776</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M206" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" s="1" t="s">
         <v>103</v>
       </c>
@@ -4429,8 +5545,14 @@
       <c r="G207" s="1">
         <v>8777</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M207" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" s="1" t="s">
         <v>103</v>
       </c>
@@ -4443,8 +5565,14 @@
       <c r="G208" s="1">
         <v>8778</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M208" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="1" t="s">
         <v>103</v>
       </c>
@@ -4457,8 +5585,14 @@
       <c r="G209" s="1">
         <v>8779</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M209" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" s="1" t="s">
         <v>103</v>
       </c>
@@ -4471,8 +5605,14 @@
       <c r="G210" s="1">
         <v>8780</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M210" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="1" t="s">
         <v>103</v>
       </c>
@@ -4485,8 +5625,14 @@
       <c r="G211" s="1">
         <v>8781</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M211" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="1" t="s">
         <v>103</v>
       </c>
@@ -4499,8 +5645,14 @@
       <c r="G212" s="1">
         <v>8782</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M212" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" s="1" t="s">
         <v>103</v>
       </c>
@@ -4513,8 +5665,14 @@
       <c r="G213" s="1">
         <v>8783</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M213" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" s="1" t="s">
         <v>103</v>
       </c>
@@ -4527,8 +5685,14 @@
       <c r="G214" s="1">
         <v>8784</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M214" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" s="1" t="s">
         <v>103</v>
       </c>
@@ -4541,8 +5705,14 @@
       <c r="G215" s="1">
         <v>8785</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M215" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" s="1" t="s">
         <v>103</v>
       </c>
@@ -4555,8 +5725,14 @@
       <c r="G216" s="1">
         <v>8786</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M216" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" s="1" t="s">
         <v>103</v>
       </c>
@@ -4569,8 +5745,14 @@
       <c r="G217" s="1">
         <v>8787</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M217" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
         <v>103</v>
       </c>
@@ -4583,8 +5765,14 @@
       <c r="G218" s="1">
         <v>8788</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M218" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" s="1" t="s">
         <v>103</v>
       </c>
@@ -4597,8 +5785,14 @@
       <c r="G219" s="1">
         <v>8789</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M219" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" s="1" t="s">
         <v>103</v>
       </c>
@@ -4611,8 +5805,14 @@
       <c r="G220" s="1">
         <v>8790</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M220" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" s="1" t="s">
         <v>103</v>
       </c>
@@ -4625,8 +5825,14 @@
       <c r="G221" s="1">
         <v>8791</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M221" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" s="1" t="s">
         <v>103</v>
       </c>
@@ -4639,8 +5845,14 @@
       <c r="G222" s="1">
         <v>8792</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M222" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" s="1" t="s">
         <v>103</v>
       </c>
@@ -4653,8 +5865,14 @@
       <c r="G223" s="1">
         <v>8793</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M223" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
         <v>103</v>
       </c>
@@ -4667,8 +5885,14 @@
       <c r="G224" s="1">
         <v>8794</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M224" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
         <v>103</v>
       </c>
@@ -4681,8 +5905,14 @@
       <c r="G225" s="1">
         <v>8795</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M225" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
         <v>103</v>
       </c>
@@ -4695,8 +5925,14 @@
       <c r="G226" s="1">
         <v>8796</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M226" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
         <v>103</v>
       </c>
@@ -4709,8 +5945,14 @@
       <c r="G227" s="1">
         <v>8797</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M227" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
         <v>103</v>
       </c>
@@ -4723,8 +5965,14 @@
       <c r="G228" s="1">
         <v>8798</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M228" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
         <v>103</v>
       </c>
@@ -4737,8 +5985,14 @@
       <c r="G229" s="1">
         <v>8799</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M229" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" s="1" t="s">
         <v>103</v>
       </c>
@@ -4751,8 +6005,14 @@
       <c r="G230" s="1">
         <v>8800</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M230" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13">
       <c r="A231" s="1" t="s">
         <v>103</v>
       </c>
@@ -4765,8 +6025,14 @@
       <c r="G231" s="1">
         <v>8801</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M231" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13">
       <c r="A232" s="1" t="s">
         <v>103</v>
       </c>
@@ -4779,8 +6045,14 @@
       <c r="G232" s="1">
         <v>8802</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M232" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
       <c r="A233" s="1" t="s">
         <v>103</v>
       </c>
@@ -4793,8 +6065,14 @@
       <c r="G233" s="1">
         <v>8803</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M233" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
       <c r="A234" s="1" t="s">
         <v>103</v>
       </c>
@@ -4807,8 +6085,14 @@
       <c r="G234" s="1">
         <v>8804</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M234" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
         <v>103</v>
       </c>
@@ -4821,8 +6105,14 @@
       <c r="G235" s="1">
         <v>8805</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M235" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236" s="1" t="s">
         <v>103</v>
       </c>
@@ -4835,8 +6125,14 @@
       <c r="G236" s="1">
         <v>8806</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M236" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
       <c r="A237" s="1" t="s">
         <v>103</v>
       </c>
@@ -4849,8 +6145,14 @@
       <c r="G237" s="1">
         <v>8807</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M237" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
       <c r="A238" s="1" t="s">
         <v>103</v>
       </c>
@@ -4863,8 +6165,14 @@
       <c r="G238" s="1">
         <v>8808</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M238" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239" s="1" t="s">
         <v>103</v>
       </c>
@@ -4877,8 +6185,14 @@
       <c r="G239" s="1">
         <v>8809</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M239" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
         <v>103</v>
       </c>
@@ -4891,8 +6205,14 @@
       <c r="G240" s="1">
         <v>8810</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M240" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13">
       <c r="A241" s="1" t="s">
         <v>103</v>
       </c>
@@ -4905,8 +6225,14 @@
       <c r="G241" s="1">
         <v>8811</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M241" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
       <c r="A242" s="1" t="s">
         <v>103</v>
       </c>
@@ -4919,8 +6245,14 @@
       <c r="G242" s="1">
         <v>8812</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M242" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
       <c r="A243" s="1" t="s">
         <v>103</v>
       </c>
@@ -4933,8 +6265,14 @@
       <c r="G243" s="1">
         <v>8813</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M243" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
       <c r="A244" s="1" t="s">
         <v>103</v>
       </c>
@@ -4947,8 +6285,14 @@
       <c r="G244" s="1">
         <v>8814</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M244" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245" s="1" t="s">
         <v>103</v>
       </c>
@@ -4961,8 +6305,14 @@
       <c r="G245" s="1">
         <v>8815</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M245" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13">
       <c r="A246" s="1" t="s">
         <v>103</v>
       </c>
@@ -4975,8 +6325,14 @@
       <c r="G246" s="1">
         <v>8816</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M246" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247" s="1" t="s">
         <v>103</v>
       </c>
@@ -4989,8 +6345,14 @@
       <c r="G247" s="1">
         <v>8817</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="H247" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M247" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
       <c r="A248" s="1" t="s">
         <v>103</v>
       </c>
@@ -5003,8 +6365,14 @@
       <c r="G248" s="1">
         <v>8818</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M248" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
       <c r="A249" s="1" t="s">
         <v>103</v>
       </c>
@@ -5017,4037 +6385,11 @@
       <c r="G249" s="1">
         <v>8819</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G250" s="1">
-        <v>8820</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G251" s="1">
-        <v>8821</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G252" s="1">
-        <v>8822</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G253" s="1">
-        <v>8823</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G254" s="1">
-        <v>8824</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G255" s="1">
-        <v>8825</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G256" s="1">
-        <v>8826</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G257" s="1">
-        <v>8827</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G258" s="1">
-        <v>8828</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G259" s="1">
-        <v>8829</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
-      <c r="A260" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G260" s="1">
-        <v>8830</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G261" s="1">
-        <v>8831</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G262" s="1">
-        <v>8832</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G263" s="1">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G264" s="1">
-        <v>8834</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G265" s="1">
-        <v>8835</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G266" s="1">
-        <v>8836</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G267" s="1">
-        <v>8837</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G268" s="1">
-        <v>8838</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F269" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G269" s="1">
-        <v>8839</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G270" s="1">
-        <v>8840</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G271" s="1">
-        <v>8841</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G272" s="1">
-        <v>8842</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G273" s="1">
-        <v>8843</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G274" s="1">
-        <v>8844</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G275" s="1">
-        <v>8845</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G276" s="1">
-        <v>8846</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F277" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G277" s="1">
-        <v>8847</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G278" s="1">
-        <v>8848</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G279" s="1">
-        <v>8849</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G280" s="1">
-        <v>8850</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G281" s="1">
-        <v>8851</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G282" s="1">
-        <v>8852</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G283" s="1">
-        <v>8853</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G284" s="1">
-        <v>8854</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G285" s="1">
-        <v>8855</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G286" s="1">
-        <v>8856</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G287" s="1">
-        <v>8857</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G288" s="1">
-        <v>8858</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G289" s="1">
-        <v>8859</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G290" s="1">
-        <v>8860</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G291" s="1">
-        <v>8861</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G292" s="1">
-        <v>8862</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G293" s="1">
-        <v>8863</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G294" s="1">
-        <v>8864</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G295" s="1">
-        <v>8865</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G296" s="1">
-        <v>8866</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G297" s="1">
-        <v>8867</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G298" s="1">
-        <v>8868</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F299" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G299" s="1">
-        <v>8869</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G300" s="1">
-        <v>8870</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="A301" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F301" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G301" s="1">
-        <v>8871</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="A302" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F302" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G302" s="1">
-        <v>8872</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G303" s="1">
-        <v>8873</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G304" s="1">
-        <v>8874</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F305" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G305" s="1">
-        <v>8875</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F306" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G306" s="1">
-        <v>8876</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G307" s="1">
-        <v>8877</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="A308" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F308" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G308" s="1">
-        <v>8878</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
-      <c r="A309" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G309" s="1">
-        <v>8879</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
-      <c r="A310" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G310" s="1">
-        <v>8880</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
-      <c r="A311" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G311" s="1">
-        <v>8881</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
-      <c r="A312" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G312" s="1">
-        <v>8882</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
-      <c r="A313" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G313" s="1">
-        <v>8883</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
-      <c r="A314" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G314" s="1">
-        <v>8884</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
-      <c r="A315" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G315" s="1">
-        <v>8885</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
-      <c r="A316" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G316" s="1">
-        <v>8886</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
-      <c r="A317" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G317" s="1">
-        <v>8887</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
-      <c r="A318" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G318" s="1">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
-      <c r="A319" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G319" s="1">
-        <v>8889</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7">
-      <c r="A320" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G320" s="1">
-        <v>8890</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
-      <c r="A321" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G321" s="1">
-        <v>8891</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
-      <c r="A322" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G322" s="1">
-        <v>8892</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
-      <c r="A323" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G323" s="1">
-        <v>8893</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
-      <c r="A324" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G324" s="1">
-        <v>8894</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
-      <c r="A325" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G325" s="1">
-        <v>8895</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
-      <c r="A326" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G326" s="1">
-        <v>8896</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
-      <c r="A327" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G327" s="1">
-        <v>8897</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
-      <c r="A328" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G328" s="1">
-        <v>8898</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
-      <c r="A329" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G329" s="1">
-        <v>8899</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
-      <c r="A330" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G330" s="1">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
-      <c r="A331" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G331" s="1">
-        <v>8901</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7">
-      <c r="A332" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F332" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G332" s="1">
-        <v>8902</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7">
-      <c r="A333" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G333" s="1">
-        <v>8903</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7">
-      <c r="A334" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G334" s="1">
-        <v>8904</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
-      <c r="A335" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G335" s="1">
-        <v>8905</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
-      <c r="A336" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G336" s="1">
-        <v>8906</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7">
-      <c r="A337" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G337" s="1">
-        <v>8907</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
-      <c r="A338" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G338" s="1">
-        <v>8908</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
-      <c r="A339" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F339" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G339" s="1">
-        <v>8909</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
-      <c r="A340" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F340" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G340" s="1">
-        <v>8910</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
-      <c r="A341" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G341" s="1">
-        <v>8911</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
-      <c r="A342" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G342" s="1">
-        <v>8912</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
-      <c r="A343" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G343" s="1">
-        <v>8913</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
-      <c r="A344" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G344" s="1">
-        <v>8914</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
-      <c r="A345" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F345" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G345" s="1">
-        <v>8915</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
-      <c r="A346" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G346" s="1">
-        <v>8916</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
-      <c r="A347" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F347" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G347" s="1">
-        <v>8917</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
-      <c r="A348" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G348" s="1">
-        <v>8918</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
-      <c r="A349" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G349" s="1">
-        <v>8919</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
-      <c r="A350" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G350" s="1">
-        <v>8920</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="A351" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G351" s="1">
-        <v>8921</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="A352" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G352" s="1">
-        <v>8922</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
-      <c r="A353" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G353" s="1">
-        <v>8923</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
-      <c r="A354" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G354" s="1">
-        <v>8924</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7">
-      <c r="A355" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F355" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G355" s="1">
-        <v>8925</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
-      <c r="A356" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G356" s="1">
-        <v>8926</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
-      <c r="A357" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G357" s="1">
-        <v>8927</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
-      <c r="A358" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G358" s="1">
-        <v>8928</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
-      <c r="A359" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G359" s="1">
-        <v>8929</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
-      <c r="A360" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G360" s="1">
-        <v>8930</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
-      <c r="A361" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F361" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G361" s="1">
-        <v>8931</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
-      <c r="A362" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F362" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G362" s="1">
-        <v>8932</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
-      <c r="A363" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G363" s="1">
-        <v>8933</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
-      <c r="A364" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G364" s="1">
-        <v>8934</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
-      <c r="A365" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G365" s="1">
-        <v>8935</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
-      <c r="A366" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G366" s="1">
-        <v>8936</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
-      <c r="A367" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G367" s="1">
-        <v>8937</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7">
-      <c r="A368" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G368" s="1">
-        <v>8938</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7">
-      <c r="A369" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G369" s="1">
-        <v>8939</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7">
-      <c r="A370" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F370" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G370" s="1">
-        <v>8940</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
-      <c r="A371" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G371" s="1">
-        <v>8941</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7">
-      <c r="A372" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G372" s="1">
-        <v>8942</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7">
-      <c r="A373" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F373" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G373" s="1">
-        <v>8943</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7">
-      <c r="A374" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F374" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G374" s="1">
-        <v>8944</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7">
-      <c r="A375" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F375" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G375" s="1">
-        <v>8945</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7">
-      <c r="A376" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F376" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G376" s="1">
-        <v>8946</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7">
-      <c r="A377" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F377" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G377" s="1">
-        <v>8947</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
-      <c r="A378" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G378" s="1">
-        <v>8948</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7">
-      <c r="A379" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F379" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G379" s="1">
-        <v>8949</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7">
-      <c r="A380" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G380" s="1">
-        <v>8950</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
-      <c r="A381" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G381" s="1">
-        <v>8951</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7">
-      <c r="A382" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F382" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G382" s="1">
-        <v>8952</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7">
-      <c r="A383" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F383" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G383" s="1">
-        <v>8953</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7">
-      <c r="A384" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F384" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G384" s="1">
-        <v>8954</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7">
-      <c r="A385" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G385" s="1">
-        <v>8955</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7">
-      <c r="A386" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F386" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G386" s="1">
-        <v>8956</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7">
-      <c r="A387" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F387" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G387" s="1">
-        <v>8957</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7">
-      <c r="A388" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F388" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G388" s="1">
-        <v>8958</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7">
-      <c r="A389" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F389" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G389" s="1">
-        <v>8959</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7">
-      <c r="A390" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F390" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G390" s="1">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7">
-      <c r="A391" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F391" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G391" s="1">
-        <v>8961</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
-      <c r="A392" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F392" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G392" s="1">
-        <v>8962</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7">
-      <c r="A393" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F393" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G393" s="1">
-        <v>8963</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7">
-      <c r="A394" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F394" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G394" s="1">
-        <v>8964</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7">
-      <c r="A395" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F395" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G395" s="1">
-        <v>8965</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7">
-      <c r="A396" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F396" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G396" s="1">
-        <v>8966</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7">
-      <c r="A397" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F397" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G397" s="1">
-        <v>8967</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7">
-      <c r="A398" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F398" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G398" s="1">
-        <v>8968</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7">
-      <c r="A399" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F399" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G399" s="1">
-        <v>8969</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7">
-      <c r="A400" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F400" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G400" s="1">
-        <v>8970</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
-      <c r="A401" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F401" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G401" s="1">
-        <v>8971</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
-      <c r="A402" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G402" s="1">
-        <v>8972</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7">
-      <c r="A403" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F403" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G403" s="1">
-        <v>8973</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7">
-      <c r="A404" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F404" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G404" s="1">
-        <v>8974</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7">
-      <c r="A405" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F405" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G405" s="1">
-        <v>8975</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7">
-      <c r="A406" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G406" s="1">
-        <v>8976</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7">
-      <c r="A407" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F407" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G407" s="1">
-        <v>8977</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7">
-      <c r="A408" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F408" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G408" s="1">
-        <v>8978</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7">
-      <c r="A409" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F409" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G409" s="1">
-        <v>8979</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7">
-      <c r="A410" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F410" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G410" s="1">
-        <v>8980</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7">
-      <c r="A411" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F411" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G411" s="1">
-        <v>8981</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7">
-      <c r="A412" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F412" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G412" s="1">
-        <v>8982</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7">
-      <c r="A413" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F413" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G413" s="1">
-        <v>8983</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
-      <c r="A414" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F414" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G414" s="1">
-        <v>8984</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7">
-      <c r="A415" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F415" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G415" s="1">
-        <v>8985</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7">
-      <c r="A416" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F416" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G416" s="1">
-        <v>8986</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7">
-      <c r="A417" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F417" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G417" s="1">
-        <v>8987</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7">
-      <c r="A418" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F418" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G418" s="1">
-        <v>8988</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7">
-      <c r="A419" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F419" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G419" s="1">
-        <v>8989</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7">
-      <c r="A420" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F420" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G420" s="1">
-        <v>8990</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7">
-      <c r="A421" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F421" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G421" s="1">
-        <v>8991</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7">
-      <c r="A422" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F422" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G422" s="1">
-        <v>8992</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7">
-      <c r="A423" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F423" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G423" s="1">
-        <v>8993</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7">
-      <c r="A424" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F424" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G424" s="1">
-        <v>8994</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7">
-      <c r="A425" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F425" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G425" s="1">
-        <v>8995</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7">
-      <c r="A426" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F426" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G426" s="1">
-        <v>8996</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7">
-      <c r="A427" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F427" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G427" s="1">
-        <v>8997</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7">
-      <c r="A428" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F428" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G428" s="1">
-        <v>8998</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7">
-      <c r="A429" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F429" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G429" s="1">
-        <v>8999</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7">
-      <c r="A430" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F430" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G430" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7">
-      <c r="A431" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F431" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G431" s="1">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7">
-      <c r="A432" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F432" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G432" s="1">
-        <v>9002</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7">
-      <c r="A433" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F433" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G433" s="1">
-        <v>9003</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7">
-      <c r="A434" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F434" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G434" s="1">
-        <v>9004</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7">
-      <c r="A435" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F435" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G435" s="1">
-        <v>9005</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7">
-      <c r="A436" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F436" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G436" s="1">
-        <v>9006</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
-      <c r="A437" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F437" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G437" s="1">
-        <v>9007</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7">
-      <c r="A438" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F438" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G438" s="1">
-        <v>9008</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7">
-      <c r="A439" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F439" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G439" s="1">
-        <v>9009</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7">
-      <c r="A440" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F440" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G440" s="1">
-        <v>9010</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7">
-      <c r="A441" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F441" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G441" s="1">
-        <v>9011</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7">
-      <c r="A442" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F442" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G442" s="1">
-        <v>9012</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7">
-      <c r="A443" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F443" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G443" s="1">
-        <v>9013</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7">
-      <c r="A444" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F444" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G444" s="1">
-        <v>9014</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7">
-      <c r="A445" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F445" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G445" s="1">
-        <v>9015</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7">
-      <c r="A446" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F446" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G446" s="1">
-        <v>9016</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7">
-      <c r="A447" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F447" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G447" s="1">
-        <v>9017</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7">
-      <c r="A448" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F448" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G448" s="1">
-        <v>9018</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7">
-      <c r="A449" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F449" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G449" s="1">
-        <v>9019</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7">
-      <c r="A450" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G450" s="1">
-        <v>9020</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7">
-      <c r="A451" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F451" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G451" s="1">
-        <v>9021</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7">
-      <c r="A452" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F452" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G452" s="1">
-        <v>9022</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7">
-      <c r="A453" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F453" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G453" s="1">
-        <v>9023</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7">
-      <c r="A454" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F454" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G454" s="1">
-        <v>9024</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7">
-      <c r="A455" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F455" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G455" s="1">
-        <v>9025</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7">
-      <c r="A456" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F456" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G456" s="1">
-        <v>9026</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7">
-      <c r="A457" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F457" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G457" s="1">
-        <v>9027</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7">
-      <c r="A458" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F458" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G458" s="1">
-        <v>9028</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7">
-      <c r="A459" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F459" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G459" s="1">
-        <v>9029</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7">
-      <c r="A460" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F460" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G460" s="1">
-        <v>9030</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7">
-      <c r="A461" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F461" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G461" s="1">
-        <v>9031</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
-      <c r="A462" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F462" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G462" s="1">
-        <v>9032</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7">
-      <c r="A463" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F463" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G463" s="1">
-        <v>9033</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7">
-      <c r="A464" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G464" s="1">
-        <v>9034</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7">
-      <c r="A465" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F465" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G465" s="1">
-        <v>9035</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7">
-      <c r="A466" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F466" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G466" s="1">
-        <v>9036</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7">
-      <c r="A467" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F467" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G467" s="1">
-        <v>9037</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7">
-      <c r="A468" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F468" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G468" s="1">
-        <v>9038</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
-      <c r="A469" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F469" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G469" s="1">
-        <v>9039</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7">
-      <c r="A470" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F470" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G470" s="1">
-        <v>9040</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7">
-      <c r="A471" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F471" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G471" s="1">
-        <v>9041</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7">
-      <c r="A472" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F472" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G472" s="1">
-        <v>9042</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7">
-      <c r="A473" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F473" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G473" s="1">
-        <v>9043</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7">
-      <c r="A474" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F474" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G474" s="1">
-        <v>9044</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7">
-      <c r="A475" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F475" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G475" s="1">
-        <v>9045</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7">
-      <c r="A476" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F476" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G476" s="1">
-        <v>9046</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7">
-      <c r="A477" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F477" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G477" s="1">
-        <v>9047</v>
-      </c>
-    </row>
-    <row r="478" spans="1:7">
-      <c r="A478" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F478" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G478" s="1">
-        <v>9048</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7">
-      <c r="A479" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F479" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G479" s="1">
-        <v>9049</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7">
-      <c r="A480" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F480" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G480" s="1">
-        <v>9050</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7">
-      <c r="A481" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C481" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F481" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G481" s="1">
-        <v>9051</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7">
-      <c r="A482" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F482" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G482" s="1">
-        <v>9052</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7">
-      <c r="A483" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F483" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G483" s="1">
-        <v>9053</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7">
-      <c r="A484" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F484" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G484" s="1">
-        <v>9054</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7">
-      <c r="A485" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F485" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G485" s="1">
-        <v>9055</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7">
-      <c r="A486" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F486" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G486" s="1">
-        <v>9056</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7">
-      <c r="A487" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F487" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G487" s="1">
-        <v>9057</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7">
-      <c r="A488" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F488" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G488" s="1">
-        <v>9058</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7">
-      <c r="A489" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F489" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G489" s="1">
-        <v>9059</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7">
-      <c r="A490" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F490" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G490" s="1">
-        <v>9060</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7">
-      <c r="A491" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C491" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F491" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G491" s="1">
-        <v>9061</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7">
-      <c r="A492" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F492" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G492" s="1">
-        <v>9062</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7">
-      <c r="A493" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F493" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G493" s="1">
-        <v>9063</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7">
-      <c r="A494" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F494" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G494" s="1">
-        <v>9064</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7">
-      <c r="A495" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F495" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G495" s="1">
-        <v>9065</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7">
-      <c r="A496" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F496" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G496" s="1">
-        <v>9066</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7">
-      <c r="A497" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F497" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G497" s="1">
-        <v>9067</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7">
-      <c r="A498" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F498" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G498" s="1">
-        <v>9068</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7">
-      <c r="A499" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F499" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G499" s="1">
-        <v>9069</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7">
-      <c r="A500" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C500" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F500" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G500" s="1">
-        <v>9070</v>
-      </c>
-    </row>
-    <row r="501" spans="1:7">
-      <c r="A501" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F501" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G501" s="1">
-        <v>9071</v>
-      </c>
-    </row>
-    <row r="502" spans="1:7">
-      <c r="A502" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F502" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G502" s="1">
-        <v>9072</v>
-      </c>
-    </row>
-    <row r="503" spans="1:7">
-      <c r="A503" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F503" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G503" s="1">
-        <v>9073</v>
-      </c>
-    </row>
-    <row r="504" spans="1:7">
-      <c r="A504" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F504" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G504" s="1">
-        <v>9074</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7">
-      <c r="A505" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F505" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G505" s="1">
-        <v>9075</v>
-      </c>
-    </row>
-    <row r="506" spans="1:7">
-      <c r="A506" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F506" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G506" s="1">
-        <v>9076</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7">
-      <c r="A507" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F507" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G507" s="1">
-        <v>9077</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7">
-      <c r="A508" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F508" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G508" s="1">
-        <v>9078</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7">
-      <c r="A509" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F509" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G509" s="1">
-        <v>9079</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7">
-      <c r="A510" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C510" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F510" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G510" s="1">
-        <v>9080</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7">
-      <c r="A511" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C511" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F511" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G511" s="1">
-        <v>9081</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7">
-      <c r="A512" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F512" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G512" s="1">
-        <v>9082</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7">
-      <c r="A513" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F513" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G513" s="1">
-        <v>9083</v>
-      </c>
-    </row>
-    <row r="514" spans="1:7">
-      <c r="A514" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F514" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G514" s="1">
-        <v>9084</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7">
-      <c r="A515" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F515" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G515" s="1">
-        <v>9085</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7">
-      <c r="A516" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F516" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G516" s="1">
-        <v>9086</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7">
-      <c r="A517" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C517" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F517" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G517" s="1">
-        <v>9087</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7">
-      <c r="A518" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C518" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F518" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G518" s="1">
-        <v>9088</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7">
-      <c r="A519" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C519" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F519" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G519" s="1">
-        <v>9089</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7">
-      <c r="A520" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F520" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G520" s="1">
-        <v>9090</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7">
-      <c r="A521" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C521" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F521" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G521" s="1">
-        <v>9091</v>
-      </c>
-    </row>
-    <row r="522" spans="1:7">
-      <c r="A522" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F522" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G522" s="1">
-        <v>9092</v>
-      </c>
-    </row>
-    <row r="523" spans="1:7">
-      <c r="A523" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F523" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G523" s="1">
-        <v>9093</v>
-      </c>
-    </row>
-    <row r="524" spans="1:7">
-      <c r="A524" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F524" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G524" s="1">
-        <v>9094</v>
-      </c>
-    </row>
-    <row r="525" spans="1:7">
-      <c r="A525" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C525" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F525" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G525" s="1">
-        <v>9095</v>
-      </c>
-    </row>
-    <row r="526" spans="1:7">
-      <c r="A526" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C526" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F526" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G526" s="1">
-        <v>9096</v>
-      </c>
-    </row>
-    <row r="527" spans="1:7">
-      <c r="A527" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C527" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F527" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G527" s="1">
-        <v>9097</v>
-      </c>
-    </row>
-    <row r="528" spans="1:7">
-      <c r="A528" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F528" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G528" s="1">
-        <v>9098</v>
-      </c>
-    </row>
-    <row r="529" spans="1:7">
-      <c r="A529" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F529" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G529" s="1">
-        <v>9099</v>
-      </c>
-    </row>
-    <row r="530" spans="1:7">
-      <c r="A530" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F530" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G530" s="1">
-        <v>9100</v>
-      </c>
-    </row>
-    <row r="531" spans="1:7">
-      <c r="A531" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F531" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G531" s="1">
-        <v>9101</v>
-      </c>
-    </row>
-    <row r="532" spans="1:7">
-      <c r="A532" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F532" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G532" s="1">
-        <v>9102</v>
-      </c>
-    </row>
-    <row r="533" spans="1:7">
-      <c r="A533" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F533" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G533" s="1">
-        <v>9103</v>
-      </c>
-    </row>
-    <row r="534" spans="1:7">
-      <c r="A534" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F534" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G534" s="1">
-        <v>9104</v>
-      </c>
-    </row>
-    <row r="535" spans="1:7">
-      <c r="A535" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F535" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G535" s="1">
-        <v>9105</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7">
-      <c r="A536" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F536" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G536" s="1">
-        <v>9106</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7">
-      <c r="A537" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F537" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G537" s="1">
-        <v>9107</v>
+      <c r="H249" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M249" s="2">
+        <v>42248</v>
       </c>
     </row>
   </sheetData>
@@ -9065,13 +6407,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:14">
@@ -9093,7 +6437,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="K4" s="2">
+        <v>42248</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
@@ -9116,6 +6462,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="2">
+        <v>42248</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -9139,6 +6488,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
+      <c r="K6" s="2">
+        <v>42248</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -9162,6 +6514,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
+      <c r="K7" s="2">
+        <v>42248</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -9185,6 +6540,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8" s="2">
+        <v>42248</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -9208,6 +6566,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
+      <c r="K9" s="2">
+        <v>42248</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -9231,6 +6592,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
+      <c r="K10" s="2">
+        <v>42248</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -9254,6 +6618,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
+      <c r="K11" s="2">
+        <v>42248</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -9277,6 +6644,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
+      <c r="K12" s="2">
+        <v>42248</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -9300,6 +6670,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+      <c r="K13" s="2">
+        <v>42248</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -9323,6 +6696,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
+      <c r="K14" s="2">
+        <v>42248</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -9346,6 +6722,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
+      <c r="K15" s="2">
+        <v>42248</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -9369,6 +6748,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+      <c r="K16" s="2">
+        <v>42248</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -9392,6 +6774,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
+      <c r="K17" s="2">
+        <v>42248</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -9415,6 +6800,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
+      <c r="K18" s="2">
+        <v>42248</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -9438,6 +6826,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+      <c r="K19" s="2">
+        <v>42248</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -9461,6 +6852,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="K20" s="2">
+        <v>42248</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -9484,6 +6878,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
+      <c r="K21" s="2">
+        <v>42248</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -9507,6 +6904,9 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="K22" s="2">
+        <v>42248</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -9530,6 +6930,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
+      <c r="K23" s="2">
+        <v>42248</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -9553,6 +6956,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
+      <c r="K24" s="2">
+        <v>42248</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -9576,6 +6982,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
+      <c r="K25" s="2">
+        <v>42248</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -9599,6 +7008,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
+      <c r="K26" s="2">
+        <v>42248</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -9622,6 +7034,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
+      <c r="K27" s="2">
+        <v>42248</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -9645,6 +7060,9 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
+      <c r="K28" s="2">
+        <v>42248</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -9668,6 +7086,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
+      <c r="K29" s="2">
+        <v>42248</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -9691,6 +7112,9 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
+      <c r="K30" s="2">
+        <v>42248</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -9714,6 +7138,9 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
+      <c r="K31" s="2">
+        <v>42248</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -9737,6 +7164,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
+      <c r="K32" s="2">
+        <v>42248</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -9760,6 +7190,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
+      <c r="K33" s="2">
+        <v>42248</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -9783,6 +7216,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
+      <c r="K34" s="2">
+        <v>42248</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -9806,6 +7242,9 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
+      <c r="K35" s="2">
+        <v>42248</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -9829,6 +7268,9 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
+      <c r="K36" s="2">
+        <v>42248</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -9852,6 +7294,9 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
+      <c r="K37" s="2">
+        <v>42248</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -9875,6 +7320,9 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
+      <c r="K38" s="2">
+        <v>42248</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -9898,6 +7346,9 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
+      <c r="K39" s="2">
+        <v>42248</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -9921,6 +7372,9 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
+      <c r="K40" s="2">
+        <v>42248</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -9944,6 +7398,9 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
+      <c r="K41" s="2">
+        <v>42248</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -9967,6 +7424,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
+      <c r="K42" s="2">
+        <v>42248</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -9990,6 +7450,9 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
+      <c r="K43" s="2">
+        <v>42248</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -10013,6 +7476,9 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
+      <c r="K44" s="2">
+        <v>42248</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -10036,6 +7502,9 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
+      <c r="K45" s="2">
+        <v>42248</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -10059,6 +7528,9 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
+      <c r="K46" s="2">
+        <v>42248</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -10082,6 +7554,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
+      <c r="K47" s="2">
+        <v>42248</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -10105,6 +7580,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
+      <c r="K48" s="2">
+        <v>42248</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -10128,6 +7606,9 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
+      <c r="K49" s="2">
+        <v>42248</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -10151,6 +7632,9 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
+      <c r="K50" s="2">
+        <v>42248</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -10174,6 +7658,9 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
+      <c r="K51" s="2">
+        <v>42248</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -10197,6 +7684,9 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
+      <c r="K52" s="2">
+        <v>42248</v>
+      </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -10220,6 +7710,9 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
+      <c r="K53" s="2">
+        <v>42248</v>
+      </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -10243,6 +7736,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
+      <c r="K54" s="2">
+        <v>42248</v>
+      </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -10266,6 +7762,9 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
+      <c r="K55" s="2">
+        <v>42248</v>
+      </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -10289,6 +7788,9 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
+      <c r="K56" s="2">
+        <v>42248</v>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -10312,6 +7814,9 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
+      <c r="K57" s="2">
+        <v>42248</v>
+      </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -10335,6 +7840,9 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
+      <c r="K58" s="2">
+        <v>42248</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -10358,6 +7866,9 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
+      <c r="K59" s="2">
+        <v>42248</v>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -10381,6 +7892,9 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
+      <c r="K60" s="2">
+        <v>42248</v>
+      </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -10404,6 +7918,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
+      <c r="K61" s="2">
+        <v>42248</v>
+      </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -10427,6 +7944,9 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
+      <c r="K62" s="2">
+        <v>42248</v>
+      </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -10450,6 +7970,9 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
+      <c r="K63" s="2">
+        <v>42248</v>
+      </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -10473,6 +7996,9 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
+      <c r="K64" s="2">
+        <v>42248</v>
+      </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -10496,6 +8022,9 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
+      <c r="K65" s="2">
+        <v>42248</v>
+      </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -10519,6 +8048,9 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
+      <c r="K66" s="2">
+        <v>42248</v>
+      </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -10542,6 +8074,9 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
+      <c r="K67" s="2">
+        <v>42248</v>
+      </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -10565,6 +8100,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
+      <c r="K68" s="2">
+        <v>42248</v>
+      </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -10588,6 +8126,9 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
+      <c r="K69" s="2">
+        <v>42248</v>
+      </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -10611,6 +8152,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
+      <c r="K70" s="2">
+        <v>42248</v>
+      </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -10634,6 +8178,9 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
+      <c r="K71" s="2">
+        <v>42248</v>
+      </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -10657,6 +8204,9 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
+      <c r="K72" s="2">
+        <v>42248</v>
+      </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -10680,6 +8230,9 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
+      <c r="K73" s="2">
+        <v>42248</v>
+      </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -10703,6 +8256,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
+      <c r="K74" s="2">
+        <v>42248</v>
+      </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -10726,6 +8282,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
+      <c r="K75" s="2">
+        <v>42248</v>
+      </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -10749,6 +8308,9 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
+      <c r="K76" s="2">
+        <v>42248</v>
+      </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -10772,6 +8334,9 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
+      <c r="K77" s="2">
+        <v>42248</v>
+      </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -10795,6 +8360,9 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
+      <c r="K78" s="2">
+        <v>42248</v>
+      </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -10818,6 +8386,9 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
+      <c r="K79" s="2">
+        <v>42248</v>
+      </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -10841,6 +8412,9 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
+      <c r="K80" s="2">
+        <v>42248</v>
+      </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -10864,6 +8438,9 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
+      <c r="K81" s="2">
+        <v>42248</v>
+      </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -10887,6 +8464,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
+      <c r="K82" s="2">
+        <v>42248</v>
+      </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -10910,6 +8490,9 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
+      <c r="K83" s="2">
+        <v>42248</v>
+      </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -10933,6 +8516,9 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
+      <c r="K84" s="2">
+        <v>42248</v>
+      </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -10956,6 +8542,9 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
+      <c r="K85" s="2">
+        <v>42248</v>
+      </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -10979,6 +8568,9 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
+      <c r="K86" s="2">
+        <v>42248</v>
+      </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -11002,6 +8594,9 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
+      <c r="K87" s="2">
+        <v>42248</v>
+      </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -11025,6 +8620,9 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
+      <c r="K88" s="2">
+        <v>42248</v>
+      </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -11048,6 +8646,9 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
+      <c r="K89" s="2">
+        <v>42248</v>
+      </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -11071,6 +8672,9 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
+      <c r="K90" s="2">
+        <v>42248</v>
+      </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -11094,6 +8698,9 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
+      <c r="K91" s="2">
+        <v>42248</v>
+      </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -11117,6 +8724,9 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
+      <c r="K92" s="2">
+        <v>42248</v>
+      </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -11140,6 +8750,9 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
+      <c r="K93" s="2">
+        <v>42248</v>
+      </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -11163,6 +8776,9 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
+      <c r="K94" s="2">
+        <v>42248</v>
+      </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
@@ -11186,6 +8802,9 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
+      <c r="K95" s="2">
+        <v>42248</v>
+      </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -11209,6 +8828,9 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
+      <c r="K96" s="2">
+        <v>42248</v>
+      </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
@@ -11232,6 +8854,9 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
+      <c r="K97" s="2">
+        <v>42248</v>
+      </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
@@ -11255,6 +8880,9 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
+      <c r="K98" s="2">
+        <v>42248</v>
+      </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
@@ -11278,6 +8906,9 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
+      <c r="K99" s="2">
+        <v>42248</v>
+      </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
@@ -11301,6 +8932,9 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
+      <c r="K100" s="2">
+        <v>42248</v>
+      </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -11324,6 +8958,9 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
+      <c r="K101" s="2">
+        <v>42248</v>
+      </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -11347,6 +8984,9 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
+      <c r="K102" s="2">
+        <v>42248</v>
+      </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -11370,6 +9010,9 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
+      <c r="K103" s="2">
+        <v>42248</v>
+      </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -11393,6 +9036,9 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
+      <c r="K104" s="2">
+        <v>42248</v>
+      </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
@@ -11416,6 +9062,9 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
+      <c r="K105" s="2">
+        <v>42248</v>
+      </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
@@ -11439,6 +9088,9 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
+      <c r="K106" s="2">
+        <v>42248</v>
+      </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
@@ -11462,6 +9114,9 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
+      <c r="K107" s="2">
+        <v>42248</v>
+      </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
@@ -11485,6 +9140,9 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
+      <c r="K108" s="2">
+        <v>42248</v>
+      </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
@@ -11508,6 +9166,9 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
+      <c r="K109" s="2">
+        <v>42248</v>
+      </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
@@ -11531,6 +9192,9 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
+      <c r="K110" s="2">
+        <v>42248</v>
+      </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
@@ -11554,6 +9218,9 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
+      <c r="K111" s="2">
+        <v>42248</v>
+      </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
@@ -11577,6 +9244,9 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
+      <c r="K112" s="2">
+        <v>42248</v>
+      </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
@@ -11600,6 +9270,9 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
+      <c r="K113" s="2">
+        <v>42248</v>
+      </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
@@ -11623,6 +9296,9 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
+      <c r="K114" s="2">
+        <v>42248</v>
+      </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
@@ -11646,6 +9322,9 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
+      <c r="K115" s="2">
+        <v>42248</v>
+      </c>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
@@ -11669,6 +9348,9 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
+      <c r="K116" s="2">
+        <v>42248</v>
+      </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -11692,6 +9374,9 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
+      <c r="K117" s="2">
+        <v>42248</v>
+      </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
@@ -11715,6 +9400,9 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
+      <c r="K118" s="2">
+        <v>42248</v>
+      </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
@@ -11738,6 +9426,9 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
+      <c r="K119" s="2">
+        <v>42248</v>
+      </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -11761,6 +9452,9 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
+      <c r="K120" s="2">
+        <v>42248</v>
+      </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
@@ -11784,6 +9478,9 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
+      <c r="K121" s="2">
+        <v>42248</v>
+      </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -11807,6 +9504,9 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
+      <c r="K122" s="2">
+        <v>42248</v>
+      </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -11830,6 +9530,9 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
+      <c r="K123" s="2">
+        <v>42248</v>
+      </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -11853,6 +9556,9 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
+      <c r="K124" s="2">
+        <v>42248</v>
+      </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
@@ -11876,6 +9582,9 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
+      <c r="K125" s="2">
+        <v>42248</v>
+      </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
@@ -11899,6 +9608,9 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
+      <c r="K126" s="2">
+        <v>42248</v>
+      </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
@@ -11922,6 +9634,9 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
+      <c r="K127" s="2">
+        <v>42248</v>
+      </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -11945,6 +9660,9 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
+      <c r="K128" s="2">
+        <v>42248</v>
+      </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
@@ -11968,6 +9686,9 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
+      <c r="K129" s="2">
+        <v>42248</v>
+      </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
@@ -11991,6 +9712,9 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
+      <c r="K130" s="2">
+        <v>42248</v>
+      </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
@@ -12014,6 +9738,9 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
+      <c r="K131" s="2">
+        <v>42248</v>
+      </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -12037,6 +9764,9 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
+      <c r="K132" s="2">
+        <v>42248</v>
+      </c>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
@@ -12060,6 +9790,9 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
+      <c r="K133" s="2">
+        <v>42248</v>
+      </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
@@ -12083,6 +9816,9 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
+      <c r="K134" s="2">
+        <v>42248</v>
+      </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
@@ -12106,6 +9842,9 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
+      <c r="K135" s="2">
+        <v>42248</v>
+      </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
@@ -12129,6 +9868,9 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
+      <c r="K136" s="2">
+        <v>42248</v>
+      </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
@@ -12152,6 +9894,9 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
+      <c r="K137" s="2">
+        <v>42248</v>
+      </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
@@ -12175,6 +9920,9 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
+      <c r="K138" s="2">
+        <v>42248</v>
+      </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
@@ -12198,6 +9946,9 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
+      <c r="K139" s="2">
+        <v>42248</v>
+      </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -12221,6 +9972,9 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
+      <c r="K140" s="2">
+        <v>42248</v>
+      </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
@@ -12244,6 +9998,9 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
+      <c r="K141" s="2">
+        <v>42248</v>
+      </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
@@ -12267,6 +10024,9 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
+      <c r="K142" s="2">
+        <v>42248</v>
+      </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
@@ -12290,6 +10050,9 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
+      <c r="K143" s="2">
+        <v>42248</v>
+      </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
@@ -12313,6 +10076,9 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
+      <c r="K144" s="2">
+        <v>42248</v>
+      </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
@@ -12336,6 +10102,9 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
+      <c r="K145" s="2">
+        <v>42248</v>
+      </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
@@ -12359,6 +10128,9 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
+      <c r="K146" s="2">
+        <v>42248</v>
+      </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
@@ -12382,6 +10154,9 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
+      <c r="K147" s="2">
+        <v>42248</v>
+      </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
@@ -12405,6 +10180,9 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
+      <c r="K148" s="2">
+        <v>42248</v>
+      </c>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
@@ -12428,6 +10206,9 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
+      <c r="K149" s="2">
+        <v>42248</v>
+      </c>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
@@ -12451,6 +10232,9 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
+      <c r="K150" s="2">
+        <v>42248</v>
+      </c>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
@@ -12474,6 +10258,9 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
+      <c r="K151" s="2">
+        <v>42248</v>
+      </c>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
@@ -12497,6 +10284,9 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
+      <c r="K152" s="2">
+        <v>42248</v>
+      </c>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
@@ -12520,6 +10310,9 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
+      <c r="K153" s="2">
+        <v>42248</v>
+      </c>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
@@ -12543,6 +10336,9 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
+      <c r="K154" s="2">
+        <v>42248</v>
+      </c>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
@@ -12566,6 +10362,9 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
+      <c r="K155" s="2">
+        <v>42248</v>
+      </c>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
@@ -12589,6 +10388,9 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
+      <c r="K156" s="2">
+        <v>42248</v>
+      </c>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
@@ -12612,6 +10414,9 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
+      <c r="K157" s="2">
+        <v>42248</v>
+      </c>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
@@ -12635,6 +10440,9 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
+      <c r="K158" s="2">
+        <v>42248</v>
+      </c>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
@@ -12658,6 +10466,9 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
+      <c r="K159" s="2">
+        <v>42248</v>
+      </c>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
@@ -12681,6 +10492,9 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
+      <c r="K160" s="2">
+        <v>42248</v>
+      </c>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
@@ -12704,6 +10518,9 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
+      <c r="K161" s="2">
+        <v>42248</v>
+      </c>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
@@ -12727,6 +10544,9 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
+      <c r="K162" s="2">
+        <v>42248</v>
+      </c>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
@@ -12750,6 +10570,9 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
+      <c r="K163" s="2">
+        <v>42248</v>
+      </c>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
@@ -12773,6 +10596,9 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
+      <c r="K164" s="2">
+        <v>42248</v>
+      </c>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
@@ -12796,6 +10622,9 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
+      <c r="K165" s="2">
+        <v>42248</v>
+      </c>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
@@ -12819,6 +10648,9 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
+      <c r="K166" s="2">
+        <v>42248</v>
+      </c>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
@@ -12842,6 +10674,9 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
+      <c r="K167" s="2">
+        <v>42248</v>
+      </c>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
@@ -12865,6 +10700,9 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
+      <c r="K168" s="2">
+        <v>42248</v>
+      </c>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
@@ -12888,6 +10726,9 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
+      <c r="K169" s="2">
+        <v>42248</v>
+      </c>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
@@ -12911,6 +10752,9 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
+      <c r="K170" s="2">
+        <v>42248</v>
+      </c>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
@@ -12934,6 +10778,9 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
+      <c r="K171" s="2">
+        <v>42248</v>
+      </c>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
@@ -12957,6 +10804,9 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
+      <c r="K172" s="2">
+        <v>42248</v>
+      </c>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
@@ -12980,6 +10830,9 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
+      <c r="K173" s="2">
+        <v>42248</v>
+      </c>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
@@ -13003,6 +10856,9 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
+      <c r="K174" s="2">
+        <v>42248</v>
+      </c>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
@@ -13026,6 +10882,9 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
+      <c r="K175" s="2">
+        <v>42248</v>
+      </c>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
@@ -13049,6 +10908,9 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
+      <c r="K176" s="2">
+        <v>42248</v>
+      </c>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
@@ -13072,6 +10934,9 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
+      <c r="K177" s="2">
+        <v>42248</v>
+      </c>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
@@ -13095,6 +10960,9 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
+      <c r="K178" s="2">
+        <v>42248</v>
+      </c>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
@@ -13118,6 +10986,9 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
+      <c r="K179" s="2">
+        <v>42248</v>
+      </c>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
@@ -13141,6 +11012,9 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
+      <c r="K180" s="2">
+        <v>42248</v>
+      </c>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
@@ -13164,6 +11038,9 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
+      <c r="K181" s="2">
+        <v>42248</v>
+      </c>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
@@ -13187,6 +11064,9 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
+      <c r="K182" s="2">
+        <v>42248</v>
+      </c>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
@@ -13210,6 +11090,9 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
+      <c r="K183" s="2">
+        <v>42248</v>
+      </c>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
@@ -13233,6 +11116,9 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
+      <c r="K184" s="2">
+        <v>42248</v>
+      </c>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
@@ -13256,6 +11142,9 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
+      <c r="K185" s="2">
+        <v>42248</v>
+      </c>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
@@ -13279,6 +11168,9 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
+      <c r="K186" s="2">
+        <v>42248</v>
+      </c>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
@@ -13302,6 +11194,9 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
+      <c r="K187" s="2">
+        <v>42248</v>
+      </c>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
@@ -13325,6 +11220,9 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
+      <c r="K188" s="2">
+        <v>42248</v>
+      </c>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
@@ -13348,6 +11246,9 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
+      <c r="K189" s="2">
+        <v>42248</v>
+      </c>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
@@ -13371,6 +11272,9 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
+      <c r="K190" s="2">
+        <v>42248</v>
+      </c>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
@@ -13394,6 +11298,9 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
+      <c r="K191" s="2">
+        <v>42248</v>
+      </c>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
@@ -13417,6 +11324,9 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
+      <c r="K192" s="2">
+        <v>42248</v>
+      </c>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
@@ -13440,6 +11350,9 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
+      <c r="K193" s="2">
+        <v>42248</v>
+      </c>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
@@ -13463,6 +11376,9 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
+      <c r="K194" s="2">
+        <v>42248</v>
+      </c>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
@@ -13486,6 +11402,9 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
+      <c r="K195" s="2">
+        <v>42248</v>
+      </c>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
@@ -13509,6 +11428,9 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
+      <c r="K196" s="2">
+        <v>42248</v>
+      </c>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
@@ -13532,6 +11454,9 @@
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
+      <c r="K197" s="2">
+        <v>42248</v>
+      </c>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
@@ -13555,6 +11480,9 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
+      <c r="K198" s="2">
+        <v>42248</v>
+      </c>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
@@ -13578,6 +11506,9 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
+      <c r="K199" s="2">
+        <v>42248</v>
+      </c>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
@@ -13601,6 +11532,9 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
+      <c r="K200" s="2">
+        <v>42248</v>
+      </c>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
@@ -13624,6 +11558,9 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
+      <c r="K201" s="2">
+        <v>42248</v>
+      </c>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
@@ -13647,6 +11584,9 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
+      <c r="K202" s="2">
+        <v>42248</v>
+      </c>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
@@ -13670,6 +11610,9 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
+      <c r="K203" s="2">
+        <v>42248</v>
+      </c>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
@@ -13693,6 +11636,9 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
+      <c r="K204" s="2">
+        <v>42248</v>
+      </c>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
@@ -13716,6 +11662,9 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
+      <c r="K205" s="2">
+        <v>42248</v>
+      </c>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
@@ -13739,6 +11688,9 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
+      <c r="K206" s="2">
+        <v>42248</v>
+      </c>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -13762,6 +11714,9 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
+      <c r="K207" s="2">
+        <v>42248</v>
+      </c>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
@@ -13785,6 +11740,9 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
+      <c r="K208" s="2">
+        <v>42248</v>
+      </c>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
@@ -13808,6 +11766,9 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
+      <c r="K209" s="2">
+        <v>42248</v>
+      </c>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
@@ -13831,6 +11792,9 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
+      <c r="K210" s="2">
+        <v>42248</v>
+      </c>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
@@ -13854,6 +11818,9 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
+      <c r="K211" s="2">
+        <v>42248</v>
+      </c>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
@@ -13877,6 +11844,9 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
+      <c r="K212" s="2">
+        <v>42248</v>
+      </c>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
@@ -13900,6 +11870,9 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
+      <c r="K213" s="2">
+        <v>42248</v>
+      </c>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
@@ -13923,6 +11896,9 @@
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
+      <c r="K214" s="2">
+        <v>42248</v>
+      </c>
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
@@ -13946,6 +11922,9 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
+      <c r="K215" s="2">
+        <v>42248</v>
+      </c>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
@@ -13969,6 +11948,9 @@
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
+      <c r="K216" s="2">
+        <v>42248</v>
+      </c>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
@@ -13992,6 +11974,9 @@
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
+      <c r="K217" s="2">
+        <v>42248</v>
+      </c>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
@@ -14015,6 +12000,9 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
+      <c r="K218" s="2">
+        <v>42248</v>
+      </c>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
@@ -14038,6 +12026,9 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
+      <c r="K219" s="2">
+        <v>42248</v>
+      </c>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
@@ -14061,6 +12052,9 @@
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
+      <c r="K220" s="2">
+        <v>42248</v>
+      </c>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
@@ -14084,6 +12078,9 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
+      <c r="K221" s="2">
+        <v>42248</v>
+      </c>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
@@ -14107,6 +12104,9 @@
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
+      <c r="K222" s="2">
+        <v>42248</v>
+      </c>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
@@ -14130,6 +12130,9 @@
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
+      <c r="K223" s="2">
+        <v>42248</v>
+      </c>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
@@ -14153,6 +12156,9 @@
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
+      <c r="K224" s="2">
+        <v>42248</v>
+      </c>
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
@@ -14176,6 +12182,9 @@
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
+      <c r="K225" s="2">
+        <v>42248</v>
+      </c>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
@@ -14199,6 +12208,9 @@
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
+      <c r="K226" s="2">
+        <v>42248</v>
+      </c>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
@@ -14222,6 +12234,9 @@
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
+      <c r="K227" s="2">
+        <v>42248</v>
+      </c>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
@@ -14245,6 +12260,9 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
+      <c r="K228" s="2">
+        <v>42248</v>
+      </c>
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
@@ -14268,6 +12286,9 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
+      <c r="K229" s="2">
+        <v>42248</v>
+      </c>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
@@ -14291,6 +12312,9 @@
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
+      <c r="K230" s="2">
+        <v>42248</v>
+      </c>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
@@ -14314,6 +12338,9 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
+      <c r="K231" s="2">
+        <v>42248</v>
+      </c>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
@@ -14337,6 +12364,9 @@
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
+      <c r="K232" s="2">
+        <v>42248</v>
+      </c>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
@@ -14360,6 +12390,9 @@
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
+      <c r="K233" s="2">
+        <v>42248</v>
+      </c>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
@@ -14383,6 +12416,9 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
+      <c r="K234" s="2">
+        <v>42248</v>
+      </c>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
@@ -14406,6 +12442,9 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
+      <c r="K235" s="2">
+        <v>42248</v>
+      </c>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
@@ -14429,6 +12468,9 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
+      <c r="K236" s="2">
+        <v>42248</v>
+      </c>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
@@ -14452,6 +12494,9 @@
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
+      <c r="K237" s="2">
+        <v>42248</v>
+      </c>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
@@ -14475,6 +12520,9 @@
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
+      <c r="K238" s="2">
+        <v>42248</v>
+      </c>
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
@@ -14498,6 +12546,9 @@
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
+      <c r="K239" s="2">
+        <v>42248</v>
+      </c>
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
@@ -14521,6 +12572,9 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
+      <c r="K240" s="2">
+        <v>42248</v>
+      </c>
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -14544,6 +12598,9 @@
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
+      <c r="K241" s="2">
+        <v>42248</v>
+      </c>
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
@@ -14567,6 +12624,9 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
+      <c r="K242" s="2">
+        <v>42248</v>
+      </c>
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
@@ -14590,6 +12650,9 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
+      <c r="K243" s="2">
+        <v>42248</v>
+      </c>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
@@ -14613,6 +12676,9 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
+      <c r="K244" s="2">
+        <v>42248</v>
+      </c>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
@@ -14636,6 +12702,9 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
+      <c r="K245" s="2">
+        <v>42248</v>
+      </c>
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
@@ -14659,6 +12728,9 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
+      <c r="K246" s="2">
+        <v>42248</v>
+      </c>
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
@@ -14682,6 +12754,9 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
+      <c r="K247" s="2">
+        <v>42248</v>
+      </c>
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
@@ -14705,6 +12780,9 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
+      <c r="K248" s="2">
+        <v>42248</v>
+      </c>
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
@@ -14728,6 +12806,9 @@
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
+      <c r="K249" s="2">
+        <v>42248</v>
+      </c>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
@@ -14751,6 +12832,9 @@
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
+      <c r="K250" s="2">
+        <v>42248</v>
+      </c>
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
@@ -14774,6 +12858,9 @@
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
+      <c r="K251" s="2">
+        <v>42248</v>
+      </c>
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
@@ -14797,6 +12884,9 @@
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
+      <c r="K252" s="2">
+        <v>42248</v>
+      </c>
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
@@ -14820,6 +12910,9 @@
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
+      <c r="K253" s="2">
+        <v>42248</v>
+      </c>
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
@@ -14843,6 +12936,9 @@
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
+      <c r="K254" s="2">
+        <v>42248</v>
+      </c>
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
@@ -14866,6 +12962,9 @@
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
+      <c r="K255" s="2">
+        <v>42248</v>
+      </c>
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
@@ -14889,6 +12988,9 @@
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
+      <c r="K256" s="2">
+        <v>42248</v>
+      </c>
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
@@ -14912,6 +13014,9 @@
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
+      <c r="K257" s="2">
+        <v>42248</v>
+      </c>
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
@@ -14935,6 +13040,9 @@
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
+      <c r="K258" s="2">
+        <v>42248</v>
+      </c>
       <c r="L258" s="1"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
@@ -14958,6 +13066,9 @@
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
+      <c r="K259" s="2">
+        <v>42248</v>
+      </c>
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
@@ -14981,6 +13092,9 @@
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
+      <c r="K260" s="2">
+        <v>42248</v>
+      </c>
       <c r="L260" s="1"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
@@ -15004,6 +13118,9 @@
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
+      <c r="K261" s="2">
+        <v>42248</v>
+      </c>
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
@@ -15027,6 +13144,9 @@
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
+      <c r="K262" s="2">
+        <v>42248</v>
+      </c>
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
@@ -15050,6 +13170,9 @@
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
+      <c r="K263" s="2">
+        <v>42248</v>
+      </c>
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
@@ -15073,6 +13196,9 @@
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
+      <c r="K264" s="2">
+        <v>42248</v>
+      </c>
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
@@ -15096,6 +13222,9 @@
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
+      <c r="K265" s="2">
+        <v>42248</v>
+      </c>
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
@@ -15119,6 +13248,9 @@
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
+      <c r="K266" s="2">
+        <v>42248</v>
+      </c>
       <c r="L266" s="1"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
@@ -15142,6 +13274,9 @@
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
+      <c r="K267" s="2">
+        <v>42248</v>
+      </c>
       <c r="L267" s="1"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
@@ -15165,6 +13300,9 @@
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
+      <c r="K268" s="2">
+        <v>42248</v>
+      </c>
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
@@ -15188,6 +13326,9 @@
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
+      <c r="K269" s="2">
+        <v>42248</v>
+      </c>
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
@@ -15211,6 +13352,9 @@
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
+      <c r="K270" s="2">
+        <v>42248</v>
+      </c>
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
@@ -15234,6 +13378,9 @@
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
+      <c r="K271" s="2">
+        <v>42248</v>
+      </c>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
@@ -15257,6 +13404,9 @@
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
+      <c r="K272" s="2">
+        <v>42248</v>
+      </c>
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
@@ -15280,6 +13430,9 @@
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
+      <c r="K273" s="2">
+        <v>42248</v>
+      </c>
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
@@ -15303,6 +13456,9 @@
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
+      <c r="K274" s="2">
+        <v>42248</v>
+      </c>
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
@@ -15326,6 +13482,9 @@
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
+      <c r="K275" s="2">
+        <v>42248</v>
+      </c>
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
@@ -15349,6 +13508,9 @@
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
+      <c r="K276" s="2">
+        <v>42248</v>
+      </c>
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
@@ -15372,6 +13534,9 @@
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
+      <c r="K277" s="2">
+        <v>42248</v>
+      </c>
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
@@ -15395,6 +13560,9 @@
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
+      <c r="K278" s="2">
+        <v>42248</v>
+      </c>
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
@@ -15418,6 +13586,9 @@
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
+      <c r="K279" s="2">
+        <v>42248</v>
+      </c>
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
@@ -15441,6 +13612,9 @@
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
+      <c r="K280" s="2">
+        <v>42248</v>
+      </c>
       <c r="L280" s="1"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
@@ -15464,6 +13638,9 @@
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
+      <c r="K281" s="2">
+        <v>42248</v>
+      </c>
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
@@ -15487,6 +13664,9 @@
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
+      <c r="K282" s="2">
+        <v>42248</v>
+      </c>
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
@@ -15510,6 +13690,9 @@
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
+      <c r="K283" s="2">
+        <v>42248</v>
+      </c>
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
@@ -15533,6 +13716,9 @@
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
+      <c r="K284" s="2">
+        <v>42248</v>
+      </c>
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
@@ -15556,6 +13742,9 @@
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
+      <c r="K285" s="2">
+        <v>42248</v>
+      </c>
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
@@ -15579,6 +13768,9 @@
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
+      <c r="K286" s="2">
+        <v>42248</v>
+      </c>
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
@@ -15602,6 +13794,9 @@
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
+      <c r="K287" s="2">
+        <v>42248</v>
+      </c>
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
@@ -15625,6 +13820,9 @@
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
+      <c r="K288" s="2">
+        <v>42248</v>
+      </c>
       <c r="L288" s="1"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
@@ -15648,6 +13846,9 @@
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
+      <c r="K289" s="2">
+        <v>42248</v>
+      </c>
       <c r="L289" s="1"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
@@ -15671,6 +13872,9 @@
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
+      <c r="K290" s="2">
+        <v>42248</v>
+      </c>
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
@@ -15694,6 +13898,9 @@
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
+      <c r="K291" s="2">
+        <v>42248</v>
+      </c>
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>

--- a/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
+++ b/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="-7080" windowWidth="19560" windowHeight="5940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="klt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="282">
   <si>
     <t>N8573</t>
   </si>
@@ -854,6 +854,18 @@
   </si>
   <si>
     <t>assembly_module_usage_view</t>
+  </si>
+  <si>
+    <t>scan_data_3d_shape</t>
+  </si>
+  <si>
+    <t>EXPRESS ARM</t>
+  </si>
+  <si>
+    <t>EXPRESS MIM</t>
+  </si>
+  <si>
+    <t>N8568</t>
   </si>
 </sst>
 </file>
@@ -908,8 +920,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="283">
+  <cellStyleXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1202,7 +1232,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="283">
+  <cellStyles count="301">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1344,6 +1374,15 @@
     <cellStyle name="Lien hypertexte" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="279" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="299" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1485,6 +1524,15 @@
     <cellStyle name="Lien hypertexte visité" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1814,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T249"/>
+  <dimension ref="A1:T249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -1840,6 +1888,38 @@
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1831</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>8568</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="2">
+        <v>42248</v>
+      </c>
+    </row>
     <row r="2" spans="1:20">
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1902,8 +1982,17 @@
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B4" s="1">
+        <v>1831</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>266</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="G4" s="1">
         <v>8574</v>
@@ -1927,8 +2016,17 @@
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B5" s="1">
+        <v>1831</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>266</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="G5" s="1">
         <v>8575</v>

--- a/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
+++ b/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="-14760" windowWidth="14060" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="klt" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="323">
   <si>
     <t>N8573</t>
   </si>
@@ -1002,6 +1002,27 @@
   </si>
   <si>
     <t>cable</t>
+  </si>
+  <si>
+    <t>change_management</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>characteristic</t>
+  </si>
+  <si>
+    <t>characterizable_object</t>
+  </si>
+  <si>
+    <t>classification_with_attributes</t>
+  </si>
+  <si>
+    <t>component_feature</t>
+  </si>
+  <si>
+    <t>component_grouping</t>
   </si>
 </sst>
 </file>
@@ -1102,8 +1123,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="487">
+  <cellStyleXfs count="503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1609,7 +1646,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="487">
+  <cellStyles count="503">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1853,6 +1890,14 @@
     <cellStyle name="Lien hypertexte" xfId="481" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="483" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="501" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2096,6 +2141,14 @@
     <cellStyle name="Lien hypertexte visité" xfId="482" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="484" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="502" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2427,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -2445,8 +2498,8 @@
     <col min="10" max="10" width="9.33203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.1640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="2.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -2652,13 +2705,21 @@
       <c r="A6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="11">
+        <v>1765</v>
+      </c>
       <c r="C6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="G6" s="9">
         <v>8577</v>
       </c>
@@ -2682,13 +2743,21 @@
       <c r="A7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="11">
+        <v>1765</v>
+      </c>
       <c r="C7" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="11">
+        <v>4</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="G7" s="9">
         <v>8578</v>
       </c>
@@ -5064,7 +5133,9 @@
       <c r="H72" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I72" s="9"/>
+      <c r="I72" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="L72" s="3" t="s">
         <v>254</v>
       </c>
@@ -5208,13 +5279,21 @@
       <c r="A77" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="11">
+        <v>1824</v>
+      </c>
       <c r="C77" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="9"/>
+      <c r="D77" s="11">
+        <v>2</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="G77" s="9">
         <v>8648</v>
       </c>
@@ -5233,13 +5312,21 @@
       <c r="A78" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B78" s="11"/>
+      <c r="B78" s="11">
+        <v>1654</v>
+      </c>
       <c r="C78" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="9"/>
+      <c r="D78" s="11">
+        <v>6</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="G78" s="9">
         <v>8649</v>
       </c>
@@ -5258,13 +5345,21 @@
       <c r="A79" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="11"/>
+      <c r="B79" s="11">
+        <v>1654</v>
+      </c>
       <c r="C79" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="9"/>
+      <c r="D79" s="11">
+        <v>6</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="G79" s="9">
         <v>8650</v>
       </c>
@@ -5283,13 +5378,21 @@
       <c r="A80" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B80" s="11"/>
+      <c r="B80" s="11">
+        <v>1654</v>
+      </c>
       <c r="C80" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="9"/>
+      <c r="D80" s="11">
+        <v>6</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G80" s="9">
         <v>8651</v>
       </c>
@@ -5308,13 +5411,21 @@
       <c r="A81" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="11"/>
+      <c r="B81" s="11">
+        <v>1111</v>
+      </c>
       <c r="C81" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="9"/>
+        <v>259</v>
+      </c>
+      <c r="D81" s="11">
+        <v>5</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="G81" s="9">
         <v>8652</v>
       </c>
@@ -5333,13 +5444,21 @@
       <c r="A82" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="11"/>
+      <c r="B82" s="11">
+        <v>1111</v>
+      </c>
       <c r="C82" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="9"/>
+        <v>259</v>
+      </c>
+      <c r="D82" s="11">
+        <v>5</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G82" s="9">
         <v>8653</v>
       </c>
@@ -5358,13 +5477,21 @@
       <c r="A83" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="11"/>
+      <c r="B83" s="11">
+        <v>1657</v>
+      </c>
       <c r="C83" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="9"/>
+      <c r="D83" s="11">
+        <v>5</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="G83" s="9">
         <v>8654</v>
       </c>
@@ -5383,13 +5510,21 @@
       <c r="A84" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="11"/>
+      <c r="B84" s="11">
+        <v>1657</v>
+      </c>
       <c r="C84" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="9"/>
+      <c r="D84" s="11">
+        <v>5</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G84" s="9">
         <v>8655</v>
       </c>
@@ -5408,13 +5543,21 @@
       <c r="A85" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="11"/>
+      <c r="B85" s="11">
+        <v>1656</v>
+      </c>
       <c r="C85" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="9"/>
+      <c r="D85" s="11">
+        <v>5</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="G85" s="9">
         <v>8656</v>
       </c>

--- a/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
+++ b/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="-18400" windowWidth="13660" windowHeight="15680" tabRatio="500"/>
+    <workbookView xWindow="-9700" yWindow="-18340" windowWidth="12280" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="klt" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="424">
   <si>
     <t>N8573</t>
   </si>
@@ -1248,13 +1248,91 @@
   </si>
   <si>
     <t>Fabrication_joint</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>explicit_constraints</t>
+  </si>
+  <si>
+    <t>extruded_structure_cross_section</t>
+  </si>
+  <si>
+    <t>machining_features</t>
+  </si>
+  <si>
+    <t>physical_unit_2d_shape</t>
+  </si>
+  <si>
+    <t>Product_as_individual_assembly_and_test</t>
+  </si>
+  <si>
+    <t>Primitive_solids</t>
+  </si>
+  <si>
+    <t>Point_direction_model</t>
+  </si>
+  <si>
+    <t>Planned_characteristic</t>
+  </si>
+  <si>
+    <t>Parametric_representation</t>
+  </si>
+  <si>
+    <t>Parameterization_and_variational_representation</t>
+  </si>
+  <si>
+    <t>Numeric_function</t>
+  </si>
+  <si>
+    <t>Numeric_expression</t>
+  </si>
+  <si>
+    <t>Measure_representation</t>
+  </si>
+  <si>
+    <t>Manufacturing_configuration_effectivity</t>
+  </si>
+  <si>
+    <t>Manifold_surface</t>
+  </si>
+  <si>
+    <t>Manifold_subsurface</t>
+  </si>
+  <si>
+    <t>Layered_interconnect_complex_template</t>
+  </si>
+  <si>
+    <t>Interconnect_module_to_assembly_module_relationship</t>
+  </si>
+  <si>
+    <t>Inertia_characteristics</t>
+  </si>
+  <si>
+    <t>Geometrically_bounded_surface</t>
+  </si>
+  <si>
+    <t>Geometric_constraints</t>
+  </si>
+  <si>
+    <t>N8821</t>
+  </si>
+  <si>
+    <t>N8822</t>
+  </si>
+  <si>
+    <t>solid_with_local_modification</t>
+  </si>
+  <si>
+    <t>tessellated_geometry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1312,8 +1390,13 @@
       <name val="Cambria"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,8 +1409,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1350,8 +1439,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="553">
+  <cellStyleXfs count="591">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1905,8 +2007,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1929,8 +2069,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="553">
+  <cellStyles count="591">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2207,6 +2352,25 @@
     <cellStyle name="Lien hypertexte" xfId="547" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="549" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="589" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2483,6 +2647,25 @@
     <cellStyle name="Lien hypertexte visité" xfId="548" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="550" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="590" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2814,17 +2997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="E106" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="9.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" collapsed="1"/>
     <col min="6" max="6" width="6" style="3" customWidth="1"/>
     <col min="7" max="7" width="3.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="3" bestFit="1" customWidth="1"/>
@@ -6453,19 +6636,19 @@
         <v>97</v>
       </c>
       <c r="F117" s="6">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H117" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K117" s="8">
         <v>42248</v>
@@ -6495,7 +6678,7 @@
         <v>336</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K118" s="8">
         <v>42248</v>
@@ -6525,7 +6708,7 @@
         <v>336</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K119" s="8">
         <v>42248</v>
@@ -6543,19 +6726,19 @@
         <v>97</v>
       </c>
       <c r="F120" s="6">
-        <v>1527</v>
+        <v>1004</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H120" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K120" s="8">
         <v>42248</v>
@@ -6572,13 +6755,21 @@
       <c r="E121" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F121" s="6"/>
+      <c r="F121" s="6">
+        <v>1527</v>
+      </c>
       <c r="G121" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="4"/>
+      <c r="H121" s="6">
+        <v>2</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K121" s="8">
         <v>42248</v>
       </c>
@@ -6594,13 +6785,21 @@
       <c r="E122" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F122" s="6"/>
+      <c r="F122" s="6">
+        <v>1064</v>
+      </c>
       <c r="G122" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="4"/>
+      <c r="H122" s="6">
+        <v>2</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K122" s="8">
         <v>42248</v>
       </c>
@@ -6616,13 +6815,21 @@
       <c r="E123" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F123" s="6"/>
+      <c r="F123" s="6">
+        <v>1788</v>
+      </c>
       <c r="G123" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="4"/>
+      <c r="H123" s="6">
+        <v>2</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K123" s="8">
         <v>42248</v>
       </c>
@@ -6638,13 +6845,21 @@
       <c r="E124" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F124" s="6"/>
+      <c r="F124" s="6">
+        <v>1827</v>
+      </c>
       <c r="G124" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="4"/>
+      <c r="H124" s="6">
+        <v>1</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K124" s="8">
         <v>42248</v>
       </c>
@@ -6660,13 +6875,21 @@
       <c r="E125" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F125" s="6"/>
+      <c r="F125" s="6">
+        <v>1827</v>
+      </c>
       <c r="G125" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="4"/>
+      <c r="H125" s="6">
+        <v>1</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="K125" s="8">
         <v>42248</v>
       </c>
@@ -6682,13 +6905,21 @@
       <c r="E126" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F126" s="6"/>
+      <c r="F126" s="6">
+        <v>1827</v>
+      </c>
       <c r="G126" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="4"/>
+      <c r="H126" s="6">
+        <v>1</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="K126" s="8">
         <v>42248</v>
       </c>
@@ -6704,13 +6935,21 @@
       <c r="E127" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F127" s="6"/>
+      <c r="F127" s="6">
+        <v>1814</v>
+      </c>
       <c r="G127" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="4"/>
+      <c r="H127" s="6">
+        <v>2</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K127" s="8">
         <v>42248</v>
       </c>
@@ -6726,13 +6965,21 @@
       <c r="E128" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F128" s="6"/>
+      <c r="F128" s="6">
+        <v>1814</v>
+      </c>
       <c r="G128" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="4"/>
+      <c r="H128" s="6">
+        <v>2</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="K128" s="8">
         <v>42248</v>
       </c>
@@ -6748,13 +6995,21 @@
       <c r="E129" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F129" s="6"/>
+      <c r="F129" s="6">
+        <v>1726</v>
+      </c>
       <c r="G129" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="4"/>
+      <c r="H129" s="6">
+        <v>5</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K129" s="8">
         <v>42248</v>
       </c>
@@ -6770,13 +7025,21 @@
       <c r="E130" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F130" s="6"/>
+      <c r="F130" s="6">
+        <v>1726</v>
+      </c>
       <c r="G130" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="4"/>
+      <c r="H130" s="6">
+        <v>5</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="K130" s="8">
         <v>42248</v>
       </c>
@@ -6792,13 +7055,21 @@
       <c r="E131" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F131" s="6"/>
+      <c r="F131" s="6">
+        <v>1726</v>
+      </c>
       <c r="G131" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="4"/>
+      <c r="H131" s="6">
+        <v>5</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="K131" s="8">
         <v>42248</v>
       </c>
@@ -6814,13 +7085,21 @@
       <c r="E132" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F132" s="6"/>
+      <c r="F132" s="6">
+        <v>1319</v>
+      </c>
       <c r="G132" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="4"/>
+      <c r="H132" s="6">
+        <v>3</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K132" s="8">
         <v>42248</v>
       </c>
@@ -6836,13 +7115,21 @@
       <c r="E133" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F133" s="6"/>
+      <c r="F133" s="6">
+        <v>1319</v>
+      </c>
       <c r="G133" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="4"/>
+      <c r="H133" s="6">
+        <v>3</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="K133" s="8">
         <v>42248</v>
       </c>
@@ -6858,13 +7145,21 @@
       <c r="E134" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F134" s="6"/>
+      <c r="F134" s="6">
+        <v>1819</v>
+      </c>
       <c r="G134" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="4"/>
+      <c r="H134" s="6">
+        <v>3</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K134" s="8">
         <v>42248</v>
       </c>
@@ -6880,13 +7175,21 @@
       <c r="E135" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F135" s="6"/>
+      <c r="F135" s="6">
+        <v>1819</v>
+      </c>
       <c r="G135" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="4"/>
+      <c r="H135" s="6">
+        <v>3</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="K135" s="8">
         <v>42248</v>
       </c>
@@ -6902,13 +7205,21 @@
       <c r="E136" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F136" s="6"/>
-      <c r="G136" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="4"/>
+      <c r="F136" s="16">
+        <v>1819</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H136" s="18">
+        <v>3</v>
+      </c>
+      <c r="I136" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="K136" s="8">
         <v>42248</v>
       </c>
@@ -9414,20 +9725,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N291"/>
+  <dimension ref="A3:N303"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A287" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F296" sqref="F296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
@@ -9493,7 +9808,9 @@
       <c r="G5" s="1">
         <v>8821</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="14">
@@ -9527,7 +9844,9 @@
       <c r="G6" s="1">
         <v>8822</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="14">
@@ -17049,12 +17368,18 @@
       <c r="A250" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B250" s="1"/>
+      <c r="B250" s="1">
+        <v>1804</v>
+      </c>
       <c r="C250" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
+      <c r="D250" s="1">
+        <v>2</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="F250" s="1" t="s">
         <v>99</v>
       </c>
@@ -17127,12 +17452,18 @@
       <c r="A253" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B253" s="1"/>
+      <c r="B253" s="1">
+        <v>1791</v>
+      </c>
       <c r="C253" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
+      <c r="D253" s="1">
+        <v>3</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="F253" s="1" t="s">
         <v>99</v>
       </c>
@@ -17205,12 +17536,18 @@
       <c r="A256" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B256" s="1"/>
+      <c r="B256" s="1">
+        <v>1820</v>
+      </c>
       <c r="C256" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
+      <c r="D256" s="1">
+        <v>2</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="F256" s="1" t="s">
         <v>99</v>
       </c>
@@ -17283,12 +17620,18 @@
       <c r="A259" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B259" s="1"/>
+      <c r="B259" s="1">
+        <v>1733</v>
+      </c>
       <c r="C259" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
+      <c r="D259" s="1">
+        <v>3</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="F259" s="1" t="s">
         <v>99</v>
       </c>
@@ -17361,12 +17704,18 @@
       <c r="A262" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B262" s="1"/>
+      <c r="B262" s="1">
+        <v>1813</v>
+      </c>
       <c r="C262" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
+      <c r="D262" s="1">
+        <v>2</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="F262" s="1" t="s">
         <v>99</v>
       </c>
@@ -17439,12 +17788,18 @@
       <c r="A265" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B265" s="1"/>
+      <c r="B265" s="1">
+        <v>1790</v>
+      </c>
       <c r="C265" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
+      <c r="D265" s="1">
+        <v>2</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="F265" s="1" t="s">
         <v>99</v>
       </c>
@@ -17465,12 +17820,18 @@
       <c r="A266" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B266" s="1"/>
+      <c r="B266" s="1">
+        <v>1790</v>
+      </c>
       <c r="C266" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
+      <c r="D266" s="1">
+        <v>2</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="F266" s="1" t="s">
         <v>100</v>
       </c>
@@ -17517,12 +17878,18 @@
       <c r="A268" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B268" s="1"/>
+      <c r="B268" s="1">
+        <v>1346</v>
+      </c>
       <c r="C268" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
+      <c r="D268" s="1">
+        <v>4</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="F268" s="1" t="s">
         <v>99</v>
       </c>
@@ -17543,12 +17910,18 @@
       <c r="A269" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B269" s="1"/>
+      <c r="B269" s="1">
+        <v>1346</v>
+      </c>
       <c r="C269" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
+      <c r="D269" s="1">
+        <v>4</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="F269" s="1" t="s">
         <v>100</v>
       </c>
@@ -17595,12 +17968,18 @@
       <c r="A271" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B271" s="1"/>
+      <c r="B271" s="1">
+        <v>1526</v>
+      </c>
       <c r="C271" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
+      <c r="D271" s="1">
+        <v>2</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="F271" s="1" t="s">
         <v>99</v>
       </c>
@@ -17673,12 +18052,18 @@
       <c r="A274" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B274" s="1"/>
+      <c r="B274" s="1">
+        <v>1118</v>
+      </c>
       <c r="C274" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
+      <c r="D274" s="1">
+        <v>2</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="F274" s="1" t="s">
         <v>99</v>
       </c>
@@ -17751,12 +18136,18 @@
       <c r="A277" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B277" s="1"/>
+      <c r="B277" s="1">
+        <v>1147</v>
+      </c>
       <c r="C277" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
+      <c r="D277" s="1">
+        <v>3</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="F277" s="1" t="s">
         <v>99</v>
       </c>
@@ -17829,12 +18220,18 @@
       <c r="A280" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B280" s="1"/>
+      <c r="B280" s="1">
+        <v>1509</v>
+      </c>
       <c r="C280" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
+      <c r="D280" s="1">
+        <v>5</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="F280" s="1" t="s">
         <v>99</v>
       </c>
@@ -17907,12 +18304,18 @@
       <c r="A283" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B283" s="1"/>
+      <c r="B283" s="1">
+        <v>1702</v>
+      </c>
       <c r="C283" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
+      <c r="D283" s="1">
+        <v>4</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="F283" s="1" t="s">
         <v>99</v>
       </c>
@@ -17985,12 +18388,18 @@
       <c r="A286" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B286" s="1"/>
+      <c r="B286" s="1">
+        <v>1716</v>
+      </c>
       <c r="C286" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
+      <c r="D286" s="1">
+        <v>5</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="F286" s="1" t="s">
         <v>99</v>
       </c>
@@ -18063,12 +18472,18 @@
       <c r="A289" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B289" s="1"/>
+      <c r="B289" s="1">
+        <v>1685</v>
+      </c>
       <c r="C289" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
+      <c r="D289" s="1">
+        <v>4</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="F289" s="1" t="s">
         <v>99</v>
       </c>
@@ -18136,6 +18551,300 @@
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
+    </row>
+    <row r="292" spans="1:14">
+      <c r="A292" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B292" s="1">
+        <v>1350</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D292" s="1">
+        <v>3</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G292" s="1">
+        <v>9108</v>
+      </c>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="14">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
+      <c r="A293" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G293" s="1">
+        <v>9109</v>
+      </c>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="14">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
+      <c r="A294" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G294" s="1">
+        <v>9110</v>
+      </c>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="14">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
+      <c r="A295" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B295" s="1">
+        <v>1507</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D295" s="1">
+        <v>3</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G295" s="1">
+        <v>9111</v>
+      </c>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="14">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
+      <c r="A296" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G296" s="1">
+        <v>9112</v>
+      </c>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+      <c r="K296" s="14">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
+      <c r="A297" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G297" s="1">
+        <v>9113</v>
+      </c>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="14">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
+      <c r="A298" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B298" s="1">
+        <v>1789</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D298" s="1">
+        <v>2</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G298" s="1">
+        <v>9114</v>
+      </c>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="14">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
+      <c r="A299" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G299" s="1">
+        <v>9115</v>
+      </c>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="14">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
+      <c r="A300" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G300" s="1">
+        <v>9116</v>
+      </c>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="14">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
+      <c r="A301" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G301" s="1">
+        <v>9117</v>
+      </c>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="14">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
+      <c r="A302" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G302" s="1">
+        <v>9118</v>
+      </c>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+      <c r="K302" s="14">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
+      <c r="A303" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G303" s="1">
+        <v>9119</v>
+      </c>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+      <c r="K303" s="14">
+        <v>42248</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
+++ b/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="429">
   <si>
     <t>N8573</t>
   </si>
@@ -1326,6 +1326,21 @@
   </si>
   <si>
     <t>tessellated_geometry</t>
+  </si>
+  <si>
+    <t>composite_constituent_shape</t>
+  </si>
+  <si>
+    <t>composite_surface</t>
+  </si>
+  <si>
+    <t>constructive_solid_geometry_2d</t>
+  </si>
+  <si>
+    <t>construction_geometry</t>
+  </si>
+  <si>
+    <t>contextual_shape_positioning</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1468,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="591">
+  <cellStyleXfs count="613">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2075,7 +2112,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="591">
+  <cellStyles count="613">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2371,6 +2408,17 @@
     <cellStyle name="Lien hypertexte" xfId="585" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="587" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="611" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2666,6 +2714,17 @@
     <cellStyle name="Lien hypertexte visité" xfId="586" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="588" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="612" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2997,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E106" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J137" sqref="J137"/>
+    <sheetView tabSelected="1" topLeftCell="E43" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -5807,13 +5866,21 @@
       <c r="E87" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F87" s="6"/>
+      <c r="F87" s="6">
+        <v>1767</v>
+      </c>
       <c r="G87" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="4"/>
+      <c r="H87" s="6">
+        <v>4</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K87" s="8">
         <v>42248</v>
       </c>
@@ -5829,13 +5896,21 @@
       <c r="E88" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F88" s="6"/>
+      <c r="F88" s="6">
+        <v>1767</v>
+      </c>
       <c r="G88" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="4"/>
+      <c r="H88" s="6">
+        <v>4</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="K88" s="8">
         <v>42248</v>
       </c>
@@ -5851,13 +5926,21 @@
       <c r="E89" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F89" s="6"/>
+      <c r="F89" s="6">
+        <v>1525</v>
+      </c>
       <c r="G89" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="4"/>
+      <c r="H89" s="6">
+        <v>2</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K89" s="8">
         <v>42248</v>
       </c>
@@ -5873,13 +5956,21 @@
       <c r="E90" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F90" s="6"/>
+      <c r="F90" s="6">
+        <v>1131</v>
+      </c>
       <c r="G90" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="4"/>
+      <c r="H90" s="6">
+        <v>5</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K90" s="8">
         <v>42248</v>
       </c>
@@ -5895,13 +5986,21 @@
       <c r="E91" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F91" s="6"/>
+      <c r="F91" s="6">
+        <v>1131</v>
+      </c>
       <c r="G91" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="4"/>
+      <c r="H91" s="6">
+        <v>5</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="K91" s="8">
         <v>42248</v>
       </c>
@@ -5917,13 +6016,21 @@
       <c r="E92" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F92" s="6"/>
+      <c r="F92" s="6">
+        <v>1731</v>
+      </c>
       <c r="G92" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="4"/>
+      <c r="H92" s="6">
+        <v>4</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K92" s="8">
         <v>42248</v>
       </c>
@@ -5939,13 +6046,21 @@
       <c r="E93" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F93" s="6"/>
+      <c r="F93" s="6">
+        <v>1027</v>
+      </c>
       <c r="G93" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="4"/>
+      <c r="H93" s="6">
+        <v>7</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K93" s="8">
         <v>42248</v>
       </c>
@@ -5961,13 +6076,21 @@
       <c r="E94" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F94" s="6"/>
+      <c r="F94" s="6">
+        <v>1027</v>
+      </c>
       <c r="G94" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="4"/>
+      <c r="H94" s="6">
+        <v>7</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="K94" s="8">
         <v>42248</v>
       </c>
@@ -5983,13 +6106,21 @@
       <c r="E95" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F95" s="6"/>
+      <c r="F95" s="6">
+        <v>1660</v>
+      </c>
       <c r="G95" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="4"/>
+      <c r="H95" s="6">
+        <v>4</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K95" s="8">
         <v>42248</v>
       </c>
@@ -6018,7 +6149,7 @@
         <v>325</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K96" s="8">
         <v>42248</v>
@@ -6048,7 +6179,7 @@
         <v>325</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K97" s="8">
         <v>42248</v>
@@ -6066,19 +6197,19 @@
         <v>97</v>
       </c>
       <c r="F98" s="6">
-        <v>1660</v>
+        <v>1809</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H98" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K98" s="8">
         <v>42248</v>
@@ -6108,7 +6239,7 @@
         <v>326</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K99" s="8">
         <v>42248</v>
@@ -6126,19 +6257,19 @@
         <v>97</v>
       </c>
       <c r="F100" s="6">
-        <v>1809</v>
+        <v>1130</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H100" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K100" s="8">
         <v>42248</v>
@@ -6168,7 +6299,7 @@
         <v>327</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K101" s="8">
         <v>42248</v>
@@ -6186,19 +6317,19 @@
         <v>97</v>
       </c>
       <c r="F102" s="6">
-        <v>1130</v>
+        <v>1232</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H102" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K102" s="8">
         <v>42248</v>
@@ -6228,7 +6359,7 @@
         <v>328</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K103" s="8">
         <v>42248</v>
@@ -6246,19 +6377,19 @@
         <v>97</v>
       </c>
       <c r="F104" s="6">
-        <v>1232</v>
+        <v>1628</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H104" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K104" s="8">
         <v>42248</v>
@@ -6288,7 +6419,7 @@
         <v>329</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K105" s="8">
         <v>42248</v>
@@ -6318,7 +6449,7 @@
         <v>329</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K106" s="8">
         <v>42248</v>
@@ -6336,7 +6467,7 @@
         <v>97</v>
       </c>
       <c r="F107" s="6">
-        <v>1628</v>
+        <v>1050</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>98</v>
@@ -6345,10 +6476,10 @@
         <v>6</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K107" s="8">
         <v>42248</v>
@@ -6366,16 +6497,16 @@
         <v>97</v>
       </c>
       <c r="F108" s="6">
-        <v>1050</v>
+        <v>1744</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H108" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>99</v>
@@ -6396,7 +6527,7 @@
         <v>97</v>
       </c>
       <c r="F109" s="6">
-        <v>1744</v>
+        <v>1122</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>98</v>
@@ -6405,7 +6536,7 @@
         <v>4</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>99</v>
@@ -6438,7 +6569,7 @@
         <v>332</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K110" s="8">
         <v>42248</v>
@@ -6456,7 +6587,7 @@
         <v>97</v>
       </c>
       <c r="F111" s="6">
-        <v>1122</v>
+        <v>1312</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>98</v>
@@ -6465,10 +6596,10 @@
         <v>4</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K111" s="8">
         <v>42248</v>
@@ -6498,7 +6629,7 @@
         <v>333</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K112" s="8">
         <v>42248</v>
@@ -6516,7 +6647,7 @@
         <v>97</v>
       </c>
       <c r="F113" s="6">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>98</v>
@@ -6525,10 +6656,10 @@
         <v>4</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K113" s="8">
         <v>42248</v>
@@ -6558,7 +6689,7 @@
         <v>334</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K114" s="8">
         <v>42248</v>
@@ -6576,19 +6707,19 @@
         <v>97</v>
       </c>
       <c r="F115" s="6">
-        <v>1309</v>
+        <v>1005</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H115" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K115" s="8">
         <v>42248</v>
@@ -6618,7 +6749,7 @@
         <v>335</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K116" s="8">
         <v>42248</v>
@@ -6636,19 +6767,19 @@
         <v>97</v>
       </c>
       <c r="F117" s="6">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H117" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K117" s="8">
         <v>42248</v>
@@ -6678,7 +6809,7 @@
         <v>336</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K118" s="8">
         <v>42248</v>
@@ -6708,7 +6839,7 @@
         <v>336</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K119" s="8">
         <v>42248</v>
@@ -6726,19 +6857,19 @@
         <v>97</v>
       </c>
       <c r="F120" s="6">
-        <v>1004</v>
+        <v>1527</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H120" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K120" s="8">
         <v>42248</v>
@@ -6756,7 +6887,7 @@
         <v>97</v>
       </c>
       <c r="F121" s="6">
-        <v>1527</v>
+        <v>1064</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>98</v>
@@ -6765,7 +6896,7 @@
         <v>2</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="J121" s="4" t="s">
         <v>99</v>
@@ -6786,7 +6917,7 @@
         <v>97</v>
       </c>
       <c r="F122" s="6">
-        <v>1064</v>
+        <v>1788</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>98</v>
@@ -6795,7 +6926,7 @@
         <v>2</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J122" s="4" t="s">
         <v>99</v>
@@ -6816,16 +6947,16 @@
         <v>97</v>
       </c>
       <c r="F123" s="6">
-        <v>1788</v>
+        <v>1827</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H123" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J123" s="4" t="s">
         <v>99</v>
@@ -6858,7 +6989,7 @@
         <v>400</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K124" s="8">
         <v>42248</v>
@@ -6888,7 +7019,7 @@
         <v>400</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K125" s="8">
         <v>42248</v>
@@ -6906,19 +7037,19 @@
         <v>97</v>
       </c>
       <c r="F126" s="6">
-        <v>1827</v>
+        <v>1814</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H126" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K126" s="8">
         <v>42248</v>
@@ -6948,7 +7079,7 @@
         <v>401</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K127" s="8">
         <v>42248</v>
@@ -6966,19 +7097,19 @@
         <v>97</v>
       </c>
       <c r="F128" s="6">
-        <v>1814</v>
+        <v>1726</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H128" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K128" s="8">
         <v>42248</v>
@@ -7008,7 +7139,7 @@
         <v>402</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K129" s="8">
         <v>42248</v>
@@ -7038,7 +7169,7 @@
         <v>402</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K130" s="8">
         <v>42248</v>
@@ -7056,19 +7187,19 @@
         <v>97</v>
       </c>
       <c r="F131" s="6">
-        <v>1726</v>
+        <v>1319</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H131" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K131" s="8">
         <v>42248</v>
@@ -7098,7 +7229,7 @@
         <v>422</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K132" s="8">
         <v>42248</v>
@@ -7116,7 +7247,7 @@
         <v>97</v>
       </c>
       <c r="F133" s="6">
-        <v>1319</v>
+        <v>1819</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>98</v>
@@ -7125,10 +7256,10 @@
         <v>3</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K133" s="8">
         <v>42248</v>
@@ -7158,7 +7289,7 @@
         <v>423</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K134" s="8">
         <v>42248</v>
@@ -7175,20 +7306,20 @@
       <c r="E135" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F135" s="6">
+      <c r="F135" s="16">
         <v>1819</v>
       </c>
-      <c r="G135" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H135" s="6">
+      <c r="G135" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H135" s="18">
         <v>3</v>
       </c>
-      <c r="I135" s="6" t="s">
+      <c r="I135" s="18" t="s">
         <v>423</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K135" s="8">
         <v>42248</v>
@@ -7204,21 +7335,6 @@
       <c r="D136" s="7"/>
       <c r="E136" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="F136" s="16">
-        <v>1819</v>
-      </c>
-      <c r="G136" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H136" s="18">
-        <v>3</v>
-      </c>
-      <c r="I136" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="K136" s="8">
         <v>42248</v>
@@ -9727,7 +9843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N303"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="F296" sqref="F296"/>
     </sheetView>
   </sheetViews>

--- a/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
+++ b/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="-26440" windowWidth="29120" windowHeight="24500" tabRatio="500"/>
+    <workbookView xWindow="-8600" yWindow="-17920" windowWidth="15620" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="klt" sheetId="1" r:id="rId1"/>
@@ -3607,7 +3607,7 @@
   <dimension ref="A1:R436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
+++ b/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-8600" yWindow="-17920" windowWidth="15620" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="2780" yWindow="560" windowWidth="22360" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="klt" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="615">
   <si>
     <t>N8573</t>
   </si>
@@ -580,9 +580,6 @@
     <t>Product_view_definition</t>
   </si>
   <si>
-    <t>Product_occurence</t>
-  </si>
-  <si>
     <t>Product_data_quality_definition</t>
   </si>
   <si>
@@ -628,9 +625,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>apra_groupable_item</t>
-  </si>
-  <si>
     <t>assembly_shape</t>
   </si>
   <si>
@@ -1889,6 +1883,21 @@
   </si>
   <si>
     <t>wg updated in stepmod?</t>
+  </si>
+  <si>
+    <t>Assembly_physical_requirement_allocation</t>
+  </si>
+  <si>
+    <t>assembly_physical_requirement_allocation</t>
+  </si>
+  <si>
+    <t>external_unit</t>
+  </si>
+  <si>
+    <t>geometric_model_2d_3d_relationship</t>
+  </si>
+  <si>
+    <t>Product_occurrence</t>
   </si>
 </sst>
 </file>
@@ -1998,8 +2007,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="625">
+  <cellStyleXfs count="671">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2650,7 +2705,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="625">
+  <cellStyles count="671">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2963,6 +3018,29 @@
     <cellStyle name="Lien hypertexte" xfId="619" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="621" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="669" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -3275,6 +3353,29 @@
     <cellStyle name="Lien hypertexte visité" xfId="620" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="622" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="670" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3606,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R436"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3620,7 +3721,7 @@
     <col min="6" max="6" width="9.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="44.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -3630,28 +3731,28 @@
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3685,7 +3786,7 @@
         <v>42248</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3719,7 +3820,7 @@
         <v>42248</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3753,7 +3854,7 @@
         <v>42248</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -3792,7 +3893,7 @@
         <v>42248</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
@@ -3831,7 +3932,7 @@
         <v>42248</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
@@ -3861,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>99</v>
@@ -3898,7 +3999,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>100</v>
@@ -3944,7 +4045,7 @@
         <v>42248</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3983,7 +4084,7 @@
         <v>42248</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -4022,7 +4123,7 @@
         <v>42248</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -4061,7 +4162,7 @@
         <v>42248</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -4100,7 +4201,7 @@
         <v>42248</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
@@ -4139,7 +4240,7 @@
         <v>42248</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
@@ -4178,7 +4279,7 @@
         <v>42248</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -4217,7 +4318,7 @@
         <v>42248</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
@@ -4256,7 +4357,7 @@
         <v>42248</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
@@ -4295,7 +4396,7 @@
         <v>42248</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
@@ -4334,7 +4435,7 @@
         <v>42248</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N19"/>
       <c r="O19"/>
@@ -4373,7 +4474,7 @@
         <v>42248</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4412,7 +4513,7 @@
         <v>42248</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -4446,7 +4547,7 @@
         <v>42248</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -4480,7 +4581,7 @@
         <v>42248</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -4514,7 +4615,7 @@
         <v>42248</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -4548,7 +4649,7 @@
         <v>42248</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -4582,7 +4683,7 @@
         <v>42248</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -4616,7 +4717,7 @@
         <v>42248</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -4650,7 +4751,7 @@
         <v>42248</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -4684,7 +4785,7 @@
         <v>42248</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4718,7 +4819,7 @@
         <v>42248</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4752,7 +4853,7 @@
         <v>42248</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4786,7 +4887,7 @@
         <v>42248</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4820,7 +4921,7 @@
         <v>42248</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4854,7 +4955,7 @@
         <v>42248</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4888,7 +4989,7 @@
         <v>42248</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4922,7 +5023,7 @@
         <v>42248</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4956,7 +5057,7 @@
         <v>42248</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4990,7 +5091,7 @@
         <v>42248</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -5024,7 +5125,7 @@
         <v>42248</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -5058,7 +5159,7 @@
         <v>42248</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -5092,7 +5193,7 @@
         <v>42248</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -5117,7 +5218,7 @@
         <v>4</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>99</v>
@@ -5126,7 +5227,7 @@
         <v>42248</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -5151,7 +5252,7 @@
         <v>4</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>100</v>
@@ -5160,7 +5261,7 @@
         <v>42248</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -5185,7 +5286,7 @@
         <v>4</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>101</v>
@@ -5194,7 +5295,7 @@
         <v>42248</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -5219,7 +5320,7 @@
         <v>4</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>99</v>
@@ -5228,7 +5329,7 @@
         <v>42248</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -5253,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>100</v>
@@ -5262,7 +5363,7 @@
         <v>42248</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -5287,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>101</v>
@@ -5296,7 +5397,7 @@
         <v>42248</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -5321,7 +5422,7 @@
         <v>4</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>99</v>
@@ -5330,7 +5431,7 @@
         <v>42248</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -5355,7 +5456,7 @@
         <v>4</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>100</v>
@@ -5364,7 +5465,7 @@
         <v>42248</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -5389,7 +5490,7 @@
         <v>4</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>101</v>
@@ -5398,7 +5499,7 @@
         <v>42248</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -5423,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>99</v>
@@ -5432,7 +5533,7 @@
         <v>42248</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -5457,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>99</v>
@@ -5466,7 +5567,7 @@
         <v>42248</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -5491,7 +5592,7 @@
         <v>4</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>99</v>
@@ -5500,7 +5601,7 @@
         <v>42248</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -5525,7 +5626,7 @@
         <v>4</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>100</v>
@@ -5534,7 +5635,7 @@
         <v>42248</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -5559,7 +5660,7 @@
         <v>4</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>101</v>
@@ -5568,7 +5669,7 @@
         <v>42248</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -5593,7 +5694,7 @@
         <v>4</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>99</v>
@@ -5602,7 +5703,7 @@
         <v>42248</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -5627,7 +5728,7 @@
         <v>4</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>100</v>
@@ -5636,7 +5737,7 @@
         <v>42248</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -5661,7 +5762,7 @@
         <v>4</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>101</v>
@@ -5670,7 +5771,7 @@
         <v>42248</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -5695,7 +5796,7 @@
         <v>4</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>191</v>
+        <v>611</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>99</v>
@@ -5727,7 +5828,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>191</v>
+        <v>611</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>100</v>
@@ -5759,7 +5860,7 @@
         <v>4</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>191</v>
+        <v>611</v>
       </c>
       <c r="J61" s="8" t="s">
         <v>101</v>
@@ -5791,7 +5892,7 @@
         <v>5</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>99</v>
@@ -5800,7 +5901,7 @@
         <v>42248</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -5825,7 +5926,7 @@
         <v>5</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>100</v>
@@ -5834,7 +5935,7 @@
         <v>42248</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -5859,7 +5960,7 @@
         <v>5</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>101</v>
@@ -5868,7 +5969,7 @@
         <v>42248</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -5893,7 +5994,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>99</v>
@@ -5925,7 +6026,7 @@
         <v>3</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>100</v>
@@ -5957,7 +6058,7 @@
         <v>6</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>99</v>
@@ -5989,7 +6090,7 @@
         <v>6</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>100</v>
@@ -6021,7 +6122,7 @@
         <v>5</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>99</v>
@@ -6053,7 +6154,7 @@
         <v>5</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>100</v>
@@ -6085,7 +6186,7 @@
         <v>5</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>99</v>
@@ -6117,7 +6218,7 @@
         <v>5</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>100</v>
@@ -6149,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>99</v>
@@ -6181,7 +6282,7 @@
         <v>6</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J74" s="8" t="s">
         <v>99</v>
@@ -6213,7 +6314,7 @@
         <v>4</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J75" s="8" t="s">
         <v>99</v>
@@ -6245,7 +6346,7 @@
         <v>4</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>100</v>
@@ -6277,7 +6378,7 @@
         <v>4</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>101</v>
@@ -6309,7 +6410,7 @@
         <v>2</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>99</v>
@@ -6341,7 +6442,7 @@
         <v>6</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>99</v>
@@ -6373,7 +6474,7 @@
         <v>6</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>100</v>
@@ -6405,7 +6506,7 @@
         <v>6</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>101</v>
@@ -6437,7 +6538,7 @@
         <v>5</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>99</v>
@@ -6469,7 +6570,7 @@
         <v>5</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>101</v>
@@ -6501,7 +6602,7 @@
         <v>5</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>99</v>
@@ -6533,7 +6634,7 @@
         <v>5</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>101</v>
@@ -6565,7 +6666,7 @@
         <v>5</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>99</v>
@@ -6597,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>99</v>
@@ -6629,7 +6730,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>100</v>
@@ -6661,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J89" s="8" t="s">
         <v>99</v>
@@ -6693,7 +6794,7 @@
         <v>5</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>99</v>
@@ -6725,7 +6826,7 @@
         <v>5</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>101</v>
@@ -6757,7 +6858,7 @@
         <v>4</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>99</v>
@@ -6789,7 +6890,7 @@
         <v>7</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J93" s="8" t="s">
         <v>99</v>
@@ -6821,7 +6922,7 @@
         <v>7</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J94" s="8" t="s">
         <v>100</v>
@@ -6853,7 +6954,7 @@
         <v>4</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J95" s="8" t="s">
         <v>99</v>
@@ -6885,7 +6986,7 @@
         <v>4</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J96" s="8" t="s">
         <v>100</v>
@@ -6917,7 +7018,7 @@
         <v>4</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J97" s="8" t="s">
         <v>101</v>
@@ -6949,7 +7050,7 @@
         <v>2</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J98" s="8" t="s">
         <v>99</v>
@@ -6981,7 +7082,7 @@
         <v>2</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J99" s="8" t="s">
         <v>100</v>
@@ -7013,7 +7114,7 @@
         <v>5</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J100" s="8" t="s">
         <v>99</v>
@@ -7045,7 +7146,7 @@
         <v>5</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>100</v>
@@ -7077,7 +7178,7 @@
         <v>2</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>99</v>
@@ -7109,7 +7210,7 @@
         <v>2</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>100</v>
@@ -7141,7 +7242,7 @@
         <v>6</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J104" s="8" t="s">
         <v>99</v>
@@ -7173,7 +7274,7 @@
         <v>6</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J105" s="8" t="s">
         <v>100</v>
@@ -7205,7 +7306,7 @@
         <v>6</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J106" s="8" t="s">
         <v>101</v>
@@ -7237,7 +7338,7 @@
         <v>6</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J107" s="8" t="s">
         <v>99</v>
@@ -7269,7 +7370,7 @@
         <v>4</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>99</v>
@@ -7301,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>99</v>
@@ -7333,7 +7434,7 @@
         <v>4</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J110" s="8" t="s">
         <v>101</v>
@@ -7365,7 +7466,7 @@
         <v>4</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J111" s="8" t="s">
         <v>99</v>
@@ -7397,7 +7498,7 @@
         <v>4</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J112" s="8" t="s">
         <v>100</v>
@@ -7429,7 +7530,7 @@
         <v>4</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J113" s="8" t="s">
         <v>99</v>
@@ -7461,7 +7562,7 @@
         <v>4</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J114" s="8" t="s">
         <v>101</v>
@@ -7493,7 +7594,7 @@
         <v>5</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J115" s="8" t="s">
         <v>99</v>
@@ -7525,7 +7626,7 @@
         <v>5</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J116" s="8" t="s">
         <v>100</v>
@@ -7557,7 +7658,7 @@
         <v>9</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J117" s="8" t="s">
         <v>99</v>
@@ -7589,7 +7690,7 @@
         <v>9</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J118" s="8" t="s">
         <v>100</v>
@@ -7621,7 +7722,7 @@
         <v>9</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J119" s="8" t="s">
         <v>101</v>
@@ -7653,7 +7754,7 @@
         <v>2</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J120" s="8" t="s">
         <v>99</v>
@@ -7685,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J121" s="8" t="s">
         <v>99</v>
@@ -7717,7 +7818,7 @@
         <v>2</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J122" s="8" t="s">
         <v>99</v>
@@ -7749,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J123" s="8" t="s">
         <v>99</v>
@@ -7781,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J124" s="8" t="s">
         <v>100</v>
@@ -7813,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J125" s="8" t="s">
         <v>101</v>
@@ -7845,7 +7946,7 @@
         <v>2</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>99</v>
@@ -7877,7 +7978,7 @@
         <v>2</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>100</v>
@@ -7909,7 +8010,7 @@
         <v>5</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>99</v>
@@ -7941,7 +8042,7 @@
         <v>5</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>100</v>
@@ -7973,7 +8074,7 @@
         <v>5</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>101</v>
@@ -8005,7 +8106,7 @@
         <v>3</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>99</v>
@@ -8037,7 +8138,7 @@
         <v>3</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>100</v>
@@ -8069,7 +8170,7 @@
         <v>3</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>99</v>
@@ -8101,7 +8202,7 @@
         <v>3</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>100</v>
@@ -8133,7 +8234,7 @@
         <v>3</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>101</v>
@@ -8174,12 +8275,12 @@
         <v>42248</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>1</v>
@@ -8208,12 +8309,12 @@
         <v>42248</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>1</v>
@@ -8242,12 +8343,12 @@
         <v>42248</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>1</v>
@@ -8276,12 +8377,12 @@
         <v>42248</v>
       </c>
       <c r="L139" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>1</v>
@@ -8310,12 +8411,12 @@
         <v>42248</v>
       </c>
       <c r="L140" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>1</v>
@@ -8344,12 +8445,12 @@
         <v>42248</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>1</v>
@@ -8378,12 +8479,12 @@
         <v>42248</v>
       </c>
       <c r="L142" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>1</v>
@@ -8412,12 +8513,12 @@
         <v>42248</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>1</v>
@@ -8446,12 +8547,12 @@
         <v>42248</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>1</v>
@@ -8480,12 +8581,12 @@
         <v>42248</v>
       </c>
       <c r="L145" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>1</v>
@@ -8514,12 +8615,12 @@
         <v>42248</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>1</v>
@@ -8548,12 +8649,12 @@
         <v>42248</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>1</v>
@@ -8582,12 +8683,12 @@
         <v>42248</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>1</v>
@@ -8597,14 +8698,20 @@
       <c r="E149" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F149" s="8"/>
+      <c r="F149" s="8">
+        <v>1648</v>
+      </c>
       <c r="G149" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
+      <c r="H149" s="8">
+        <v>4</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>610</v>
+      </c>
       <c r="J149" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K149" s="11">
         <v>42248</v>
@@ -8613,7 +8720,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>1</v>
@@ -8623,14 +8730,20 @@
       <c r="E150" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F150" s="8"/>
+      <c r="F150" s="8">
+        <v>1648</v>
+      </c>
       <c r="G150" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
+      <c r="H150" s="8">
+        <v>4</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>610</v>
+      </c>
       <c r="J150" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K150" s="11">
         <v>42248</v>
@@ -8639,7 +8752,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>1</v>
@@ -8650,30 +8763,28 @@
         <v>97</v>
       </c>
       <c r="F151" s="8">
-        <v>1054</v>
+        <v>1648</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>98</v>
       </c>
       <c r="H151" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>164</v>
+        <v>610</v>
       </c>
       <c r="J151" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K151" s="11">
         <v>42248</v>
       </c>
-      <c r="L151" s="8" t="s">
-        <v>190</v>
-      </c>
+      <c r="L151" s="8"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>1</v>
@@ -8696,18 +8807,18 @@
         <v>164</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K152" s="11">
         <v>42248</v>
       </c>
       <c r="L152" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>1</v>
@@ -8717,23 +8828,31 @@
       <c r="E153" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F153" s="8"/>
+      <c r="F153" s="8">
+        <v>1054</v>
+      </c>
       <c r="G153" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
+      <c r="H153" s="8">
+        <v>3</v>
+      </c>
+      <c r="I153" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="J153" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K153" s="11">
         <v>42248</v>
       </c>
-      <c r="L153" s="8"/>
+      <c r="L153" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>1</v>
@@ -8762,12 +8881,12 @@
         <v>42248</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>1</v>
@@ -8777,14 +8896,20 @@
       <c r="E155" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F155" s="8"/>
+      <c r="F155" s="8">
+        <v>1404</v>
+      </c>
       <c r="G155" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
+      <c r="H155" s="8">
+        <v>2</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>613</v>
+      </c>
       <c r="J155" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K155" s="11">
         <v>42248</v>
@@ -8793,7 +8918,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>1</v>
@@ -8810,7 +8935,7 @@
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
       <c r="J156" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K156" s="11">
         <v>42248</v>
@@ -8819,7 +8944,7 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>1</v>
@@ -8848,12 +8973,12 @@
         <v>42248</v>
       </c>
       <c r="L157" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>1</v>
@@ -8879,7 +9004,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>1</v>
@@ -8905,7 +9030,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>1</v>
@@ -8934,12 +9059,12 @@
         <v>42248</v>
       </c>
       <c r="L160" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>1</v>
@@ -8968,12 +9093,12 @@
         <v>42248</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>1</v>
@@ -8999,7 +9124,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>1</v>
@@ -9028,12 +9153,12 @@
         <v>42248</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>1</v>
@@ -9043,14 +9168,20 @@
       <c r="E164" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F164" s="8"/>
+      <c r="F164" s="8">
+        <v>1780</v>
+      </c>
       <c r="G164" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
+      <c r="H164" s="8">
+        <v>2</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>612</v>
+      </c>
       <c r="J164" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K164" s="11">
         <v>42248</v>
@@ -9059,7 +9190,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>1</v>
@@ -9088,12 +9219,12 @@
         <v>42248</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>1</v>
@@ -9122,12 +9253,12 @@
         <v>42248</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>1</v>
@@ -9156,12 +9287,12 @@
         <v>42248</v>
       </c>
       <c r="L167" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>1</v>
@@ -9187,7 +9318,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>1</v>
@@ -9216,12 +9347,12 @@
         <v>42248</v>
       </c>
       <c r="L169" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>1</v>
@@ -9247,7 +9378,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>1</v>
@@ -9273,7 +9404,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>1</v>
@@ -9302,12 +9433,12 @@
         <v>42248</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>1</v>
@@ -9336,12 +9467,12 @@
         <v>42248</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>1</v>
@@ -9370,12 +9501,12 @@
         <v>42248</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>1</v>
@@ -9404,12 +9535,12 @@
         <v>42248</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>1</v>
@@ -9438,12 +9569,12 @@
         <v>42248</v>
       </c>
       <c r="L176" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>1</v>
@@ -9472,12 +9603,12 @@
         <v>42248</v>
       </c>
       <c r="L177" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>1</v>
@@ -9506,12 +9637,12 @@
         <v>42248</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>1</v>
@@ -9540,12 +9671,12 @@
         <v>42248</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>1</v>
@@ -9571,7 +9702,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>1</v>
@@ -9600,12 +9731,12 @@
         <v>42248</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>1</v>
@@ -9634,12 +9765,12 @@
         <v>42248</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>1</v>
@@ -9668,12 +9799,12 @@
         <v>42248</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>1</v>
@@ -9693,7 +9824,7 @@
         <v>4</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>175</v>
+        <v>614</v>
       </c>
       <c r="J184" s="8" t="s">
         <v>99</v>
@@ -9702,12 +9833,12 @@
         <v>42248</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>1</v>
@@ -9727,7 +9858,7 @@
         <v>4</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>175</v>
+        <v>614</v>
       </c>
       <c r="J185" s="8" t="s">
         <v>100</v>
@@ -9736,12 +9867,12 @@
         <v>42248</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>1</v>
@@ -9767,7 +9898,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>1</v>
@@ -9787,7 +9918,7 @@
         <v>2</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J187" s="8" t="s">
         <v>99</v>
@@ -9796,12 +9927,12 @@
         <v>42248</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>1</v>
@@ -9821,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J188" s="8" t="s">
         <v>100</v>
@@ -9830,12 +9961,12 @@
         <v>42248</v>
       </c>
       <c r="L188" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>1</v>
@@ -9861,7 +9992,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>1</v>
@@ -9881,7 +10012,7 @@
         <v>5</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J190" s="8" t="s">
         <v>99</v>
@@ -9890,12 +10021,12 @@
         <v>42248</v>
       </c>
       <c r="L190" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>1</v>
@@ -9915,7 +10046,7 @@
         <v>5</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J191" s="8" t="s">
         <v>100</v>
@@ -9924,12 +10055,12 @@
         <v>42248</v>
       </c>
       <c r="L191" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>1</v>
@@ -9949,7 +10080,7 @@
         <v>5</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J192" s="8" t="s">
         <v>101</v>
@@ -9958,12 +10089,12 @@
         <v>42248</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>1</v>
@@ -9983,7 +10114,7 @@
         <v>5</v>
       </c>
       <c r="I193" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J193" s="8" t="s">
         <v>99</v>
@@ -9992,12 +10123,12 @@
         <v>42248</v>
       </c>
       <c r="L193" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>1</v>
@@ -10017,7 +10148,7 @@
         <v>5</v>
       </c>
       <c r="I194" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J194" s="8" t="s">
         <v>100</v>
@@ -10026,12 +10157,12 @@
         <v>42248</v>
       </c>
       <c r="L194" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>1</v>
@@ -10051,7 +10182,7 @@
         <v>5</v>
       </c>
       <c r="I195" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J195" s="8" t="s">
         <v>101</v>
@@ -10060,12 +10191,12 @@
         <v>42248</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>1</v>
@@ -10085,7 +10216,7 @@
         <v>2</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J196" s="8" t="s">
         <v>99</v>
@@ -10094,12 +10225,12 @@
         <v>42248</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>1</v>
@@ -10119,7 +10250,7 @@
         <v>2</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J197" s="8" t="s">
         <v>100</v>
@@ -10128,12 +10259,12 @@
         <v>42248</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>1</v>
@@ -10153,7 +10284,7 @@
         <v>2</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J198" s="8" t="s">
         <v>101</v>
@@ -10162,12 +10293,12 @@
         <v>42248</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>1</v>
@@ -10187,7 +10318,7 @@
         <v>2</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J199" s="8" t="s">
         <v>99</v>
@@ -10196,12 +10327,12 @@
         <v>42248</v>
       </c>
       <c r="L199" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>1</v>
@@ -10221,7 +10352,7 @@
         <v>2</v>
       </c>
       <c r="I200" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J200" s="8" t="s">
         <v>100</v>
@@ -10230,12 +10361,12 @@
         <v>42248</v>
       </c>
       <c r="L200" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>1</v>
@@ -10261,7 +10392,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>1</v>
@@ -10281,7 +10412,7 @@
         <v>3</v>
       </c>
       <c r="I202" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J202" s="8" t="s">
         <v>99</v>
@@ -10290,12 +10421,12 @@
         <v>42248</v>
       </c>
       <c r="L202" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>1</v>
@@ -10315,7 +10446,7 @@
         <v>3</v>
       </c>
       <c r="I203" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J203" s="8" t="s">
         <v>100</v>
@@ -10324,12 +10455,12 @@
         <v>42248</v>
       </c>
       <c r="L203" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>1</v>
@@ -10349,7 +10480,7 @@
         <v>3</v>
       </c>
       <c r="I204" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J204" s="8" t="s">
         <v>101</v>
@@ -10358,12 +10489,12 @@
         <v>42248</v>
       </c>
       <c r="L204" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>1</v>
@@ -10383,7 +10514,7 @@
         <v>2</v>
       </c>
       <c r="I205" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J205" s="8" t="s">
         <v>99</v>
@@ -10392,12 +10523,12 @@
         <v>42248</v>
       </c>
       <c r="L205" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>1</v>
@@ -10423,7 +10554,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>1</v>
@@ -10443,7 +10574,7 @@
         <v>2</v>
       </c>
       <c r="I207" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J207" s="8" t="s">
         <v>101</v>
@@ -10452,12 +10583,12 @@
         <v>42248</v>
       </c>
       <c r="L207" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>1</v>
@@ -10477,7 +10608,7 @@
         <v>5</v>
       </c>
       <c r="I208" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J208" s="8" t="s">
         <v>99</v>
@@ -10486,12 +10617,12 @@
         <v>42248</v>
       </c>
       <c r="L208" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>1</v>
@@ -10511,7 +10642,7 @@
         <v>5</v>
       </c>
       <c r="I209" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J209" s="8" t="s">
         <v>100</v>
@@ -10520,12 +10651,12 @@
         <v>42248</v>
       </c>
       <c r="L209" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>1</v>
@@ -10545,7 +10676,7 @@
         <v>5</v>
       </c>
       <c r="I210" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J210" s="8" t="s">
         <v>101</v>
@@ -10554,12 +10685,12 @@
         <v>42248</v>
       </c>
       <c r="L210" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>1</v>
@@ -10579,7 +10710,7 @@
         <v>3</v>
       </c>
       <c r="I211" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J211" s="8" t="s">
         <v>99</v>
@@ -10591,7 +10722,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>1</v>
@@ -10617,7 +10748,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>1</v>
@@ -10637,7 +10768,7 @@
         <v>3</v>
       </c>
       <c r="I213" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J213" s="8" t="s">
         <v>101</v>
@@ -10649,7 +10780,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>1</v>
@@ -10669,7 +10800,7 @@
         <v>5</v>
       </c>
       <c r="I214" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J214" s="8" t="s">
         <v>99</v>
@@ -10681,7 +10812,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>1</v>
@@ -10701,7 +10832,7 @@
         <v>5</v>
       </c>
       <c r="I215" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J215" s="8" t="s">
         <v>100</v>
@@ -10713,7 +10844,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>1</v>
@@ -10733,7 +10864,7 @@
         <v>5</v>
       </c>
       <c r="I216" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J216" s="8" t="s">
         <v>101</v>
@@ -10745,7 +10876,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>1</v>
@@ -10765,7 +10896,7 @@
         <v>5</v>
       </c>
       <c r="I217" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J217" s="8" t="s">
         <v>99</v>
@@ -10777,7 +10908,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>1</v>
@@ -10797,7 +10928,7 @@
         <v>5</v>
       </c>
       <c r="I218" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J218" s="8" t="s">
         <v>100</v>
@@ -10809,7 +10940,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>1</v>
@@ -10829,7 +10960,7 @@
         <v>5</v>
       </c>
       <c r="I219" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J219" s="8" t="s">
         <v>101</v>
@@ -10841,7 +10972,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>1</v>
@@ -10861,7 +10992,7 @@
         <v>4</v>
       </c>
       <c r="I220" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J220" s="8" t="s">
         <v>99</v>
@@ -10873,7 +11004,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>1</v>
@@ -10893,7 +11024,7 @@
         <v>4</v>
       </c>
       <c r="I221" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J221" s="8" t="s">
         <v>100</v>
@@ -10905,7 +11036,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>1</v>
@@ -10925,7 +11056,7 @@
         <v>4</v>
       </c>
       <c r="I222" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J222" s="8" t="s">
         <v>101</v>
@@ -10937,7 +11068,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>1</v>
@@ -10957,7 +11088,7 @@
         <v>4</v>
       </c>
       <c r="I223" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J223" s="8" t="s">
         <v>99</v>
@@ -10969,7 +11100,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>1</v>
@@ -10989,7 +11120,7 @@
         <v>4</v>
       </c>
       <c r="I224" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J224" s="8" t="s">
         <v>100</v>
@@ -11001,7 +11132,7 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>1</v>
@@ -11021,7 +11152,7 @@
         <v>4</v>
       </c>
       <c r="I225" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J225" s="8" t="s">
         <v>101</v>
@@ -11033,7 +11164,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>1</v>
@@ -11053,7 +11184,7 @@
         <v>4</v>
       </c>
       <c r="I226" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J226" s="8" t="s">
         <v>99</v>
@@ -11065,7 +11196,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>1</v>
@@ -11085,7 +11216,7 @@
         <v>4</v>
       </c>
       <c r="I227" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J227" s="8" t="s">
         <v>100</v>
@@ -11097,7 +11228,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>1</v>
@@ -11117,7 +11248,7 @@
         <v>4</v>
       </c>
       <c r="I228" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J228" s="8" t="s">
         <v>101</v>
@@ -11129,7 +11260,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>1</v>
@@ -11149,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="I229" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J229" s="8" t="s">
         <v>99</v>
@@ -11161,7 +11292,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>1</v>
@@ -11181,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="I230" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J230" s="8" t="s">
         <v>100</v>
@@ -11193,7 +11324,7 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>1</v>
@@ -11213,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="I231" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J231" s="8" t="s">
         <v>101</v>
@@ -11225,7 +11356,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="A232" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>1</v>
@@ -11245,7 +11376,7 @@
         <v>5</v>
       </c>
       <c r="I232" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J232" s="8" t="s">
         <v>99</v>
@@ -11257,7 +11388,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>1</v>
@@ -11277,7 +11408,7 @@
         <v>5</v>
       </c>
       <c r="I233" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J233" s="8" t="s">
         <v>100</v>
@@ -11289,7 +11420,7 @@
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>1</v>
@@ -11309,7 +11440,7 @@
         <v>5</v>
       </c>
       <c r="I234" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J234" s="8" t="s">
         <v>101</v>
@@ -11321,7 +11452,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>1</v>
@@ -11341,7 +11472,7 @@
         <v>4</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J235" s="8" t="s">
         <v>99</v>
@@ -11353,7 +11484,7 @@
     </row>
     <row r="236" spans="1:12">
       <c r="A236" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>1</v>
@@ -11373,7 +11504,7 @@
         <v>4</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J236" s="8" t="s">
         <v>100</v>
@@ -11385,7 +11516,7 @@
     </row>
     <row r="237" spans="1:12">
       <c r="A237" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>1</v>
@@ -11411,7 +11542,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="A238" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>1</v>
@@ -11431,7 +11562,7 @@
         <v>3</v>
       </c>
       <c r="I238" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J238" s="8" t="s">
         <v>99</v>
@@ -11443,7 +11574,7 @@
     </row>
     <row r="239" spans="1:12">
       <c r="A239" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>1</v>
@@ -11463,7 +11594,7 @@
         <v>3</v>
       </c>
       <c r="I239" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J239" s="8" t="s">
         <v>100</v>
@@ -11475,7 +11606,7 @@
     </row>
     <row r="240" spans="1:12">
       <c r="A240" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>1</v>
@@ -11501,7 +11632,7 @@
     </row>
     <row r="241" spans="1:12">
       <c r="A241" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>1</v>
@@ -11521,7 +11652,7 @@
         <v>4</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J241" s="8" t="s">
         <v>99</v>
@@ -11533,7 +11664,7 @@
     </row>
     <row r="242" spans="1:12">
       <c r="A242" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>1</v>
@@ -11553,7 +11684,7 @@
         <v>4</v>
       </c>
       <c r="I242" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J242" s="8" t="s">
         <v>100</v>
@@ -11565,7 +11696,7 @@
     </row>
     <row r="243" spans="1:12">
       <c r="A243" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>1</v>
@@ -11591,7 +11722,7 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>1</v>
@@ -11611,7 +11742,7 @@
         <v>2</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J244" s="8" t="s">
         <v>99</v>
@@ -11623,7 +11754,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="A245" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>1</v>
@@ -11643,7 +11774,7 @@
         <v>2</v>
       </c>
       <c r="I245" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J245" s="8" t="s">
         <v>100</v>
@@ -11655,7 +11786,7 @@
     </row>
     <row r="246" spans="1:12">
       <c r="A246" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>1</v>
@@ -11681,7 +11812,7 @@
     </row>
     <row r="247" spans="1:12">
       <c r="A247" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>1</v>
@@ -11701,7 +11832,7 @@
         <v>4</v>
       </c>
       <c r="I247" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J247" s="8" t="s">
         <v>99</v>
@@ -11713,7 +11844,7 @@
     </row>
     <row r="248" spans="1:12">
       <c r="A248" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>1</v>
@@ -11733,7 +11864,7 @@
         <v>4</v>
       </c>
       <c r="I248" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J248" s="8" t="s">
         <v>100</v>
@@ -11745,7 +11876,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="A249" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>1</v>
@@ -11765,7 +11896,7 @@
         <v>4</v>
       </c>
       <c r="I249" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J249" s="8" t="s">
         <v>101</v>
@@ -11777,7 +11908,7 @@
     </row>
     <row r="250" spans="1:12">
       <c r="A250" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>1</v>
@@ -11797,7 +11928,7 @@
         <v>4</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J250" s="8" t="s">
         <v>99</v>
@@ -11809,7 +11940,7 @@
     </row>
     <row r="251" spans="1:12">
       <c r="A251" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>1</v>
@@ -11829,7 +11960,7 @@
         <v>4</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J251" s="8" t="s">
         <v>100</v>
@@ -11841,7 +11972,7 @@
     </row>
     <row r="252" spans="1:12">
       <c r="A252" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>1</v>
@@ -11867,7 +11998,7 @@
     </row>
     <row r="253" spans="1:12">
       <c r="A253" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>1</v>
@@ -11887,7 +12018,7 @@
         <v>4</v>
       </c>
       <c r="I253" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J253" s="8" t="s">
         <v>99</v>
@@ -11899,7 +12030,7 @@
     </row>
     <row r="254" spans="1:12">
       <c r="A254" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>1</v>
@@ -11919,7 +12050,7 @@
         <v>4</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J254" s="8" t="s">
         <v>100</v>
@@ -11931,7 +12062,7 @@
     </row>
     <row r="255" spans="1:12">
       <c r="A255" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>1</v>
@@ -11955,7 +12086,7 @@
     </row>
     <row r="256" spans="1:12">
       <c r="A256" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>1</v>
@@ -11975,7 +12106,7 @@
         <v>4</v>
       </c>
       <c r="I256" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J256" s="8" t="s">
         <v>99</v>
@@ -11987,7 +12118,7 @@
     </row>
     <row r="257" spans="1:12">
       <c r="A257" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>1</v>
@@ -12007,7 +12138,7 @@
         <v>4</v>
       </c>
       <c r="I257" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J257" s="8" t="s">
         <v>100</v>
@@ -12019,7 +12150,7 @@
     </row>
     <row r="258" spans="1:12">
       <c r="A258" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>1</v>
@@ -12045,7 +12176,7 @@
     </row>
     <row r="259" spans="1:12">
       <c r="A259" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>1</v>
@@ -12065,7 +12196,7 @@
         <v>4</v>
       </c>
       <c r="I259" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J259" s="8" t="s">
         <v>99</v>
@@ -12077,7 +12208,7 @@
     </row>
     <row r="260" spans="1:12">
       <c r="A260" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>1</v>
@@ -12097,7 +12228,7 @@
         <v>4</v>
       </c>
       <c r="I260" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J260" s="8" t="s">
         <v>100</v>
@@ -12109,7 +12240,7 @@
     </row>
     <row r="261" spans="1:12">
       <c r="A261" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>1</v>
@@ -12135,7 +12266,7 @@
     </row>
     <row r="262" spans="1:12">
       <c r="A262" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>1</v>
@@ -12155,7 +12286,7 @@
         <v>4</v>
       </c>
       <c r="I262" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J262" s="8" t="s">
         <v>99</v>
@@ -12167,7 +12298,7 @@
     </row>
     <row r="263" spans="1:12">
       <c r="A263" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>1</v>
@@ -12187,7 +12318,7 @@
         <v>4</v>
       </c>
       <c r="I263" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J263" s="8" t="s">
         <v>100</v>
@@ -12199,7 +12330,7 @@
     </row>
     <row r="264" spans="1:12">
       <c r="A264" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>1</v>
@@ -12225,7 +12356,7 @@
     </row>
     <row r="265" spans="1:12">
       <c r="A265" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>1</v>
@@ -12245,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="I265" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J265" s="8" t="s">
         <v>99</v>
@@ -12257,7 +12388,7 @@
     </row>
     <row r="266" spans="1:12">
       <c r="A266" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>1</v>
@@ -12277,7 +12408,7 @@
         <v>3</v>
       </c>
       <c r="I266" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J266" s="8" t="s">
         <v>100</v>
@@ -12289,7 +12420,7 @@
     </row>
     <row r="267" spans="1:12">
       <c r="A267" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>1</v>
@@ -12315,7 +12446,7 @@
     </row>
     <row r="268" spans="1:12">
       <c r="A268" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>1</v>
@@ -12335,7 +12466,7 @@
         <v>6</v>
       </c>
       <c r="I268" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J268" s="8" t="s">
         <v>99</v>
@@ -12347,7 +12478,7 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>1</v>
@@ -12367,7 +12498,7 @@
         <v>6</v>
       </c>
       <c r="I269" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J269" s="8" t="s">
         <v>100</v>
@@ -12379,7 +12510,7 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>1</v>
@@ -12399,7 +12530,7 @@
         <v>6</v>
       </c>
       <c r="I270" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J270" s="8" t="s">
         <v>101</v>
@@ -12411,7 +12542,7 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>1</v>
@@ -12431,7 +12562,7 @@
         <v>5</v>
       </c>
       <c r="I271" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J271" s="8" t="s">
         <v>99</v>
@@ -12443,7 +12574,7 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>1</v>
@@ -12463,7 +12594,7 @@
         <v>5</v>
       </c>
       <c r="I272" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J272" s="8" t="s">
         <v>100</v>
@@ -12475,7 +12606,7 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>1</v>
@@ -12495,7 +12626,7 @@
         <v>5</v>
       </c>
       <c r="I273" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J273" s="8" t="s">
         <v>101</v>
@@ -12507,7 +12638,7 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>1</v>
@@ -12527,7 +12658,7 @@
         <v>4</v>
       </c>
       <c r="I274" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J274" s="8" t="s">
         <v>99</v>
@@ -12539,7 +12670,7 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>1</v>
@@ -12559,7 +12690,7 @@
         <v>4</v>
       </c>
       <c r="I275" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J275" s="8" t="s">
         <v>100</v>
@@ -12571,7 +12702,7 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>1</v>
@@ -12591,7 +12722,7 @@
         <v>4</v>
       </c>
       <c r="I276" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J276" s="8" t="s">
         <v>101</v>
@@ -12603,7 +12734,7 @@
     </row>
     <row r="277" spans="1:12">
       <c r="A277" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>1</v>
@@ -12623,7 +12754,7 @@
         <v>5</v>
       </c>
       <c r="I277" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J277" s="8" t="s">
         <v>99</v>
@@ -12635,7 +12766,7 @@
     </row>
     <row r="278" spans="1:12">
       <c r="A278" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>1</v>
@@ -12655,7 +12786,7 @@
         <v>5</v>
       </c>
       <c r="I278" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J278" s="8" t="s">
         <v>100</v>
@@ -12667,7 +12798,7 @@
     </row>
     <row r="279" spans="1:12">
       <c r="A279" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>1</v>
@@ -12687,7 +12818,7 @@
         <v>5</v>
       </c>
       <c r="I279" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J279" s="8" t="s">
         <v>101</v>
@@ -12699,7 +12830,7 @@
     </row>
     <row r="280" spans="1:12">
       <c r="A280" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>1</v>
@@ -12719,7 +12850,7 @@
         <v>2</v>
       </c>
       <c r="I280" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J280" s="8" t="s">
         <v>99</v>
@@ -12731,7 +12862,7 @@
     </row>
     <row r="281" spans="1:12">
       <c r="A281" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>1</v>
@@ -12751,7 +12882,7 @@
         <v>2</v>
       </c>
       <c r="I281" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J281" s="8" t="s">
         <v>100</v>
@@ -12763,7 +12894,7 @@
     </row>
     <row r="282" spans="1:12">
       <c r="A282" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>1</v>
@@ -12789,7 +12920,7 @@
     </row>
     <row r="283" spans="1:12">
       <c r="A283" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>1</v>
@@ -12809,7 +12940,7 @@
         <v>2</v>
       </c>
       <c r="I283" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J283" s="8" t="s">
         <v>99</v>
@@ -12821,7 +12952,7 @@
     </row>
     <row r="284" spans="1:12">
       <c r="A284" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>1</v>
@@ -12841,7 +12972,7 @@
         <v>2</v>
       </c>
       <c r="I284" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J284" s="8" t="s">
         <v>100</v>
@@ -12853,7 +12984,7 @@
     </row>
     <row r="285" spans="1:12">
       <c r="A285" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>1</v>
@@ -12879,7 +13010,7 @@
     </row>
     <row r="286" spans="1:12">
       <c r="A286" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>1</v>
@@ -12899,7 +13030,7 @@
         <v>4</v>
       </c>
       <c r="I286" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J286" s="8" t="s">
         <v>99</v>
@@ -12911,7 +13042,7 @@
     </row>
     <row r="287" spans="1:12">
       <c r="A287" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>1</v>
@@ -12931,7 +13062,7 @@
         <v>4</v>
       </c>
       <c r="I287" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J287" s="8" t="s">
         <v>100</v>
@@ -12943,7 +13074,7 @@
     </row>
     <row r="288" spans="1:12">
       <c r="A288" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>1</v>
@@ -12969,7 +13100,7 @@
     </row>
     <row r="289" spans="1:12">
       <c r="A289" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>1</v>
@@ -12989,7 +13120,7 @@
         <v>6</v>
       </c>
       <c r="I289" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J289" s="8" t="s">
         <v>99</v>
@@ -13001,7 +13132,7 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>1</v>
@@ -13021,7 +13152,7 @@
         <v>6</v>
       </c>
       <c r="I290" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J290" s="8" t="s">
         <v>100</v>
@@ -13033,7 +13164,7 @@
     </row>
     <row r="291" spans="1:12">
       <c r="A291" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>1</v>
@@ -13059,7 +13190,7 @@
     </row>
     <row r="292" spans="1:12">
       <c r="A292" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>1</v>
@@ -13079,7 +13210,7 @@
         <v>5</v>
       </c>
       <c r="I292" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J292" s="8" t="s">
         <v>99</v>
@@ -13091,7 +13222,7 @@
     </row>
     <row r="293" spans="1:12">
       <c r="A293" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>1</v>
@@ -13111,7 +13242,7 @@
         <v>5</v>
       </c>
       <c r="I293" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J293" s="8" t="s">
         <v>100</v>
@@ -13123,7 +13254,7 @@
     </row>
     <row r="294" spans="1:12">
       <c r="A294" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>1</v>
@@ -13149,7 +13280,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="A295" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>1</v>
@@ -13169,7 +13300,7 @@
         <v>6</v>
       </c>
       <c r="I295" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J295" s="8" t="s">
         <v>99</v>
@@ -13181,7 +13312,7 @@
     </row>
     <row r="296" spans="1:12">
       <c r="A296" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>1</v>
@@ -13201,7 +13332,7 @@
         <v>6</v>
       </c>
       <c r="I296" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J296" s="8" t="s">
         <v>100</v>
@@ -13213,7 +13344,7 @@
     </row>
     <row r="297" spans="1:12">
       <c r="A297" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>1</v>
@@ -13239,7 +13370,7 @@
     </row>
     <row r="298" spans="1:12">
       <c r="A298" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>1</v>
@@ -13259,7 +13390,7 @@
         <v>5</v>
       </c>
       <c r="I298" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J298" s="8" t="s">
         <v>99</v>
@@ -13271,7 +13402,7 @@
     </row>
     <row r="299" spans="1:12">
       <c r="A299" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>1</v>
@@ -13291,7 +13422,7 @@
         <v>5</v>
       </c>
       <c r="I299" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J299" s="8" t="s">
         <v>100</v>
@@ -13303,7 +13434,7 @@
     </row>
     <row r="300" spans="1:12">
       <c r="A300" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>1</v>
@@ -13329,7 +13460,7 @@
     </row>
     <row r="301" spans="1:12">
       <c r="A301" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>1</v>
@@ -13349,7 +13480,7 @@
         <v>5</v>
       </c>
       <c r="I301" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J301" s="8" t="s">
         <v>99</v>
@@ -13361,7 +13492,7 @@
     </row>
     <row r="302" spans="1:12">
       <c r="A302" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>1</v>
@@ -13381,7 +13512,7 @@
         <v>5</v>
       </c>
       <c r="I302" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J302" s="8" t="s">
         <v>100</v>
@@ -13393,7 +13524,7 @@
     </row>
     <row r="303" spans="1:12">
       <c r="A303" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>1</v>
@@ -13419,7 +13550,7 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>1</v>
@@ -13439,7 +13570,7 @@
         <v>2</v>
       </c>
       <c r="I304" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J304" s="8" t="s">
         <v>99</v>
@@ -13451,7 +13582,7 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>1</v>
@@ -13471,7 +13602,7 @@
         <v>2</v>
       </c>
       <c r="I305" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J305" s="8" t="s">
         <v>100</v>
@@ -13483,7 +13614,7 @@
     </row>
     <row r="306" spans="1:12">
       <c r="A306" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>1</v>
@@ -13509,7 +13640,7 @@
     </row>
     <row r="307" spans="1:12">
       <c r="A307" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>1</v>
@@ -13529,7 +13660,7 @@
         <v>2</v>
       </c>
       <c r="I307" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J307" s="8" t="s">
         <v>99</v>
@@ -13541,7 +13672,7 @@
     </row>
     <row r="308" spans="1:12">
       <c r="A308" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>1</v>
@@ -13561,7 +13692,7 @@
         <v>2</v>
       </c>
       <c r="I308" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J308" s="8" t="s">
         <v>100</v>
@@ -13573,7 +13704,7 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>1</v>
@@ -13599,7 +13730,7 @@
     </row>
     <row r="310" spans="1:12">
       <c r="A310" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>1</v>
@@ -13619,7 +13750,7 @@
         <v>2</v>
       </c>
       <c r="I310" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J310" s="8" t="s">
         <v>99</v>
@@ -13631,7 +13762,7 @@
     </row>
     <row r="311" spans="1:12">
       <c r="A311" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>1</v>
@@ -13651,7 +13782,7 @@
         <v>2</v>
       </c>
       <c r="I311" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J311" s="8" t="s">
         <v>100</v>
@@ -13663,7 +13794,7 @@
     </row>
     <row r="312" spans="1:12">
       <c r="A312" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>1</v>
@@ -13689,7 +13820,7 @@
     </row>
     <row r="313" spans="1:12">
       <c r="A313" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>1</v>
@@ -13709,7 +13840,7 @@
         <v>4</v>
       </c>
       <c r="I313" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J313" s="8" t="s">
         <v>99</v>
@@ -13721,7 +13852,7 @@
     </row>
     <row r="314" spans="1:12">
       <c r="A314" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>1</v>
@@ -13741,7 +13872,7 @@
         <v>4</v>
       </c>
       <c r="I314" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J314" s="8" t="s">
         <v>100</v>
@@ -13753,7 +13884,7 @@
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B315" s="8" t="s">
         <v>1</v>
@@ -13779,7 +13910,7 @@
     </row>
     <row r="316" spans="1:12">
       <c r="A316" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>1</v>
@@ -13799,7 +13930,7 @@
         <v>4</v>
       </c>
       <c r="I316" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J316" s="8" t="s">
         <v>99</v>
@@ -13811,7 +13942,7 @@
     </row>
     <row r="317" spans="1:12">
       <c r="A317" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>1</v>
@@ -13831,7 +13962,7 @@
         <v>4</v>
       </c>
       <c r="I317" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J317" s="8" t="s">
         <v>100</v>
@@ -13843,7 +13974,7 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>1</v>
@@ -13869,7 +14000,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>1</v>
@@ -13889,7 +14020,7 @@
         <v>5</v>
       </c>
       <c r="I319" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J319" s="8" t="s">
         <v>99</v>
@@ -13901,7 +14032,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>1</v>
@@ -13921,7 +14052,7 @@
         <v>5</v>
       </c>
       <c r="I320" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J320" s="8" t="s">
         <v>100</v>
@@ -13933,7 +14064,7 @@
     </row>
     <row r="321" spans="1:12">
       <c r="A321" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>1</v>
@@ -13959,7 +14090,7 @@
     </row>
     <row r="322" spans="1:12">
       <c r="A322" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>1</v>
@@ -13979,7 +14110,7 @@
         <v>4</v>
       </c>
       <c r="I322" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J322" s="8" t="s">
         <v>99</v>
@@ -13991,7 +14122,7 @@
     </row>
     <row r="323" spans="1:12">
       <c r="A323" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>1</v>
@@ -14011,7 +14142,7 @@
         <v>4</v>
       </c>
       <c r="I323" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J323" s="8" t="s">
         <v>100</v>
@@ -14023,7 +14154,7 @@
     </row>
     <row r="324" spans="1:12">
       <c r="A324" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>1</v>
@@ -14049,7 +14180,7 @@
     </row>
     <row r="325" spans="1:12">
       <c r="A325" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B325" s="8" t="s">
         <v>1</v>
@@ -14069,7 +14200,7 @@
         <v>5</v>
       </c>
       <c r="I325" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J325" s="8" t="s">
         <v>99</v>
@@ -14081,7 +14212,7 @@
     </row>
     <row r="326" spans="1:12">
       <c r="A326" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>1</v>
@@ -14101,7 +14232,7 @@
         <v>5</v>
       </c>
       <c r="I326" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J326" s="8" t="s">
         <v>100</v>
@@ -14113,7 +14244,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="A327" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>1</v>
@@ -14133,7 +14264,7 @@
         <v>5</v>
       </c>
       <c r="I327" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J327" s="8" t="s">
         <v>101</v>
@@ -14145,7 +14276,7 @@
     </row>
     <row r="328" spans="1:12">
       <c r="A328" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>1</v>
@@ -14165,7 +14296,7 @@
         <v>5</v>
       </c>
       <c r="I328" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J328" s="8" t="s">
         <v>99</v>
@@ -14177,7 +14308,7 @@
     </row>
     <row r="329" spans="1:12">
       <c r="A329" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>1</v>
@@ -14197,7 +14328,7 @@
         <v>5</v>
       </c>
       <c r="I329" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J329" s="8" t="s">
         <v>100</v>
@@ -14209,7 +14340,7 @@
     </row>
     <row r="330" spans="1:12">
       <c r="A330" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>1</v>
@@ -14235,7 +14366,7 @@
     </row>
     <row r="331" spans="1:12">
       <c r="A331" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>1</v>
@@ -14255,7 +14386,7 @@
         <v>4</v>
       </c>
       <c r="I331" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J331" s="8" t="s">
         <v>99</v>
@@ -14267,7 +14398,7 @@
     </row>
     <row r="332" spans="1:12">
       <c r="A332" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>1</v>
@@ -14287,7 +14418,7 @@
         <v>4</v>
       </c>
       <c r="I332" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J332" s="8" t="s">
         <v>100</v>
@@ -14299,7 +14430,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="A333" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>1</v>
@@ -14319,7 +14450,7 @@
         <v>4</v>
       </c>
       <c r="I333" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J333" s="8" t="s">
         <v>101</v>
@@ -14331,7 +14462,7 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>1</v>
@@ -14351,7 +14482,7 @@
         <v>7</v>
       </c>
       <c r="I334" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J334" s="8" t="s">
         <v>99</v>
@@ -14363,7 +14494,7 @@
     </row>
     <row r="335" spans="1:12">
       <c r="A335" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>1</v>
@@ -14383,7 +14514,7 @@
         <v>7</v>
       </c>
       <c r="I335" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J335" s="8" t="s">
         <v>100</v>
@@ -14395,7 +14526,7 @@
     </row>
     <row r="336" spans="1:12">
       <c r="A336" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>1</v>
@@ -14421,7 +14552,7 @@
     </row>
     <row r="337" spans="1:12">
       <c r="A337" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>1</v>
@@ -14441,7 +14572,7 @@
         <v>4</v>
       </c>
       <c r="I337" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J337" s="8" t="s">
         <v>99</v>
@@ -14453,7 +14584,7 @@
     </row>
     <row r="338" spans="1:12">
       <c r="A338" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>1</v>
@@ -14473,7 +14604,7 @@
         <v>4</v>
       </c>
       <c r="I338" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J338" s="8" t="s">
         <v>100</v>
@@ -14485,7 +14616,7 @@
     </row>
     <row r="339" spans="1:12">
       <c r="A339" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>1</v>
@@ -14505,7 +14636,7 @@
         <v>4</v>
       </c>
       <c r="I339" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J339" s="8" t="s">
         <v>101</v>
@@ -14517,7 +14648,7 @@
     </row>
     <row r="340" spans="1:12">
       <c r="A340" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>1</v>
@@ -14537,7 +14668,7 @@
         <v>2</v>
       </c>
       <c r="I340" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J340" s="8" t="s">
         <v>99</v>
@@ -14549,7 +14680,7 @@
     </row>
     <row r="341" spans="1:12">
       <c r="A341" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>1</v>
@@ -14575,7 +14706,7 @@
     </row>
     <row r="342" spans="1:12">
       <c r="A342" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>1</v>
@@ -14601,7 +14732,7 @@
     </row>
     <row r="343" spans="1:12">
       <c r="A343" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>1</v>
@@ -14621,7 +14752,7 @@
         <v>2</v>
       </c>
       <c r="I343" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J343" s="8" t="s">
         <v>99</v>
@@ -14633,7 +14764,7 @@
     </row>
     <row r="344" spans="1:12">
       <c r="A344" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>1</v>
@@ -14659,7 +14790,7 @@
     </row>
     <row r="345" spans="1:12">
       <c r="A345" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>1</v>
@@ -14685,7 +14816,7 @@
     </row>
     <row r="346" spans="1:12">
       <c r="A346" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>1</v>
@@ -14705,7 +14836,7 @@
         <v>5</v>
       </c>
       <c r="I346" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J346" s="8" t="s">
         <v>99</v>
@@ -14717,7 +14848,7 @@
     </row>
     <row r="347" spans="1:12">
       <c r="A347" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>1</v>
@@ -14743,7 +14874,7 @@
     </row>
     <row r="348" spans="1:12">
       <c r="A348" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>1</v>
@@ -14769,7 +14900,7 @@
     </row>
     <row r="349" spans="1:12">
       <c r="A349" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>1</v>
@@ -14789,7 +14920,7 @@
         <v>2</v>
       </c>
       <c r="I349" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J349" s="8" t="s">
         <v>99</v>
@@ -14801,7 +14932,7 @@
     </row>
     <row r="350" spans="1:12">
       <c r="A350" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>1</v>
@@ -14827,7 +14958,7 @@
     </row>
     <row r="351" spans="1:12">
       <c r="A351" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>1</v>
@@ -14853,7 +14984,7 @@
     </row>
     <row r="352" spans="1:12">
       <c r="A352" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>1</v>
@@ -14873,7 +15004,7 @@
         <v>2</v>
       </c>
       <c r="I352" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J352" s="8" t="s">
         <v>99</v>
@@ -14885,7 +15016,7 @@
     </row>
     <row r="353" spans="1:12">
       <c r="A353" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>1</v>
@@ -14911,7 +15042,7 @@
     </row>
     <row r="354" spans="1:12">
       <c r="A354" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>1</v>
@@ -14937,7 +15068,7 @@
     </row>
     <row r="355" spans="1:12">
       <c r="A355" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>1</v>
@@ -14957,7 +15088,7 @@
         <v>4</v>
       </c>
       <c r="I355" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J355" s="8" t="s">
         <v>99</v>
@@ -14969,7 +15100,7 @@
     </row>
     <row r="356" spans="1:12">
       <c r="A356" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>1</v>
@@ -14995,7 +15126,7 @@
     </row>
     <row r="357" spans="1:12">
       <c r="A357" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>1</v>
@@ -15021,7 +15152,7 @@
     </row>
     <row r="358" spans="1:12">
       <c r="A358" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>1</v>
@@ -15041,7 +15172,7 @@
         <v>5</v>
       </c>
       <c r="I358" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J358" s="8" t="s">
         <v>99</v>
@@ -15053,7 +15184,7 @@
     </row>
     <row r="359" spans="1:12">
       <c r="A359" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>1</v>
@@ -15073,7 +15204,7 @@
         <v>5</v>
       </c>
       <c r="I359" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J359" s="8" t="s">
         <v>100</v>
@@ -15085,7 +15216,7 @@
     </row>
     <row r="360" spans="1:12">
       <c r="A360" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B360" s="8" t="s">
         <v>1</v>
@@ -15105,7 +15236,7 @@
         <v>5</v>
       </c>
       <c r="I360" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J360" s="8" t="s">
         <v>101</v>
@@ -15117,7 +15248,7 @@
     </row>
     <row r="361" spans="1:12">
       <c r="A361" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>1</v>
@@ -15137,7 +15268,7 @@
         <v>3</v>
       </c>
       <c r="I361" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J361" s="8" t="s">
         <v>99</v>
@@ -15149,7 +15280,7 @@
     </row>
     <row r="362" spans="1:12">
       <c r="A362" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>1</v>
@@ -15169,7 +15300,7 @@
         <v>3</v>
       </c>
       <c r="I362" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J362" s="8" t="s">
         <v>100</v>
@@ -15181,7 +15312,7 @@
     </row>
     <row r="363" spans="1:12">
       <c r="A363" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>1</v>
@@ -15201,7 +15332,7 @@
         <v>3</v>
       </c>
       <c r="I363" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J363" s="8" t="s">
         <v>101</v>
@@ -15213,7 +15344,7 @@
     </row>
     <row r="364" spans="1:12">
       <c r="A364" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>1</v>
@@ -15233,7 +15364,7 @@
         <v>3</v>
       </c>
       <c r="I364" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J364" s="8" t="s">
         <v>99</v>
@@ -15245,7 +15376,7 @@
     </row>
     <row r="365" spans="1:12">
       <c r="A365" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>1</v>
@@ -15265,7 +15396,7 @@
         <v>3</v>
       </c>
       <c r="I365" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J365" s="8" t="s">
         <v>100</v>
@@ -15277,7 +15408,7 @@
     </row>
     <row r="366" spans="1:12">
       <c r="A366" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>1</v>
@@ -15297,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="I366" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J366" s="8" t="s">
         <v>101</v>
@@ -15309,7 +15440,7 @@
     </row>
     <row r="367" spans="1:12">
       <c r="A367" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>1</v>
@@ -15329,7 +15460,7 @@
         <v>2</v>
       </c>
       <c r="I367" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J367" s="8" t="s">
         <v>99</v>
@@ -15341,7 +15472,7 @@
     </row>
     <row r="368" spans="1:12">
       <c r="A368" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>1</v>
@@ -15367,7 +15498,7 @@
     </row>
     <row r="369" spans="1:12">
       <c r="A369" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>1</v>
@@ -15393,7 +15524,7 @@
     </row>
     <row r="370" spans="1:12">
       <c r="A370" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>1</v>
@@ -15413,7 +15544,7 @@
         <v>5</v>
       </c>
       <c r="I370" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J370" s="8" t="s">
         <v>99</v>
@@ -15425,7 +15556,7 @@
     </row>
     <row r="371" spans="1:12">
       <c r="A371" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>1</v>
@@ -15445,7 +15576,7 @@
         <v>5</v>
       </c>
       <c r="I371" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J371" s="8" t="s">
         <v>100</v>
@@ -15457,7 +15588,7 @@
     </row>
     <row r="372" spans="1:12">
       <c r="A372" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>1</v>
@@ -15483,7 +15614,7 @@
     </row>
     <row r="373" spans="1:12">
       <c r="A373" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B373" s="8" t="s">
         <v>1</v>
@@ -15503,7 +15634,7 @@
         <v>5</v>
       </c>
       <c r="I373" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J373" s="8" t="s">
         <v>99</v>
@@ -15515,7 +15646,7 @@
     </row>
     <row r="374" spans="1:12">
       <c r="A374" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>1</v>
@@ -15535,7 +15666,7 @@
         <v>5</v>
       </c>
       <c r="I374" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J374" s="8" t="s">
         <v>100</v>
@@ -15547,7 +15678,7 @@
     </row>
     <row r="375" spans="1:12">
       <c r="A375" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>1</v>
@@ -15573,7 +15704,7 @@
     </row>
     <row r="376" spans="1:12">
       <c r="A376" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>1</v>
@@ -15593,7 +15724,7 @@
         <v>5</v>
       </c>
       <c r="I376" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J376" s="8" t="s">
         <v>99</v>
@@ -15605,7 +15736,7 @@
     </row>
     <row r="377" spans="1:12">
       <c r="A377" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>1</v>
@@ -15625,7 +15756,7 @@
         <v>5</v>
       </c>
       <c r="I377" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J377" s="8" t="s">
         <v>100</v>
@@ -15637,7 +15768,7 @@
     </row>
     <row r="378" spans="1:12">
       <c r="A378" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>1</v>
@@ -15663,7 +15794,7 @@
     </row>
     <row r="379" spans="1:12">
       <c r="A379" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>1</v>
@@ -15683,7 +15814,7 @@
         <v>5</v>
       </c>
       <c r="I379" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J379" s="8" t="s">
         <v>99</v>
@@ -15695,7 +15826,7 @@
     </row>
     <row r="380" spans="1:12">
       <c r="A380" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>1</v>
@@ -15715,7 +15846,7 @@
         <v>5</v>
       </c>
       <c r="I380" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J380" s="8" t="s">
         <v>100</v>
@@ -15727,7 +15858,7 @@
     </row>
     <row r="381" spans="1:12">
       <c r="A381" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>1</v>
@@ -15753,7 +15884,7 @@
     </row>
     <row r="382" spans="1:12">
       <c r="A382" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>1</v>
@@ -15773,7 +15904,7 @@
         <v>2</v>
       </c>
       <c r="I382" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J382" s="8" t="s">
         <v>99</v>
@@ -15785,7 +15916,7 @@
     </row>
     <row r="383" spans="1:12">
       <c r="A383" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>1</v>
@@ -15811,7 +15942,7 @@
     </row>
     <row r="384" spans="1:12">
       <c r="A384" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>1</v>
@@ -15837,7 +15968,7 @@
     </row>
     <row r="385" spans="1:12">
       <c r="A385" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>1</v>
@@ -15857,7 +15988,7 @@
         <v>3</v>
       </c>
       <c r="I385" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J385" s="8" t="s">
         <v>99</v>
@@ -15869,7 +16000,7 @@
     </row>
     <row r="386" spans="1:12">
       <c r="A386" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>1</v>
@@ -15895,7 +16026,7 @@
     </row>
     <row r="387" spans="1:12">
       <c r="A387" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B387" s="8" t="s">
         <v>1</v>
@@ -15921,7 +16052,7 @@
     </row>
     <row r="388" spans="1:12">
       <c r="A388" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>1</v>
@@ -15941,7 +16072,7 @@
         <v>2</v>
       </c>
       <c r="I388" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J388" s="8" t="s">
         <v>99</v>
@@ -15953,7 +16084,7 @@
     </row>
     <row r="389" spans="1:12">
       <c r="A389" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B389" s="8" t="s">
         <v>1</v>
@@ -15979,7 +16110,7 @@
     </row>
     <row r="390" spans="1:12">
       <c r="A390" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B390" s="8" t="s">
         <v>1</v>
@@ -16005,7 +16136,7 @@
     </row>
     <row r="391" spans="1:12">
       <c r="A391" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>1</v>
@@ -16025,7 +16156,7 @@
         <v>3</v>
       </c>
       <c r="I391" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J391" s="8" t="s">
         <v>99</v>
@@ -16037,7 +16168,7 @@
     </row>
     <row r="392" spans="1:12">
       <c r="A392" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>1</v>
@@ -16063,7 +16194,7 @@
     </row>
     <row r="393" spans="1:12">
       <c r="A393" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B393" s="8" t="s">
         <v>1</v>
@@ -16089,7 +16220,7 @@
     </row>
     <row r="394" spans="1:12">
       <c r="A394" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>1</v>
@@ -16109,7 +16240,7 @@
         <v>2</v>
       </c>
       <c r="I394" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J394" s="8" t="s">
         <v>99</v>
@@ -16121,7 +16252,7 @@
     </row>
     <row r="395" spans="1:12">
       <c r="A395" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>1</v>
@@ -16147,7 +16278,7 @@
     </row>
     <row r="396" spans="1:12">
       <c r="A396" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>1</v>
@@ -16173,7 +16304,7 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B397" s="8" t="s">
         <v>1</v>
@@ -16193,7 +16324,7 @@
         <v>2</v>
       </c>
       <c r="I397" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J397" s="8" t="s">
         <v>99</v>
@@ -16205,7 +16336,7 @@
     </row>
     <row r="398" spans="1:12">
       <c r="A398" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>1</v>
@@ -16225,7 +16356,7 @@
         <v>2</v>
       </c>
       <c r="I398" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J398" s="8" t="s">
         <v>100</v>
@@ -16237,7 +16368,7 @@
     </row>
     <row r="399" spans="1:12">
       <c r="A399" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>1</v>
@@ -16263,7 +16394,7 @@
     </row>
     <row r="400" spans="1:12">
       <c r="A400" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B400" s="8" t="s">
         <v>1</v>
@@ -16283,7 +16414,7 @@
         <v>4</v>
       </c>
       <c r="I400" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J400" s="8" t="s">
         <v>99</v>
@@ -16295,7 +16426,7 @@
     </row>
     <row r="401" spans="1:12">
       <c r="A401" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>1</v>
@@ -16315,7 +16446,7 @@
         <v>4</v>
       </c>
       <c r="I401" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J401" s="8" t="s">
         <v>100</v>
@@ -16327,7 +16458,7 @@
     </row>
     <row r="402" spans="1:12">
       <c r="A402" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>1</v>
@@ -16353,7 +16484,7 @@
     </row>
     <row r="403" spans="1:12">
       <c r="A403" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B403" s="8" t="s">
         <v>1</v>
@@ -16373,7 +16504,7 @@
         <v>2</v>
       </c>
       <c r="I403" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J403" s="8" t="s">
         <v>99</v>
@@ -16385,7 +16516,7 @@
     </row>
     <row r="404" spans="1:12">
       <c r="A404" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B404" s="8" t="s">
         <v>1</v>
@@ -16411,7 +16542,7 @@
     </row>
     <row r="405" spans="1:12">
       <c r="A405" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>1</v>
@@ -16437,7 +16568,7 @@
     </row>
     <row r="406" spans="1:12">
       <c r="A406" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>1</v>
@@ -16457,7 +16588,7 @@
         <v>2</v>
       </c>
       <c r="I406" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J406" s="8" t="s">
         <v>99</v>
@@ -16469,7 +16600,7 @@
     </row>
     <row r="407" spans="1:12">
       <c r="A407" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B407" s="8" t="s">
         <v>1</v>
@@ -16495,7 +16626,7 @@
     </row>
     <row r="408" spans="1:12">
       <c r="A408" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B408" s="8" t="s">
         <v>1</v>
@@ -16521,7 +16652,7 @@
     </row>
     <row r="409" spans="1:12">
       <c r="A409" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B409" s="8" t="s">
         <v>1</v>
@@ -16541,7 +16672,7 @@
         <v>3</v>
       </c>
       <c r="I409" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J409" s="8" t="s">
         <v>99</v>
@@ -16553,7 +16684,7 @@
     </row>
     <row r="410" spans="1:12">
       <c r="A410" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B410" s="8" t="s">
         <v>1</v>
@@ -16579,7 +16710,7 @@
     </row>
     <row r="411" spans="1:12">
       <c r="A411" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B411" s="8" t="s">
         <v>1</v>
@@ -16605,7 +16736,7 @@
     </row>
     <row r="412" spans="1:12">
       <c r="A412" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B412" s="8" t="s">
         <v>1</v>
@@ -16625,7 +16756,7 @@
         <v>5</v>
       </c>
       <c r="I412" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J412" s="8" t="s">
         <v>99</v>
@@ -16637,7 +16768,7 @@
     </row>
     <row r="413" spans="1:12">
       <c r="A413" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B413" s="8" t="s">
         <v>1</v>
@@ -16663,7 +16794,7 @@
     </row>
     <row r="414" spans="1:12">
       <c r="A414" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>1</v>
@@ -16689,7 +16820,7 @@
     </row>
     <row r="415" spans="1:12">
       <c r="A415" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B415" s="8" t="s">
         <v>1</v>
@@ -16709,7 +16840,7 @@
         <v>4</v>
       </c>
       <c r="I415" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J415" s="8" t="s">
         <v>99</v>
@@ -16721,7 +16852,7 @@
     </row>
     <row r="416" spans="1:12">
       <c r="A416" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B416" s="8" t="s">
         <v>1</v>
@@ -16747,7 +16878,7 @@
     </row>
     <row r="417" spans="1:12">
       <c r="A417" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>1</v>
@@ -16773,7 +16904,7 @@
     </row>
     <row r="418" spans="1:12">
       <c r="A418" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B418" s="8" t="s">
         <v>1</v>
@@ -16793,7 +16924,7 @@
         <v>5</v>
       </c>
       <c r="I418" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J418" s="8" t="s">
         <v>99</v>
@@ -16805,7 +16936,7 @@
     </row>
     <row r="419" spans="1:12">
       <c r="A419" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B419" s="8" t="s">
         <v>1</v>
@@ -16831,7 +16962,7 @@
     </row>
     <row r="420" spans="1:12">
       <c r="A420" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B420" s="8" t="s">
         <v>1</v>
@@ -16857,7 +16988,7 @@
     </row>
     <row r="421" spans="1:12">
       <c r="A421" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B421" s="8" t="s">
         <v>1</v>
@@ -16877,7 +17008,7 @@
         <v>4</v>
       </c>
       <c r="I421" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J421" s="8" t="s">
         <v>99</v>
@@ -16889,7 +17020,7 @@
     </row>
     <row r="422" spans="1:12">
       <c r="A422" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B422" s="8" t="s">
         <v>1</v>
@@ -16915,7 +17046,7 @@
     </row>
     <row r="423" spans="1:12">
       <c r="A423" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>1</v>
@@ -16941,7 +17072,7 @@
     </row>
     <row r="424" spans="1:12">
       <c r="A424" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>1</v>
@@ -16961,7 +17092,7 @@
         <v>3</v>
       </c>
       <c r="I424" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J424" s="8" t="s">
         <v>99</v>
@@ -16973,7 +17104,7 @@
     </row>
     <row r="425" spans="1:12">
       <c r="A425" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B425" s="8" t="s">
         <v>1</v>
@@ -16999,7 +17130,7 @@
     </row>
     <row r="426" spans="1:12">
       <c r="A426" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B426" s="8" t="s">
         <v>1</v>
@@ -17025,7 +17156,7 @@
     </row>
     <row r="427" spans="1:12">
       <c r="A427" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B427" s="8" t="s">
         <v>1</v>
@@ -17045,7 +17176,7 @@
         <v>3</v>
       </c>
       <c r="I427" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J427" s="8" t="s">
         <v>99</v>
@@ -17057,7 +17188,7 @@
     </row>
     <row r="428" spans="1:12">
       <c r="A428" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B428" s="8" t="s">
         <v>1</v>
@@ -17083,7 +17214,7 @@
     </row>
     <row r="429" spans="1:12">
       <c r="A429" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B429" s="8" t="s">
         <v>1</v>
@@ -17109,7 +17240,7 @@
     </row>
     <row r="430" spans="1:12">
       <c r="A430" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B430" s="8" t="s">
         <v>1</v>
@@ -17129,7 +17260,7 @@
         <v>2</v>
       </c>
       <c r="I430" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J430" s="8" t="s">
         <v>99</v>
@@ -17141,7 +17272,7 @@
     </row>
     <row r="431" spans="1:12">
       <c r="A431" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B431" s="8" t="s">
         <v>1</v>
@@ -17167,7 +17298,7 @@
     </row>
     <row r="432" spans="1:12">
       <c r="A432" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B432" s="8" t="s">
         <v>1</v>
@@ -17193,7 +17324,7 @@
     </row>
     <row r="433" spans="1:12">
       <c r="A433" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B433" s="8" t="s">
         <v>1</v>
@@ -17219,7 +17350,7 @@
     </row>
     <row r="434" spans="1:12">
       <c r="A434" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B434" s="8" t="s">
         <v>1</v>
@@ -17245,7 +17376,7 @@
     </row>
     <row r="435" spans="1:12">
       <c r="A435" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B435" s="8" t="s">
         <v>1</v>
@@ -17271,7 +17402,7 @@
     </row>
     <row r="436" spans="1:12">
       <c r="A436" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B436" s="8" t="s">
         <v>1</v>

--- a/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
+++ b/etc/ap242/AP242ed2_CR11_WG_Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1180" yWindow="-20000" windowWidth="28640" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28640" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="klt" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <author>Kevin Le Tutour</author>
   </authors>
   <commentList>
-    <comment ref="L2" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="524">
   <si>
     <t>N8573</t>
   </si>
@@ -1444,12 +1444,6 @@
     <t>packaged_part_black_box_model</t>
   </si>
   <si>
-    <t>packaged_connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">package </t>
-  </si>
-  <si>
     <t>non_feature_shape_element</t>
   </si>
   <si>
@@ -1610,6 +1604,27 @@
   </si>
   <si>
     <t>geometric_constraints</t>
+  </si>
+  <si>
+    <t>WG12 nb</t>
+  </si>
+  <si>
+    <t>Edition</t>
+  </si>
+  <si>
+    <t>Element type</t>
+  </si>
+  <si>
+    <t>wg updated in stepmod?</t>
+  </si>
+  <si>
+    <t>Module name</t>
+  </si>
+  <si>
+    <t>packaged_connector_model</t>
+  </si>
+  <si>
+    <t>package</t>
   </si>
 </sst>
 </file>
@@ -1683,8 +1698,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="707">
+  <cellStyleXfs count="713">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2410,7 +2431,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="707">
+  <cellStyles count="713">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2764,6 +2785,9 @@
     <cellStyle name="Lien hypertexte" xfId="701" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="703" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="711" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -3117,6 +3141,9 @@
     <cellStyle name="Lien hypertexte visité" xfId="702" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="704" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="712" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3446,57 +3473,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L344"/>
+  <dimension ref="A1:L345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="H300" sqref="H300"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="1.5" customWidth="1"/>
-    <col min="4" max="4" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="66.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1831</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="4">
-        <v>42248</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>167</v>
+      <c r="A1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J1" t="s">
+        <v>519</v>
+      </c>
+      <c r="L1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3507,16 +3517,16 @@
         <v>97</v>
       </c>
       <c r="F2" s="1">
-        <v>1514</v>
+        <v>1831</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>99</v>
@@ -3530,7 +3540,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -3541,19 +3551,19 @@
         <v>97</v>
       </c>
       <c r="F3" s="1">
-        <v>1831</v>
+        <v>1514</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K3" s="4">
         <v>42248</v>
@@ -3564,7 +3574,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -3587,7 +3597,7 @@
         <v>156</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4" s="4">
         <v>42248</v>
@@ -3598,7 +3608,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -3609,19 +3619,19 @@
         <v>97</v>
       </c>
       <c r="F5" s="1">
-        <v>1601</v>
+        <v>1831</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="H5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="4">
         <v>42248</v>
@@ -3632,7 +3642,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -3643,7 +3653,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="1">
-        <v>1765</v>
+        <v>1601</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>98</v>
@@ -3652,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>99</v>
@@ -3660,11 +3670,13 @@
       <c r="K6" s="4">
         <v>42248</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -3687,7 +3699,7 @@
         <v>177</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K7" s="4">
         <v>42248</v>
@@ -3696,7 +3708,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -3707,30 +3719,28 @@
         <v>97</v>
       </c>
       <c r="F8" s="1">
-        <v>409</v>
+        <v>1765</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" s="4">
         <v>42248</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -3753,7 +3763,7 @@
         <v>140</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K9" s="4">
         <v>42248</v>
@@ -3764,7 +3774,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -3787,7 +3797,7 @@
         <v>140</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K10" s="4">
         <v>42248</v>
@@ -3798,7 +3808,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -3821,7 +3831,7 @@
         <v>140</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="K11" s="4">
         <v>42248</v>
@@ -3832,7 +3842,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -3855,7 +3865,7 @@
         <v>140</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" s="4">
         <v>42248</v>
@@ -3866,7 +3876,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -3877,19 +3887,19 @@
         <v>97</v>
       </c>
       <c r="F13" s="1">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="K13" s="4">
         <v>42248</v>
@@ -3900,7 +3910,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -3923,7 +3933,7 @@
         <v>143</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K14" s="4">
         <v>42248</v>
@@ -3934,7 +3944,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -3957,7 +3967,7 @@
         <v>143</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" s="4">
         <v>42248</v>
@@ -3968,7 +3978,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -3991,7 +4001,7 @@
         <v>143</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="K16" s="4">
         <v>42248</v>
@@ -4002,7 +4012,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -4016,7 +4026,7 @@
         <v>410</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="H17" s="1">
         <v>4</v>
@@ -4025,7 +4035,7 @@
         <v>143</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" s="4">
         <v>42248</v>
@@ -4036,7 +4046,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -4047,19 +4057,19 @@
         <v>97</v>
       </c>
       <c r="F18" s="1">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>144</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="K18" s="4">
         <v>42248</v>
@@ -4070,7 +4080,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -4093,7 +4103,7 @@
         <v>146</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="4">
         <v>42248</v>
@@ -4104,7 +4114,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -4127,7 +4137,7 @@
         <v>146</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" s="4">
         <v>42248</v>
@@ -4138,7 +4148,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -4161,7 +4171,7 @@
         <v>146</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="K21" s="4">
         <v>42248</v>
@@ -4172,7 +4182,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -4195,7 +4205,7 @@
         <v>146</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K22" s="4">
         <v>42248</v>
@@ -4206,7 +4216,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -4217,19 +4227,19 @@
         <v>97</v>
       </c>
       <c r="F23" s="1">
-        <v>1012</v>
+        <v>442</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="H23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="K23" s="4">
         <v>42248</v>
@@ -4240,7 +4250,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
@@ -4251,7 +4261,7 @@
         <v>97</v>
       </c>
       <c r="F24" s="1">
-        <v>43</v>
+        <v>1012</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>98</v>
@@ -4260,7 +4270,7 @@
         <v>4</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>99</v>
@@ -4274,7 +4284,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -4297,7 +4307,7 @@
         <v>148</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="K25" s="4">
         <v>42248</v>
@@ -4308,7 +4318,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -4319,19 +4329,19 @@
         <v>97</v>
       </c>
       <c r="F26" s="1">
-        <v>1802</v>
+        <v>43</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="K26" s="4">
         <v>42248</v>
@@ -4342,7 +4352,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -4365,7 +4375,7 @@
         <v>151</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K27" s="4">
         <v>42248</v>
@@ -4376,7 +4386,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -4387,19 +4397,19 @@
         <v>97</v>
       </c>
       <c r="F28" s="1">
-        <v>1634</v>
+        <v>1802</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K28" s="4">
         <v>42248</v>
@@ -4410,7 +4420,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -4433,7 +4443,7 @@
         <v>150</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K29" s="4">
         <v>42248</v>
@@ -4444,7 +4454,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -4467,7 +4477,7 @@
         <v>150</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30" s="4">
         <v>42248</v>
@@ -4478,7 +4488,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -4489,19 +4499,19 @@
         <v>97</v>
       </c>
       <c r="F31" s="1">
-        <v>1795</v>
+        <v>1634</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H31" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K31" s="4">
         <v>42248</v>
@@ -4512,7 +4522,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
@@ -4523,7 +4533,7 @@
         <v>97</v>
       </c>
       <c r="F32" s="1">
-        <v>1635</v>
+        <v>1795</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>98</v>
@@ -4532,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>99</v>
@@ -4546,7 +4556,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -4569,7 +4579,7 @@
         <v>154</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K33" s="4">
         <v>42248</v>
@@ -4580,7 +4590,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -4603,7 +4613,7 @@
         <v>154</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" s="4">
         <v>42248</v>
@@ -4614,7 +4624,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -4625,19 +4635,19 @@
         <v>97</v>
       </c>
       <c r="F35" s="1">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H35" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K35" s="4">
         <v>42248</v>
@@ -4648,7 +4658,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
@@ -4671,7 +4681,7 @@
         <v>153</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K36" s="4">
         <v>42248</v>
@@ -4682,7 +4692,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
@@ -4705,7 +4715,7 @@
         <v>153</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K37" s="4">
         <v>42248</v>
@@ -4716,7 +4726,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
@@ -4727,7 +4737,7 @@
         <v>97</v>
       </c>
       <c r="F38" s="1">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>98</v>
@@ -4736,10 +4746,10 @@
         <v>5</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K38" s="4">
         <v>42248</v>
@@ -4750,7 +4760,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
@@ -4773,7 +4783,7 @@
         <v>155</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K39" s="4">
         <v>42248</v>
@@ -4784,7 +4794,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
@@ -4807,7 +4817,7 @@
         <v>155</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K40" s="4">
         <v>42248</v>
@@ -4818,7 +4828,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1</v>
@@ -4829,19 +4839,19 @@
         <v>97</v>
       </c>
       <c r="F41" s="1">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K41" s="4">
         <v>42248</v>
@@ -4852,7 +4862,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -4875,7 +4885,7 @@
         <v>159</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K42" s="4">
         <v>42248</v>
@@ -4886,7 +4896,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -4909,7 +4919,7 @@
         <v>159</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K43" s="4">
         <v>42248</v>
@@ -4920,7 +4930,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -4931,7 +4941,7 @@
         <v>97</v>
       </c>
       <c r="F44" s="1">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>98</v>
@@ -4940,10 +4950,10 @@
         <v>4</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K44" s="4">
         <v>42248</v>
@@ -4954,7 +4964,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
@@ -4977,7 +4987,7 @@
         <v>160</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K45" s="4">
         <v>42248</v>
@@ -4988,7 +4998,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -5011,7 +5021,7 @@
         <v>160</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K46" s="4">
         <v>42248</v>
@@ -5022,7 +5032,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
@@ -5033,7 +5043,7 @@
         <v>97</v>
       </c>
       <c r="F47" s="1">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>98</v>
@@ -5042,10 +5052,10 @@
         <v>4</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K47" s="4">
         <v>42248</v>
@@ -5056,7 +5066,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -5079,7 +5089,7 @@
         <v>161</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K48" s="4">
         <v>42248</v>
@@ -5090,7 +5100,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -5113,7 +5123,7 @@
         <v>161</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K49" s="4">
         <v>42248</v>
@@ -5124,7 +5134,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
@@ -5135,19 +5145,19 @@
         <v>97</v>
       </c>
       <c r="F50" s="1">
-        <v>1638</v>
+        <v>1645</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K50" s="4">
         <v>42248</v>
@@ -5158,7 +5168,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -5169,7 +5179,7 @@
         <v>97</v>
       </c>
       <c r="F51" s="1">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>98</v>
@@ -5178,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>99</v>
@@ -5192,7 +5202,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
@@ -5203,16 +5213,16 @@
         <v>97</v>
       </c>
       <c r="F52" s="1">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H52" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>99</v>
@@ -5226,7 +5236,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
@@ -5249,7 +5259,7 @@
         <v>164</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K53" s="4">
         <v>42248</v>
@@ -5260,7 +5270,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1</v>
@@ -5283,7 +5293,7 @@
         <v>164</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K54" s="4">
         <v>42248</v>
@@ -5294,7 +5304,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -5305,7 +5315,7 @@
         <v>97</v>
       </c>
       <c r="F55" s="1">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>98</v>
@@ -5314,10 +5324,10 @@
         <v>4</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K55" s="4">
         <v>42248</v>
@@ -5328,7 +5338,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
@@ -5351,7 +5361,7 @@
         <v>165</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K56" s="4">
         <v>42248</v>
@@ -5362,7 +5372,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>1</v>
@@ -5385,7 +5395,7 @@
         <v>165</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K57" s="4">
         <v>42248</v>
@@ -5396,7 +5406,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>1</v>
@@ -5407,7 +5417,7 @@
         <v>97</v>
       </c>
       <c r="F58" s="1">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>98</v>
@@ -5416,19 +5426,21 @@
         <v>4</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>414</v>
+        <v>165</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K58" s="4">
         <v>42248</v>
       </c>
-      <c r="L58" s="1"/>
+      <c r="L58" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -5451,7 +5463,7 @@
         <v>414</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K59" s="4">
         <v>42248</v>
@@ -5460,7 +5472,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>1</v>
@@ -5483,7 +5495,7 @@
         <v>414</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K60" s="4">
         <v>42248</v>
@@ -5492,7 +5504,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
@@ -5503,30 +5515,28 @@
         <v>97</v>
       </c>
       <c r="F61" s="1">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H61" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K61" s="4">
         <v>42248</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -5549,7 +5559,7 @@
         <v>166</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K62" s="4">
         <v>42248</v>
@@ -5560,7 +5570,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -5583,7 +5593,7 @@
         <v>166</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K63" s="4">
         <v>42248</v>
@@ -5594,7 +5604,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1</v>
@@ -5605,28 +5615,30 @@
         <v>97</v>
       </c>
       <c r="F64" s="1">
-        <v>1808</v>
+        <v>1649</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H64" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K64" s="4">
         <v>42248</v>
       </c>
-      <c r="L64" s="1"/>
+      <c r="L64" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
@@ -5649,7 +5661,7 @@
         <v>168</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K65" s="4">
         <v>42248</v>
@@ -5658,7 +5670,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -5669,19 +5681,19 @@
         <v>97</v>
       </c>
       <c r="F66" s="1">
-        <v>1026</v>
+        <v>1808</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H66" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K66" s="4">
         <v>42248</v>
@@ -5690,7 +5702,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -5713,7 +5725,7 @@
         <v>169</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K67" s="4">
         <v>42248</v>
@@ -5722,7 +5734,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1</v>
@@ -5733,19 +5745,19 @@
         <v>97</v>
       </c>
       <c r="F68" s="1">
-        <v>1311</v>
+        <v>1026</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H68" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K68" s="4">
         <v>42248</v>
@@ -5754,7 +5766,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
@@ -5777,7 +5789,7 @@
         <v>170</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K69" s="4">
         <v>42248</v>
@@ -5786,7 +5798,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
@@ -5797,7 +5809,7 @@
         <v>97</v>
       </c>
       <c r="F70" s="1">
-        <v>1650</v>
+        <v>1311</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>98</v>
@@ -5806,10 +5818,10 @@
         <v>5</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K70" s="4">
         <v>42248</v>
@@ -5818,7 +5830,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1</v>
@@ -5841,7 +5853,7 @@
         <v>171</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K71" s="4">
         <v>42248</v>
@@ -5850,7 +5862,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1</v>
@@ -5861,19 +5873,19 @@
         <v>97</v>
       </c>
       <c r="F72" s="1">
-        <v>1323</v>
+        <v>1650</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H72" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K72" s="4">
         <v>42248</v>
@@ -5882,7 +5894,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -5893,16 +5905,16 @@
         <v>97</v>
       </c>
       <c r="F73" s="1">
-        <v>1652</v>
+        <v>1323</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H73" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>99</v>
@@ -5914,7 +5926,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -5925,16 +5937,16 @@
         <v>97</v>
       </c>
       <c r="F74" s="1">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H74" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>99</v>
@@ -5946,7 +5958,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1</v>
@@ -5969,7 +5981,7 @@
         <v>174</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K75" s="4">
         <v>42248</v>
@@ -5978,7 +5990,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1</v>
@@ -6001,7 +6013,7 @@
         <v>174</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K76" s="4">
         <v>42248</v>
@@ -6010,7 +6022,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -6021,19 +6033,19 @@
         <v>97</v>
       </c>
       <c r="F77" s="1">
-        <v>1824</v>
+        <v>1653</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H77" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K77" s="4">
         <v>42248</v>
@@ -6042,7 +6054,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1</v>
@@ -6053,16 +6065,16 @@
         <v>97</v>
       </c>
       <c r="F78" s="1">
-        <v>1654</v>
+        <v>1824</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H78" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>99</v>
@@ -6074,7 +6086,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1</v>
@@ -6097,7 +6109,7 @@
         <v>176</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K79" s="4">
         <v>42248</v>
@@ -6106,7 +6118,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1</v>
@@ -6129,7 +6141,7 @@
         <v>176</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K80" s="4">
         <v>42248</v>
@@ -6138,7 +6150,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>1</v>
@@ -6149,19 +6161,19 @@
         <v>97</v>
       </c>
       <c r="F81" s="1">
-        <v>1111</v>
+        <v>1654</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="H81" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K81" s="4">
         <v>42248</v>
@@ -6170,7 +6182,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>1</v>
@@ -6193,7 +6205,7 @@
         <v>178</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K82" s="4">
         <v>42248</v>
@@ -6202,7 +6214,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>1</v>
@@ -6213,19 +6225,19 @@
         <v>97</v>
       </c>
       <c r="F83" s="1">
-        <v>1657</v>
+        <v>1111</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="H83" s="1">
         <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K83" s="4">
         <v>42248</v>
@@ -6234,7 +6246,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1</v>
@@ -6257,7 +6269,7 @@
         <v>179</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K84" s="4">
         <v>42248</v>
@@ -6266,7 +6278,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1</v>
@@ -6277,7 +6289,7 @@
         <v>97</v>
       </c>
       <c r="F85" s="1">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>98</v>
@@ -6286,10 +6298,10 @@
         <v>5</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K85" s="4">
         <v>42248</v>
@@ -6298,7 +6310,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>1</v>
@@ -6309,16 +6321,16 @@
         <v>97</v>
       </c>
       <c r="F86" s="1">
-        <v>1767</v>
+        <v>1656</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H86" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>99</v>
@@ -6330,7 +6342,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>1</v>
@@ -6353,7 +6365,7 @@
         <v>202</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K87" s="4">
         <v>42248</v>
@@ -6362,7 +6374,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>1</v>
@@ -6373,19 +6385,19 @@
         <v>97</v>
       </c>
       <c r="F88" s="1">
-        <v>1525</v>
+        <v>1767</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H88" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K88" s="4">
         <v>42248</v>
@@ -6394,7 +6406,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>1</v>
@@ -6405,16 +6417,16 @@
         <v>97</v>
       </c>
       <c r="F89" s="1">
-        <v>1131</v>
+        <v>1525</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H89" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>99</v>
@@ -6426,7 +6438,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1</v>
@@ -6449,7 +6461,7 @@
         <v>205</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K90" s="4">
         <v>42248</v>
@@ -6458,7 +6470,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1</v>
@@ -6469,19 +6481,19 @@
         <v>97</v>
       </c>
       <c r="F91" s="1">
-        <v>1731</v>
+        <v>1131</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H91" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K91" s="4">
         <v>42248</v>
@@ -6490,7 +6502,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1</v>
@@ -6501,16 +6513,16 @@
         <v>97</v>
       </c>
       <c r="F92" s="1">
-        <v>1027</v>
+        <v>1731</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H92" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>99</v>
@@ -6522,7 +6534,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>1</v>
@@ -6545,7 +6557,7 @@
         <v>206</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K93" s="4">
         <v>42248</v>
@@ -6554,7 +6566,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1</v>
@@ -6565,19 +6577,19 @@
         <v>97</v>
       </c>
       <c r="F94" s="1">
-        <v>1660</v>
+        <v>1027</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H94" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K94" s="4">
         <v>42248</v>
@@ -6586,7 +6598,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>1</v>
@@ -6609,7 +6621,7 @@
         <v>181</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K95" s="4">
         <v>42248</v>
@@ -6618,7 +6630,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>1</v>
@@ -6641,7 +6653,7 @@
         <v>181</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K96" s="4">
         <v>42248</v>
@@ -6650,7 +6662,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>1</v>
@@ -6661,19 +6673,19 @@
         <v>97</v>
       </c>
       <c r="F97" s="1">
-        <v>1809</v>
+        <v>1660</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H97" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>420</v>
+        <v>181</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K97" s="4">
         <v>42248</v>
@@ -6682,7 +6694,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>1</v>
@@ -6705,7 +6717,7 @@
         <v>420</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K98" s="4">
         <v>42248</v>
@@ -6714,7 +6726,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1</v>
@@ -6725,19 +6737,19 @@
         <v>97</v>
       </c>
       <c r="F99" s="1">
-        <v>1130</v>
+        <v>1809</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H99" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>182</v>
+        <v>420</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K99" s="4">
         <v>42248</v>
@@ -6746,7 +6758,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>1</v>
@@ -6769,7 +6781,7 @@
         <v>182</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K100" s="4">
         <v>42248</v>
@@ -6778,7 +6790,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -6789,19 +6801,19 @@
         <v>97</v>
       </c>
       <c r="F101" s="1">
-        <v>1232</v>
+        <v>1130</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H101" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K101" s="4">
         <v>42248</v>
@@ -6810,7 +6822,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1</v>
@@ -6833,7 +6845,7 @@
         <v>183</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K102" s="4">
         <v>42248</v>
@@ -6842,7 +6854,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>1</v>
@@ -6853,19 +6865,19 @@
         <v>97</v>
       </c>
       <c r="F103" s="1">
-        <v>1628</v>
+        <v>1232</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H103" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K103" s="4">
         <v>42248</v>
@@ -6874,7 +6886,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>1</v>
@@ -6897,7 +6909,7 @@
         <v>184</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K104" s="4">
         <v>42248</v>
@@ -6906,7 +6918,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>1</v>
@@ -6929,7 +6941,7 @@
         <v>184</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K105" s="4">
         <v>42248</v>
@@ -6938,7 +6950,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1</v>
@@ -6949,7 +6961,7 @@
         <v>97</v>
       </c>
       <c r="F106" s="1">
-        <v>1050</v>
+        <v>1628</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>98</v>
@@ -6958,10 +6970,10 @@
         <v>6</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K106" s="4">
         <v>42248</v>
@@ -6970,7 +6982,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -6981,16 +6993,16 @@
         <v>97</v>
       </c>
       <c r="F107" s="1">
-        <v>1744</v>
+        <v>1050</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H107" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>99</v>
@@ -7002,7 +7014,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>1</v>
@@ -7013,7 +7025,7 @@
         <v>97</v>
       </c>
       <c r="F108" s="1">
-        <v>1122</v>
+        <v>1744</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>98</v>
@@ -7022,7 +7034,7 @@
         <v>4</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>99</v>
@@ -7034,7 +7046,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1</v>
@@ -7057,7 +7069,7 @@
         <v>187</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K109" s="4">
         <v>42248</v>
@@ -7066,7 +7078,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1</v>
@@ -7077,7 +7089,7 @@
         <v>97</v>
       </c>
       <c r="F110" s="1">
-        <v>1312</v>
+        <v>1122</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>98</v>
@@ -7086,10 +7098,10 @@
         <v>4</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K110" s="4">
         <v>42248</v>
@@ -7098,7 +7110,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>1</v>
@@ -7121,7 +7133,7 @@
         <v>188</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K111" s="4">
         <v>42248</v>
@@ -7130,7 +7142,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1</v>
@@ -7141,7 +7153,7 @@
         <v>97</v>
       </c>
       <c r="F112" s="1">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>98</v>
@@ -7150,10 +7162,10 @@
         <v>4</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K112" s="4">
         <v>42248</v>
@@ -7162,7 +7174,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1</v>
@@ -7185,7 +7197,7 @@
         <v>189</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K113" s="4">
         <v>42248</v>
@@ -7194,7 +7206,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1</v>
@@ -7205,19 +7217,19 @@
         <v>97</v>
       </c>
       <c r="F114" s="1">
-        <v>1005</v>
+        <v>1309</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H114" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K114" s="4">
         <v>42248</v>
@@ -7226,7 +7238,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
@@ -7249,7 +7261,7 @@
         <v>190</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K115" s="4">
         <v>42248</v>
@@ -7258,7 +7270,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1</v>
@@ -7269,19 +7281,19 @@
         <v>97</v>
       </c>
       <c r="F116" s="1">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H116" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K116" s="4">
         <v>42248</v>
@@ -7290,7 +7302,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1</v>
@@ -7313,7 +7325,7 @@
         <v>191</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K117" s="4">
         <v>42248</v>
@@ -7322,7 +7334,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1</v>
@@ -7345,7 +7357,7 @@
         <v>191</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K118" s="4">
         <v>42248</v>
@@ -7354,7 +7366,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1</v>
@@ -7365,19 +7377,19 @@
         <v>97</v>
       </c>
       <c r="F119" s="1">
-        <v>1527</v>
+        <v>1004</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H119" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K119" s="4">
         <v>42248</v>
@@ -7386,7 +7398,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1</v>
@@ -7397,7 +7409,7 @@
         <v>97</v>
       </c>
       <c r="F120" s="1">
-        <v>1064</v>
+        <v>1527</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>98</v>
@@ -7406,7 +7418,7 @@
         <v>2</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>99</v>
@@ -7418,7 +7430,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1</v>
@@ -7429,7 +7441,7 @@
         <v>97</v>
       </c>
       <c r="F121" s="1">
-        <v>1788</v>
+        <v>1064</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>98</v>
@@ -7438,7 +7450,7 @@
         <v>2</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>99</v>
@@ -7450,7 +7462,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1</v>
@@ -7461,16 +7473,16 @@
         <v>97</v>
       </c>
       <c r="F122" s="1">
-        <v>1827</v>
+        <v>1788</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H122" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>99</v>
@@ -7482,7 +7494,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1</v>
@@ -7505,7 +7517,7 @@
         <v>195</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K123" s="4">
         <v>42248</v>
@@ -7514,7 +7526,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1</v>
@@ -7537,7 +7549,7 @@
         <v>195</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K124" s="4">
         <v>42248</v>
@@ -7546,7 +7558,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>1</v>
@@ -7557,19 +7569,19 @@
         <v>97</v>
       </c>
       <c r="F125" s="1">
-        <v>1814</v>
+        <v>1827</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H125" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K125" s="4">
         <v>42248</v>
@@ -7578,7 +7590,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1</v>
@@ -7601,7 +7613,7 @@
         <v>196</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K126" s="4">
         <v>42248</v>
@@ -7610,7 +7622,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1</v>
@@ -7621,19 +7633,19 @@
         <v>97</v>
       </c>
       <c r="F127" s="1">
-        <v>1726</v>
+        <v>1814</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H127" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K127" s="4">
         <v>42248</v>
@@ -7642,7 +7654,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1</v>
@@ -7665,7 +7677,7 @@
         <v>197</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K128" s="4">
         <v>42248</v>
@@ -7674,7 +7686,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>1</v>
@@ -7697,7 +7709,7 @@
         <v>197</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K129" s="4">
         <v>42248</v>
@@ -7706,7 +7718,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>1</v>
@@ -7717,19 +7729,19 @@
         <v>97</v>
       </c>
       <c r="F130" s="1">
-        <v>1319</v>
+        <v>1726</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H130" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K130" s="4">
         <v>42248</v>
@@ -7738,7 +7750,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>1</v>
@@ -7761,7 +7773,7 @@
         <v>200</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K131" s="4">
         <v>42248</v>
@@ -7770,7 +7782,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>1</v>
@@ -7781,7 +7793,7 @@
         <v>97</v>
       </c>
       <c r="F132" s="1">
-        <v>1819</v>
+        <v>1319</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>98</v>
@@ -7790,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K132" s="4">
         <v>42248</v>
@@ -7802,7 +7814,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>1</v>
@@ -7825,7 +7837,7 @@
         <v>201</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K133" s="4">
         <v>42248</v>
@@ -7834,7 +7846,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>1</v>
@@ -7844,20 +7856,20 @@
       <c r="E134" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="1">
         <v>1819</v>
       </c>
-      <c r="G134" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H134" s="5">
+      <c r="G134" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H134" s="1">
         <v>3</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>201</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K134" s="4">
         <v>42248</v>
@@ -7866,7 +7878,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>1</v>
@@ -7876,31 +7888,29 @@
       <c r="E135" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F135" s="1">
-        <v>1828</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H135" s="1">
-        <v>1</v>
+      <c r="F135" s="5">
+        <v>1819</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H135" s="5">
+        <v>3</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K135" s="4">
         <v>42248</v>
       </c>
-      <c r="L135" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="L135" s="1"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>1</v>
@@ -7923,7 +7933,7 @@
         <v>421</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K136" s="4">
         <v>42248</v>
@@ -7934,7 +7944,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>1</v>
@@ -7957,7 +7967,7 @@
         <v>421</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K137" s="4">
         <v>42248</v>
@@ -7968,7 +7978,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>1</v>
@@ -7979,19 +7989,19 @@
         <v>97</v>
       </c>
       <c r="F138" s="1">
-        <v>1751</v>
+        <v>1828</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H138" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K138" s="4">
         <v>42248</v>
@@ -8002,7 +8012,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>1</v>
@@ -8025,7 +8035,7 @@
         <v>422</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K139" s="4">
         <v>42248</v>
@@ -8036,7 +8046,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>1</v>
@@ -8059,7 +8069,7 @@
         <v>422</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K140" s="4">
         <v>42248</v>
@@ -8070,7 +8080,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>1</v>
@@ -8081,19 +8091,19 @@
         <v>97</v>
       </c>
       <c r="F141" s="1">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H141" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K141" s="4">
         <v>42248</v>
@@ -8104,7 +8114,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>1</v>
@@ -8127,7 +8137,7 @@
         <v>423</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K142" s="4">
         <v>42248</v>
@@ -8138,7 +8148,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>1</v>
@@ -8161,7 +8171,7 @@
         <v>423</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K143" s="4">
         <v>42248</v>
@@ -8172,7 +8182,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>1</v>
@@ -8183,19 +8193,19 @@
         <v>97</v>
       </c>
       <c r="F144" s="1">
-        <v>1032</v>
+        <v>1747</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H144" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K144" s="4">
         <v>42248</v>
@@ -8206,7 +8216,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>1</v>
@@ -8229,7 +8239,7 @@
         <v>424</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K145" s="4">
         <v>42248</v>
@@ -8240,7 +8250,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>1</v>
@@ -8263,7 +8273,7 @@
         <v>424</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K146" s="4">
         <v>42248</v>
@@ -8274,7 +8284,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>1</v>
@@ -8285,19 +8295,19 @@
         <v>97</v>
       </c>
       <c r="F147" s="1">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H147" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K147" s="4">
         <v>42248</v>
@@ -8308,7 +8318,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>1</v>
@@ -8319,16 +8329,16 @@
         <v>97</v>
       </c>
       <c r="F148" s="1">
-        <v>1648</v>
+        <v>1042</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H148" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>99</v>
@@ -8336,11 +8346,13 @@
       <c r="K148" s="4">
         <v>42248</v>
       </c>
-      <c r="L148" s="1"/>
+      <c r="L148" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>1</v>
@@ -8363,7 +8375,7 @@
         <v>414</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K149" s="4">
         <v>42248</v>
@@ -8372,7 +8384,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>1</v>
@@ -8395,7 +8407,7 @@
         <v>414</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K150" s="4">
         <v>42248</v>
@@ -8404,7 +8416,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>1</v>
@@ -8415,30 +8427,28 @@
         <v>97</v>
       </c>
       <c r="F151" s="1">
-        <v>1054</v>
+        <v>1648</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H151" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K151" s="4">
         <v>42248</v>
       </c>
-      <c r="L151" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="L151" s="1"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>1</v>
@@ -8461,7 +8471,7 @@
         <v>426</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K152" s="4">
         <v>42248</v>
@@ -8472,7 +8482,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>1</v>
@@ -8483,19 +8493,19 @@
         <v>97</v>
       </c>
       <c r="F153" s="1">
-        <v>1753</v>
+        <v>1054</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H153" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K153" s="4">
         <v>42248</v>
@@ -8506,7 +8516,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>1</v>
@@ -8517,16 +8527,16 @@
         <v>97</v>
       </c>
       <c r="F154" s="1">
-        <v>1404</v>
+        <v>1753</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H154" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>99</v>
@@ -8534,11 +8544,13 @@
       <c r="K154" s="4">
         <v>42248</v>
       </c>
-      <c r="L154" s="1"/>
+      <c r="L154" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>1</v>
@@ -8549,7 +8561,7 @@
         <v>97</v>
       </c>
       <c r="F155" s="1">
-        <v>1380</v>
+        <v>1404</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>98</v>
@@ -8558,7 +8570,7 @@
         <v>2</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>99</v>
@@ -8570,7 +8582,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>1</v>
@@ -8581,16 +8593,16 @@
         <v>97</v>
       </c>
       <c r="F156" s="1">
-        <v>1750</v>
+        <v>1380</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H156" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>99</v>
@@ -8598,13 +8610,11 @@
       <c r="K156" s="4">
         <v>42248</v>
       </c>
-      <c r="L156" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="L156" s="1"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>1</v>
@@ -8615,16 +8625,16 @@
         <v>97</v>
       </c>
       <c r="F157" s="1">
-        <v>1662</v>
+        <v>1750</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H157" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>99</v>
@@ -8632,11 +8642,13 @@
       <c r="K157" s="4">
         <v>42248</v>
       </c>
-      <c r="L157" s="1"/>
+      <c r="L157" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>1</v>
@@ -8647,16 +8659,16 @@
         <v>97</v>
       </c>
       <c r="F158" s="1">
-        <v>1110</v>
+        <v>1662</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H158" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>99</v>
@@ -8664,13 +8676,11 @@
       <c r="K158" s="4">
         <v>42248</v>
       </c>
-      <c r="L158" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="L158" s="1"/>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>1</v>
@@ -8693,7 +8703,7 @@
         <v>429</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K159" s="4">
         <v>42248</v>
@@ -8704,7 +8714,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>1</v>
@@ -8715,19 +8725,19 @@
         <v>97</v>
       </c>
       <c r="F160" s="1">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H160" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K160" s="4">
         <v>42248</v>
@@ -8738,7 +8748,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>1</v>
@@ -8749,16 +8759,16 @@
         <v>97</v>
       </c>
       <c r="F161" s="1">
-        <v>1780</v>
+        <v>1108</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H161" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>99</v>
@@ -8766,11 +8776,13 @@
       <c r="K161" s="4">
         <v>42248</v>
       </c>
-      <c r="L161" s="1"/>
+      <c r="L161" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>1</v>
@@ -8781,30 +8793,28 @@
         <v>97</v>
       </c>
       <c r="F162" s="1">
-        <v>1108</v>
+        <v>1780</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H162" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K162" s="4">
         <v>42248</v>
       </c>
-      <c r="L162" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="L162" s="1"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>1</v>
@@ -8815,19 +8825,19 @@
         <v>97</v>
       </c>
       <c r="F163" s="1">
-        <v>1764</v>
+        <v>1108</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H163" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K163" s="4">
         <v>42248</v>
@@ -8838,7 +8848,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>1</v>
@@ -8861,7 +8871,7 @@
         <v>431</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K164" s="4">
         <v>42248</v>
@@ -8872,7 +8882,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>1</v>
@@ -8883,19 +8893,19 @@
         <v>97</v>
       </c>
       <c r="F165" s="1">
-        <v>1524</v>
+        <v>1764</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H165" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K165" s="4">
         <v>42248</v>
@@ -8906,7 +8916,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>1</v>
@@ -8917,16 +8927,16 @@
         <v>97</v>
       </c>
       <c r="F166" s="1">
-        <v>1740</v>
+        <v>1524</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H166" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>99</v>
@@ -8940,7 +8950,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>1</v>
@@ -8963,7 +8973,7 @@
         <v>433</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K167" s="4">
         <v>42248</v>
@@ -8974,7 +8984,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>1</v>
@@ -8997,7 +9007,7 @@
         <v>433</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K168" s="4">
         <v>42248</v>
@@ -9008,7 +9018,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>1</v>
@@ -9019,19 +9029,19 @@
         <v>97</v>
       </c>
       <c r="F169" s="1">
-        <v>1399</v>
+        <v>1740</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H169" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K169" s="4">
         <v>42248</v>
@@ -9042,7 +9052,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1</v>
@@ -9065,7 +9075,7 @@
         <v>434</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K170" s="4">
         <v>42248</v>
@@ -9076,7 +9086,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1</v>
@@ -9099,7 +9109,7 @@
         <v>434</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K171" s="4">
         <v>42248</v>
@@ -9110,7 +9120,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>1</v>
@@ -9121,19 +9131,19 @@
         <v>97</v>
       </c>
       <c r="F172" s="1">
-        <v>1041</v>
+        <v>1399</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K172" s="4">
         <v>42248</v>
@@ -9144,7 +9154,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>1</v>
@@ -9167,7 +9177,7 @@
         <v>435</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K173" s="4">
         <v>42248</v>
@@ -9178,7 +9188,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>1</v>
@@ -9189,7 +9199,7 @@
         <v>97</v>
       </c>
       <c r="F174" s="1">
-        <v>1019</v>
+        <v>1041</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>98</v>
@@ -9198,10 +9208,10 @@
         <v>3</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K174" s="4">
         <v>42248</v>
@@ -9212,7 +9222,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1</v>
@@ -9235,7 +9245,7 @@
         <v>436</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K175" s="4">
         <v>42248</v>
@@ -9246,7 +9256,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>1</v>
@@ -9269,7 +9279,7 @@
         <v>436</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K176" s="4">
         <v>42248</v>
@@ -9280,7 +9290,7 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>1</v>
@@ -9291,19 +9301,19 @@
         <v>97</v>
       </c>
       <c r="F177" s="1">
-        <v>1063</v>
+        <v>1019</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H177" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K177" s="4">
         <v>42248</v>
@@ -9314,7 +9324,7 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1</v>
@@ -9337,7 +9347,7 @@
         <v>437</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K178" s="4">
         <v>42248</v>
@@ -9348,7 +9358,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>1</v>
@@ -9359,19 +9369,19 @@
         <v>97</v>
       </c>
       <c r="F179" s="1">
-        <v>1520</v>
+        <v>1063</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H179" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K179" s="4">
         <v>42248</v>
@@ -9382,7 +9392,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>1</v>
@@ -9405,7 +9415,7 @@
         <v>438</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K180" s="4">
         <v>42248</v>
@@ -9416,7 +9426,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>1</v>
@@ -9427,19 +9437,19 @@
         <v>97</v>
       </c>
       <c r="F181" s="1">
-        <v>1231</v>
+        <v>1520</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H181" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K181" s="4">
         <v>42248</v>
@@ -9450,7 +9460,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>1</v>
@@ -9473,7 +9483,7 @@
         <v>439</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K182" s="4">
         <v>42248</v>
@@ -9484,7 +9494,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>1</v>
@@ -9507,7 +9517,7 @@
         <v>439</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K183" s="4">
         <v>42248</v>
@@ -9518,7 +9528,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>1</v>
@@ -9529,7 +9539,7 @@
         <v>97</v>
       </c>
       <c r="F184" s="1">
-        <v>1103</v>
+        <v>1231</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>98</v>
@@ -9538,10 +9548,10 @@
         <v>5</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K184" s="4">
         <v>42248</v>
@@ -9552,7 +9562,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>1</v>
@@ -9575,7 +9585,7 @@
         <v>440</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K185" s="4">
         <v>42248</v>
@@ -9586,7 +9596,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>1</v>
@@ -9609,7 +9619,7 @@
         <v>440</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K186" s="4">
         <v>42248</v>
@@ -9620,7 +9630,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>1</v>
@@ -9631,19 +9641,19 @@
         <v>97</v>
       </c>
       <c r="F187" s="1">
-        <v>1811</v>
+        <v>1103</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H187" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K187" s="4">
         <v>42248</v>
@@ -9654,7 +9664,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>1</v>
@@ -9677,7 +9687,7 @@
         <v>441</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K188" s="4">
         <v>42248</v>
@@ -9688,7 +9698,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>1</v>
@@ -9711,7 +9721,7 @@
         <v>441</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K189" s="4">
         <v>42248</v>
@@ -9722,7 +9732,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>1</v>
@@ -9733,7 +9743,7 @@
         <v>97</v>
       </c>
       <c r="F190" s="1">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>98</v>
@@ -9742,10 +9752,10 @@
         <v>2</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K190" s="4">
         <v>42248</v>
@@ -9756,7 +9766,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>1</v>
@@ -9779,7 +9789,7 @@
         <v>442</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K191" s="4">
         <v>42248</v>
@@ -9790,7 +9800,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>1</v>
@@ -9801,19 +9811,19 @@
         <v>97</v>
       </c>
       <c r="F192" s="1">
-        <v>1803</v>
+        <v>1812</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H192" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K192" s="4">
         <v>42248</v>
@@ -9824,7 +9834,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>1</v>
@@ -9847,7 +9857,7 @@
         <v>443</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K193" s="4">
         <v>42248</v>
@@ -9858,7 +9868,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>1</v>
@@ -9881,7 +9891,7 @@
         <v>443</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K194" s="4">
         <v>42248</v>
@@ -9892,7 +9902,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>1</v>
@@ -9903,19 +9913,19 @@
         <v>97</v>
       </c>
       <c r="F195" s="1">
-        <v>1318</v>
+        <v>1803</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H195" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K195" s="4">
         <v>42248</v>
@@ -9926,7 +9936,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>1</v>
@@ -9949,7 +9959,7 @@
         <v>444</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K196" s="4">
         <v>42248</v>
@@ -9960,7 +9970,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>1</v>
@@ -9971,19 +9981,19 @@
         <v>97</v>
       </c>
       <c r="F197" s="1">
-        <v>1737</v>
+        <v>1318</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H197" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K197" s="4">
         <v>42248</v>
@@ -9994,7 +10004,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>1</v>
@@ -10017,7 +10027,7 @@
         <v>445</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K198" s="4">
         <v>42248</v>
@@ -10028,7 +10038,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>1</v>
@@ -10051,7 +10061,7 @@
         <v>445</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K199" s="4">
         <v>42248</v>
@@ -10062,7 +10072,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>1</v>
@@ -10073,28 +10083,30 @@
         <v>97</v>
       </c>
       <c r="F200" s="1">
-        <v>1772</v>
+        <v>1737</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H200" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K200" s="4">
         <v>42248</v>
       </c>
-      <c r="L200" s="1"/>
+      <c r="L200" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>1</v>
@@ -10117,7 +10129,7 @@
         <v>446</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K201" s="4">
         <v>42248</v>
@@ -10126,7 +10138,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>1</v>
@@ -10137,19 +10149,19 @@
         <v>97</v>
       </c>
       <c r="F202" s="1">
-        <v>1732</v>
+        <v>1772</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H202" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K202" s="4">
         <v>42248</v>
@@ -10158,7 +10170,7 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>1</v>
@@ -10181,7 +10193,7 @@
         <v>447</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K203" s="4">
         <v>42248</v>
@@ -10190,7 +10202,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>1</v>
@@ -10213,7 +10225,7 @@
         <v>447</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K204" s="4">
         <v>42248</v>
@@ -10222,7 +10234,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>1</v>
@@ -10233,7 +10245,7 @@
         <v>97</v>
       </c>
       <c r="F205" s="1">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>98</v>
@@ -10242,10 +10254,10 @@
         <v>5</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K205" s="4">
         <v>42248</v>
@@ -10254,7 +10266,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>1</v>
@@ -10277,7 +10289,7 @@
         <v>448</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K206" s="4">
         <v>42248</v>
@@ -10286,7 +10298,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>1</v>
@@ -10309,7 +10321,7 @@
         <v>448</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K207" s="4">
         <v>42248</v>
@@ -10318,7 +10330,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>1</v>
@@ -10329,19 +10341,19 @@
         <v>97</v>
       </c>
       <c r="F208" s="1">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H208" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K208" s="4">
         <v>42248</v>
@@ -10350,7 +10362,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>1</v>
@@ -10373,7 +10385,7 @@
         <v>449</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K209" s="4">
         <v>42248</v>
@@ -10382,7 +10394,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>1</v>
@@ -10405,7 +10417,7 @@
         <v>449</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K210" s="4">
         <v>42248</v>
@@ -10414,7 +10426,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>1</v>
@@ -10425,7 +10437,7 @@
         <v>97</v>
       </c>
       <c r="F211" s="1">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>98</v>
@@ -10434,10 +10446,10 @@
         <v>4</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>197</v>
+        <v>449</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K211" s="4">
         <v>42248</v>
@@ -10446,7 +10458,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>1</v>
@@ -10469,7 +10481,7 @@
         <v>197</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K212" s="4">
         <v>42248</v>
@@ -10478,7 +10490,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>1</v>
@@ -10501,7 +10513,7 @@
         <v>197</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K213" s="4">
         <v>42248</v>
@@ -10510,7 +10522,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>1</v>
@@ -10521,7 +10533,7 @@
         <v>97</v>
       </c>
       <c r="F214" s="1">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>98</v>
@@ -10530,10 +10542,10 @@
         <v>4</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>450</v>
+        <v>197</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K214" s="4">
         <v>42248</v>
@@ -10542,7 +10554,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>1</v>
@@ -10565,7 +10577,7 @@
         <v>450</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K215" s="4">
         <v>42248</v>
@@ -10574,7 +10586,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>1</v>
@@ -10597,7 +10609,7 @@
         <v>450</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K216" s="4">
         <v>42248</v>
@@ -10606,7 +10618,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>1</v>
@@ -10617,19 +10629,19 @@
         <v>97</v>
       </c>
       <c r="F217" s="1">
-        <v>1826</v>
+        <v>1723</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H217" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K217" s="4">
         <v>42248</v>
@@ -10638,7 +10650,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>1</v>
@@ -10661,7 +10673,7 @@
         <v>451</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K218" s="4">
         <v>42248</v>
@@ -10670,7 +10682,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>1</v>
@@ -10693,7 +10705,7 @@
         <v>451</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K219" s="4">
         <v>42248</v>
@@ -10702,7 +10714,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>1</v>
@@ -10713,19 +10725,19 @@
         <v>97</v>
       </c>
       <c r="F220" s="1">
-        <v>1755</v>
+        <v>1826</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H220" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K220" s="4">
         <v>42248</v>
@@ -10734,7 +10746,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>1</v>
@@ -10757,7 +10769,7 @@
         <v>452</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K221" s="4">
         <v>42248</v>
@@ -10766,7 +10778,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>1</v>
@@ -10789,7 +10801,7 @@
         <v>452</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K222" s="4">
         <v>42248</v>
@@ -10798,7 +10810,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>1</v>
@@ -10809,19 +10821,19 @@
         <v>97</v>
       </c>
       <c r="F223" s="1">
-        <v>1721</v>
+        <v>1755</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H223" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K223" s="4">
         <v>42248</v>
@@ -10830,7 +10842,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>1</v>
@@ -10853,7 +10865,7 @@
         <v>453</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K224" s="4">
         <v>42248</v>
@@ -10862,7 +10874,7 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>1</v>
@@ -10873,19 +10885,19 @@
         <v>97</v>
       </c>
       <c r="F225" s="1">
-        <v>1023</v>
+        <v>1721</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H225" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K225" s="4">
         <v>42248</v>
@@ -10894,7 +10906,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>1</v>
@@ -10917,7 +10929,7 @@
         <v>454</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K226" s="4">
         <v>42248</v>
@@ -10926,7 +10938,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>1</v>
@@ -10937,19 +10949,19 @@
         <v>97</v>
       </c>
       <c r="F227" s="1">
-        <v>1722</v>
+        <v>1023</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H227" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K227" s="4">
         <v>42248</v>
@@ -10958,7 +10970,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>1</v>
@@ -10981,7 +10993,7 @@
         <v>455</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K228" s="4">
         <v>42248</v>
@@ -10990,7 +11002,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>1</v>
@@ -11001,19 +11013,19 @@
         <v>97</v>
       </c>
       <c r="F229" s="1">
-        <v>1807</v>
+        <v>1722</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H229" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K229" s="4">
         <v>42248</v>
@@ -11022,7 +11034,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>1</v>
@@ -11045,7 +11057,7 @@
         <v>456</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K230" s="4">
         <v>42248</v>
@@ -11054,7 +11066,7 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>1</v>
@@ -11065,19 +11077,19 @@
         <v>97</v>
       </c>
       <c r="F231" s="1">
-        <v>1714</v>
+        <v>1807</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H231" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K231" s="4">
         <v>42248</v>
@@ -11086,7 +11098,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="A232" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>1</v>
@@ -11109,7 +11121,7 @@
         <v>457</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K232" s="4">
         <v>42248</v>
@@ -11118,7 +11130,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>1</v>
@@ -11141,7 +11153,7 @@
         <v>457</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K233" s="4">
         <v>42248</v>
@@ -11150,7 +11162,7 @@
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1</v>
@@ -11161,7 +11173,7 @@
         <v>97</v>
       </c>
       <c r="F234" s="1">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>98</v>
@@ -11170,10 +11182,10 @@
         <v>4</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K234" s="4">
         <v>42248</v>
@@ -11182,7 +11194,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>1</v>
@@ -11205,7 +11217,7 @@
         <v>458</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K235" s="4">
         <v>42248</v>
@@ -11214,7 +11226,7 @@
     </row>
     <row r="236" spans="1:12">
       <c r="A236" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>1</v>
@@ -11225,7 +11237,7 @@
         <v>97</v>
       </c>
       <c r="F236" s="1">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>98</v>
@@ -11234,10 +11246,10 @@
         <v>4</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K236" s="4">
         <v>42248</v>
@@ -11246,7 +11258,7 @@
     </row>
     <row r="237" spans="1:12">
       <c r="A237" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>1</v>
@@ -11269,7 +11281,7 @@
         <v>459</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K237" s="4">
         <v>42248</v>
@@ -11278,7 +11290,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="A238" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>1</v>
@@ -11289,7 +11301,7 @@
         <v>97</v>
       </c>
       <c r="F238" s="1">
-        <v>1770</v>
+        <v>1711</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>98</v>
@@ -11298,10 +11310,10 @@
         <v>4</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K238" s="4">
         <v>42248</v>
@@ -11310,7 +11322,7 @@
     </row>
     <row r="239" spans="1:12">
       <c r="A239" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>1</v>
@@ -11333,7 +11345,7 @@
         <v>460</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K239" s="4">
         <v>42248</v>
@@ -11342,7 +11354,7 @@
     </row>
     <row r="240" spans="1:12">
       <c r="A240" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>1</v>
@@ -11353,7 +11365,7 @@
         <v>97</v>
       </c>
       <c r="F240" s="1">
-        <v>1709</v>
+        <v>1770</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>98</v>
@@ -11362,10 +11374,10 @@
         <v>4</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K240" s="4">
         <v>42248</v>
@@ -11374,7 +11386,7 @@
     </row>
     <row r="241" spans="1:12">
       <c r="A241" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>1</v>
@@ -11397,7 +11409,7 @@
         <v>461</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K241" s="4">
         <v>42248</v>
@@ -11406,7 +11418,7 @@
     </row>
     <row r="242" spans="1:12">
       <c r="A242" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>1</v>
@@ -11417,7 +11429,7 @@
         <v>97</v>
       </c>
       <c r="F242" s="1">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>98</v>
@@ -11426,10 +11438,10 @@
         <v>4</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K242" s="4">
         <v>42248</v>
@@ -11438,7 +11450,7 @@
     </row>
     <row r="243" spans="1:12">
       <c r="A243" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>1</v>
@@ -11461,7 +11473,7 @@
         <v>462</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K243" s="4">
         <v>42248</v>
@@ -11470,7 +11482,7 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>1</v>
@@ -11481,19 +11493,19 @@
         <v>97</v>
       </c>
       <c r="F244" s="1">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H244" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K244" s="4">
         <v>42248</v>
@@ -11502,7 +11514,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="A245" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>1</v>
@@ -11522,10 +11534,10 @@
         <v>3</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K245" s="4">
         <v>42248</v>
@@ -11534,7 +11546,7 @@
     </row>
     <row r="246" spans="1:12">
       <c r="A246" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>1</v>
@@ -11545,19 +11557,19 @@
         <v>97</v>
       </c>
       <c r="F246" s="1">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H246" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K246" s="4">
         <v>42248</v>
@@ -11566,7 +11578,7 @@
     </row>
     <row r="247" spans="1:12">
       <c r="A247" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>1</v>
@@ -11586,10 +11598,10 @@
         <v>6</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K247" s="4">
         <v>42248</v>
@@ -11598,7 +11610,7 @@
     </row>
     <row r="248" spans="1:12">
       <c r="A248" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>1</v>
@@ -11618,10 +11630,10 @@
         <v>6</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K248" s="4">
         <v>42248</v>
@@ -11630,7 +11642,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="A249" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>1</v>
@@ -11641,19 +11653,19 @@
         <v>97</v>
       </c>
       <c r="F249" s="1">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H249" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K249" s="4">
         <v>42248</v>
@@ -11662,7 +11674,7 @@
     </row>
     <row r="250" spans="1:12">
       <c r="A250" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>1</v>
@@ -11682,10 +11694,10 @@
         <v>5</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K250" s="4">
         <v>42248</v>
@@ -11694,7 +11706,7 @@
     </row>
     <row r="251" spans="1:12">
       <c r="A251" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>1</v>
@@ -11714,10 +11726,10 @@
         <v>5</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K251" s="4">
         <v>42248</v>
@@ -11726,7 +11738,7 @@
     </row>
     <row r="252" spans="1:12">
       <c r="A252" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>1</v>
@@ -11737,19 +11749,19 @@
         <v>97</v>
       </c>
       <c r="F252" s="1">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H252" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K252" s="4">
         <v>42248</v>
@@ -11758,7 +11770,7 @@
     </row>
     <row r="253" spans="1:12">
       <c r="A253" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>1</v>
@@ -11778,10 +11790,10 @@
         <v>4</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K253" s="4">
         <v>42248</v>
@@ -11790,7 +11802,7 @@
     </row>
     <row r="254" spans="1:12">
       <c r="A254" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>1</v>
@@ -11810,10 +11822,10 @@
         <v>4</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K254" s="4">
         <v>42248</v>
@@ -11822,7 +11834,7 @@
     </row>
     <row r="255" spans="1:12">
       <c r="A255" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>1</v>
@@ -11833,19 +11845,19 @@
         <v>97</v>
       </c>
       <c r="F255" s="1">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H255" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K255" s="4">
         <v>42248</v>
@@ -11854,7 +11866,7 @@
     </row>
     <row r="256" spans="1:12">
       <c r="A256" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>1</v>
@@ -11874,10 +11886,10 @@
         <v>5</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K256" s="4">
         <v>42248</v>
@@ -11886,7 +11898,7 @@
     </row>
     <row r="257" spans="1:12">
       <c r="A257" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>1</v>
@@ -11906,10 +11918,10 @@
         <v>5</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K257" s="4">
         <v>42248</v>
@@ -11918,7 +11930,7 @@
     </row>
     <row r="258" spans="1:12">
       <c r="A258" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>1</v>
@@ -11929,19 +11941,19 @@
         <v>97</v>
       </c>
       <c r="F258" s="1">
-        <v>1816</v>
+        <v>1703</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H258" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K258" s="4">
         <v>42248</v>
@@ -11950,7 +11962,7 @@
     </row>
     <row r="259" spans="1:12">
       <c r="A259" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>1</v>
@@ -11970,10 +11982,10 @@
         <v>2</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K259" s="4">
         <v>42248</v>
@@ -11982,7 +11994,7 @@
     </row>
     <row r="260" spans="1:12">
       <c r="A260" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>1</v>
@@ -11993,7 +12005,7 @@
         <v>97</v>
       </c>
       <c r="F260" s="1">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>98</v>
@@ -12002,10 +12014,10 @@
         <v>2</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K260" s="4">
         <v>42248</v>
@@ -12014,7 +12026,7 @@
     </row>
     <row r="261" spans="1:12">
       <c r="A261" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>1</v>
@@ -12034,10 +12046,10 @@
         <v>2</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K261" s="4">
         <v>42248</v>
@@ -12046,7 +12058,7 @@
     </row>
     <row r="262" spans="1:12">
       <c r="A262" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>1</v>
@@ -12057,19 +12069,19 @@
         <v>97</v>
       </c>
       <c r="F262" s="1">
-        <v>1701</v>
+        <v>1815</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H262" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K262" s="4">
         <v>42248</v>
@@ -12078,7 +12090,7 @@
     </row>
     <row r="263" spans="1:12">
       <c r="A263" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>1</v>
@@ -12098,10 +12110,10 @@
         <v>4</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K263" s="4">
         <v>42248</v>
@@ -12110,7 +12122,7 @@
     </row>
     <row r="264" spans="1:12">
       <c r="A264" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>1</v>
@@ -12121,19 +12133,19 @@
         <v>97</v>
       </c>
       <c r="F264" s="1">
-        <v>1718</v>
+        <v>1701</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H264" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K264" s="4">
         <v>42248</v>
@@ -12142,7 +12154,7 @@
     </row>
     <row r="265" spans="1:12">
       <c r="A265" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>1</v>
@@ -12162,10 +12174,10 @@
         <v>6</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K265" s="4">
         <v>42248</v>
@@ -12174,7 +12186,7 @@
     </row>
     <row r="266" spans="1:12">
       <c r="A266" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>1</v>
@@ -12185,19 +12197,19 @@
         <v>97</v>
       </c>
       <c r="F266" s="1">
-        <v>1700</v>
+        <v>1718</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H266" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K266" s="4">
         <v>42248</v>
@@ -12206,7 +12218,7 @@
     </row>
     <row r="267" spans="1:12">
       <c r="A267" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>1</v>
@@ -12226,10 +12238,10 @@
         <v>5</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K267" s="4">
         <v>42248</v>
@@ -12238,7 +12250,7 @@
     </row>
     <row r="268" spans="1:12">
       <c r="A268" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>1</v>
@@ -12249,19 +12261,19 @@
         <v>97</v>
       </c>
       <c r="F268" s="1">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H268" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K268" s="4">
         <v>42248</v>
@@ -12270,7 +12282,7 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>1</v>
@@ -12290,10 +12302,10 @@
         <v>6</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K269" s="4">
         <v>42248</v>
@@ -12302,7 +12314,7 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>1</v>
@@ -12313,19 +12325,19 @@
         <v>97</v>
       </c>
       <c r="F270" s="1">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H270" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K270" s="4">
         <v>42248</v>
@@ -12334,7 +12346,7 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>1</v>
@@ -12354,10 +12366,10 @@
         <v>5</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K271" s="4">
         <v>42248</v>
@@ -12366,7 +12378,7 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>1</v>
@@ -12377,7 +12389,7 @@
         <v>97</v>
       </c>
       <c r="F272" s="1">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>98</v>
@@ -12386,10 +12398,10 @@
         <v>5</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K272" s="4">
         <v>42248</v>
@@ -12398,7 +12410,7 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>1</v>
@@ -12418,10 +12430,10 @@
         <v>5</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K273" s="4">
         <v>42248</v>
@@ -12430,7 +12442,7 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>1</v>
@@ -12441,19 +12453,19 @@
         <v>97</v>
       </c>
       <c r="F274" s="1">
-        <v>1797</v>
+        <v>1692</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H274" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K274" s="4">
         <v>42248</v>
@@ -12462,7 +12474,7 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>1</v>
@@ -12482,10 +12494,10 @@
         <v>2</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K275" s="4">
         <v>42248</v>
@@ -12494,7 +12506,7 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>1</v>
@@ -12505,7 +12517,7 @@
         <v>97</v>
       </c>
       <c r="F276" s="1">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>98</v>
@@ -12514,10 +12526,10 @@
         <v>2</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K276" s="4">
         <v>42248</v>
@@ -12526,7 +12538,7 @@
     </row>
     <row r="277" spans="1:12">
       <c r="A277" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>1</v>
@@ -12546,10 +12558,10 @@
         <v>2</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K277" s="4">
         <v>42248</v>
@@ -12558,7 +12570,7 @@
     </row>
     <row r="278" spans="1:12">
       <c r="A278" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>1</v>
@@ -12569,7 +12581,7 @@
         <v>97</v>
       </c>
       <c r="F278" s="1">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>98</v>
@@ -12578,10 +12590,10 @@
         <v>2</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K278" s="4">
         <v>42248</v>
@@ -12590,7 +12602,7 @@
     </row>
     <row r="279" spans="1:12">
       <c r="A279" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>1</v>
@@ -12610,10 +12622,10 @@
         <v>2</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K279" s="4">
         <v>42248</v>
@@ -12622,7 +12634,7 @@
     </row>
     <row r="280" spans="1:12">
       <c r="A280" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>1</v>
@@ -12633,19 +12645,19 @@
         <v>97</v>
       </c>
       <c r="F280" s="1">
-        <v>1691</v>
+        <v>1797</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H280" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K280" s="4">
         <v>42248</v>
@@ -12654,7 +12666,7 @@
     </row>
     <row r="281" spans="1:12">
       <c r="A281" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>1</v>
@@ -12674,10 +12686,10 @@
         <v>4</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K281" s="4">
         <v>42248</v>
@@ -12686,7 +12698,7 @@
     </row>
     <row r="282" spans="1:12">
       <c r="A282" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>1</v>
@@ -12697,7 +12709,7 @@
         <v>97</v>
       </c>
       <c r="F282" s="1">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>98</v>
@@ -12706,10 +12718,10 @@
         <v>4</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K282" s="4">
         <v>42248</v>
@@ -12718,7 +12730,7 @@
     </row>
     <row r="283" spans="1:12">
       <c r="A283" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>1</v>
@@ -12738,10 +12750,10 @@
         <v>4</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K283" s="4">
         <v>42248</v>
@@ -12750,7 +12762,7 @@
     </row>
     <row r="284" spans="1:12">
       <c r="A284" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>1</v>
@@ -12761,19 +12773,19 @@
         <v>97</v>
       </c>
       <c r="F284" s="1">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H284" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K284" s="4">
         <v>42248</v>
@@ -12782,7 +12794,7 @@
     </row>
     <row r="285" spans="1:12">
       <c r="A285" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>1</v>
@@ -12802,10 +12814,10 @@
         <v>5</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K285" s="4">
         <v>42248</v>
@@ -12814,7 +12826,7 @@
     </row>
     <row r="286" spans="1:12">
       <c r="A286" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>1</v>
@@ -12825,19 +12837,19 @@
         <v>97</v>
       </c>
       <c r="F286" s="1">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H286" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K286" s="4">
         <v>42248</v>
@@ -12846,7 +12858,7 @@
     </row>
     <row r="287" spans="1:12">
       <c r="A287" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>1</v>
@@ -12866,10 +12878,10 @@
         <v>4</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K287" s="4">
         <v>42248</v>
@@ -12878,7 +12890,7 @@
     </row>
     <row r="288" spans="1:12">
       <c r="A288" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>1</v>
@@ -12889,19 +12901,19 @@
         <v>97</v>
       </c>
       <c r="F288" s="1">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H288" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K288" s="4">
         <v>42248</v>
@@ -12910,7 +12922,7 @@
     </row>
     <row r="289" spans="1:12">
       <c r="A289" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>1</v>
@@ -12930,10 +12942,10 @@
         <v>5</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K289" s="4">
         <v>42248</v>
@@ -12942,7 +12954,7 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>1</v>
@@ -12962,10 +12974,10 @@
         <v>5</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K290" s="4">
         <v>42248</v>
@@ -12974,7 +12986,7 @@
     </row>
     <row r="291" spans="1:12">
       <c r="A291" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>1</v>
@@ -12985,7 +12997,7 @@
         <v>97</v>
       </c>
       <c r="F291" s="1">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>98</v>
@@ -12994,10 +13006,10 @@
         <v>5</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K291" s="4">
         <v>42248</v>
@@ -13006,7 +13018,7 @@
     </row>
     <row r="292" spans="1:12">
       <c r="A292" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>1</v>
@@ -13026,10 +13038,10 @@
         <v>5</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K292" s="4">
         <v>42248</v>
@@ -13038,7 +13050,7 @@
     </row>
     <row r="293" spans="1:12">
       <c r="A293" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>1</v>
@@ -13049,19 +13061,19 @@
         <v>97</v>
       </c>
       <c r="F293" s="1">
-        <v>1349</v>
+        <v>1682</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H293" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K293" s="4">
         <v>42248</v>
@@ -13070,7 +13082,7 @@
     </row>
     <row r="294" spans="1:12">
       <c r="A294" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>1</v>
@@ -13090,10 +13102,10 @@
         <v>4</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K294" s="4">
         <v>42248</v>
@@ -13102,7 +13114,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="A295" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>1</v>
@@ -13122,10 +13134,10 @@
         <v>4</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K295" s="4">
         <v>42248</v>
@@ -13134,7 +13146,7 @@
     </row>
     <row r="296" spans="1:12">
       <c r="A296" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>1</v>
@@ -13145,19 +13157,19 @@
         <v>97</v>
       </c>
       <c r="F296" s="1">
-        <v>1051</v>
+        <v>1349</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H296" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K296" s="4">
         <v>42248</v>
@@ -13166,7 +13178,7 @@
     </row>
     <row r="297" spans="1:12">
       <c r="A297" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>1</v>
@@ -13186,10 +13198,10 @@
         <v>7</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K297" s="4">
         <v>42248</v>
@@ -13198,7 +13210,7 @@
     </row>
     <row r="298" spans="1:12">
       <c r="A298" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>1</v>
@@ -13209,19 +13221,19 @@
         <v>97</v>
       </c>
       <c r="F298" s="1">
-        <v>1681</v>
+        <v>1051</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H298" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K298" s="4">
         <v>42248</v>
@@ -13230,7 +13242,7 @@
     </row>
     <row r="299" spans="1:12">
       <c r="A299" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>1</v>
@@ -13250,10 +13262,10 @@
         <v>4</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K299" s="4">
         <v>42248</v>
@@ -13262,7 +13274,7 @@
     </row>
     <row r="300" spans="1:12">
       <c r="A300" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>1</v>
@@ -13282,10 +13294,10 @@
         <v>4</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K300" s="4">
         <v>42248</v>
@@ -13294,7 +13306,7 @@
     </row>
     <row r="301" spans="1:12">
       <c r="A301" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>1</v>
@@ -13305,19 +13317,19 @@
         <v>97</v>
       </c>
       <c r="F301" s="1">
-        <v>1792</v>
+        <v>1681</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H301" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K301" s="4">
         <v>42248</v>
@@ -13326,7 +13338,7 @@
     </row>
     <row r="302" spans="1:12">
       <c r="A302" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>1</v>
@@ -13337,7 +13349,7 @@
         <v>97</v>
       </c>
       <c r="F302" s="1">
-        <v>1523</v>
+        <v>1792</v>
       </c>
       <c r="G302" s="1" t="s">
         <v>98</v>
@@ -13346,7 +13358,7 @@
         <v>2</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>99</v>
@@ -13358,7 +13370,7 @@
     </row>
     <row r="303" spans="1:12">
       <c r="A303" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>1</v>
@@ -13369,16 +13381,16 @@
         <v>97</v>
       </c>
       <c r="F303" s="1">
-        <v>1741</v>
+        <v>1523</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H303" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>99</v>
@@ -13390,7 +13402,7 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>1</v>
@@ -13401,16 +13413,16 @@
         <v>97</v>
       </c>
       <c r="F304" s="1">
-        <v>1823</v>
+        <v>1741</v>
       </c>
       <c r="G304" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H304" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>99</v>
@@ -13422,7 +13434,7 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>1</v>
@@ -13433,7 +13445,7 @@
         <v>97</v>
       </c>
       <c r="F305" s="1">
-        <v>1522</v>
+        <v>1823</v>
       </c>
       <c r="G305" s="1" t="s">
         <v>98</v>
@@ -13442,7 +13454,7 @@
         <v>2</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>99</v>
@@ -13454,7 +13466,7 @@
     </row>
     <row r="306" spans="1:12">
       <c r="A306" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>1</v>
@@ -13465,7 +13477,7 @@
         <v>97</v>
       </c>
       <c r="F306" s="1">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="G306" s="1" t="s">
         <v>98</v>
@@ -13474,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>419</v>
+        <v>490</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>99</v>
@@ -13486,7 +13498,7 @@
     </row>
     <row r="307" spans="1:12">
       <c r="A307" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>1</v>
@@ -13497,16 +13509,16 @@
         <v>97</v>
       </c>
       <c r="F307" s="1">
-        <v>1248</v>
+        <v>1521</v>
       </c>
       <c r="G307" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H307" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>493</v>
+        <v>419</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>99</v>
@@ -13518,7 +13530,7 @@
     </row>
     <row r="308" spans="1:12">
       <c r="A308" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>1</v>
@@ -13529,16 +13541,16 @@
         <v>97</v>
       </c>
       <c r="F308" s="1">
-        <v>1705</v>
+        <v>1248</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H308" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>99</v>
@@ -13550,7 +13562,7 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>1</v>
@@ -13570,10 +13582,10 @@
         <v>5</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K309" s="4">
         <v>42248</v>
@@ -13582,7 +13594,7 @@
     </row>
     <row r="310" spans="1:12">
       <c r="A310" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>1</v>
@@ -13602,10 +13614,10 @@
         <v>5</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K310" s="4">
         <v>42248</v>
@@ -13614,7 +13626,7 @@
     </row>
     <row r="311" spans="1:12">
       <c r="A311" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>1</v>
@@ -13625,19 +13637,19 @@
         <v>97</v>
       </c>
       <c r="F311" s="1">
-        <v>1679</v>
+        <v>1705</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H311" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K311" s="4">
         <v>42248</v>
@@ -13646,7 +13658,7 @@
     </row>
     <row r="312" spans="1:12">
       <c r="A312" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>1</v>
@@ -13666,10 +13678,10 @@
         <v>3</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K312" s="4">
         <v>42248</v>
@@ -13678,7 +13690,7 @@
     </row>
     <row r="313" spans="1:12">
       <c r="A313" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>1</v>
@@ -13698,10 +13710,10 @@
         <v>3</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K313" s="4">
         <v>42248</v>
@@ -13710,7 +13722,7 @@
     </row>
     <row r="314" spans="1:12">
       <c r="A314" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>1</v>
@@ -13721,7 +13733,7 @@
         <v>97</v>
       </c>
       <c r="F314" s="1">
-        <v>1674</v>
+        <v>1679</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>98</v>
@@ -13730,10 +13742,10 @@
         <v>3</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K314" s="4">
         <v>42248</v>
@@ -13742,7 +13754,7 @@
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>1</v>
@@ -13762,10 +13774,10 @@
         <v>3</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J315" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K315" s="4">
         <v>42248</v>
@@ -13774,7 +13786,7 @@
     </row>
     <row r="316" spans="1:12">
       <c r="A316" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>1</v>
@@ -13794,10 +13806,10 @@
         <v>3</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K316" s="4">
         <v>42248</v>
@@ -13806,7 +13818,7 @@
     </row>
     <row r="317" spans="1:12">
       <c r="A317" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>1</v>
@@ -13817,19 +13829,19 @@
         <v>97</v>
       </c>
       <c r="F317" s="1">
-        <v>1806</v>
+        <v>1674</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H317" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K317" s="4">
         <v>42248</v>
@@ -13838,7 +13850,7 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>1</v>
@@ -13849,16 +13861,16 @@
         <v>97</v>
       </c>
       <c r="F318" s="1">
-        <v>1646</v>
+        <v>1806</v>
       </c>
       <c r="G318" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H318" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>99</v>
@@ -13870,7 +13882,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>1</v>
@@ -13890,10 +13902,10 @@
         <v>5</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J319" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K319" s="4">
         <v>42248</v>
@@ -13902,7 +13914,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>1</v>
@@ -13913,7 +13925,7 @@
         <v>97</v>
       </c>
       <c r="F320" s="1">
-        <v>1671</v>
+        <v>1646</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>98</v>
@@ -13922,10 +13934,10 @@
         <v>5</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J320" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K320" s="4">
         <v>42248</v>
@@ -13934,7 +13946,7 @@
     </row>
     <row r="321" spans="1:12">
       <c r="A321" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>1</v>
@@ -13954,10 +13966,10 @@
         <v>5</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J321" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K321" s="4">
         <v>42248</v>
@@ -13966,7 +13978,7 @@
     </row>
     <row r="322" spans="1:12">
       <c r="A322" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>1</v>
@@ -13977,7 +13989,7 @@
         <v>97</v>
       </c>
       <c r="F322" s="1">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="G322" s="1" t="s">
         <v>98</v>
@@ -13986,10 +13998,10 @@
         <v>5</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K322" s="4">
         <v>42248</v>
@@ -13998,7 +14010,7 @@
     </row>
     <row r="323" spans="1:12">
       <c r="A323" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>1</v>
@@ -14018,10 +14030,10 @@
         <v>5</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K323" s="4">
         <v>42248</v>
@@ -14030,7 +14042,7 @@
     </row>
     <row r="324" spans="1:12">
       <c r="A324" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>1</v>
@@ -14041,7 +14053,7 @@
         <v>97</v>
       </c>
       <c r="F324" s="1">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>98</v>
@@ -14050,10 +14062,10 @@
         <v>5</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J324" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K324" s="4">
         <v>42248</v>
@@ -14062,7 +14074,7 @@
     </row>
     <row r="325" spans="1:12">
       <c r="A325" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>1</v>
@@ -14082,10 +14094,10 @@
         <v>5</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J325" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K325" s="4">
         <v>42248</v>
@@ -14094,7 +14106,7 @@
     </row>
     <row r="326" spans="1:12">
       <c r="A326" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>1</v>
@@ -14105,19 +14117,19 @@
         <v>97</v>
       </c>
       <c r="F326" s="1">
-        <v>1804</v>
+        <v>1668</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H326" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K326" s="4">
         <v>42248</v>
@@ -14126,7 +14138,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="A327" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>1</v>
@@ -14137,16 +14149,16 @@
         <v>97</v>
       </c>
       <c r="F327" s="1">
-        <v>1791</v>
+        <v>1804</v>
       </c>
       <c r="G327" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H327" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>99</v>
@@ -14158,7 +14170,7 @@
     </row>
     <row r="328" spans="1:12">
       <c r="A328" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>1</v>
@@ -14169,16 +14181,16 @@
         <v>97</v>
       </c>
       <c r="F328" s="1">
-        <v>1820</v>
+        <v>1791</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H328" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>99</v>
@@ -14190,7 +14202,7 @@
     </row>
     <row r="329" spans="1:12">
       <c r="A329" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>1</v>
@@ -14201,16 +14213,16 @@
         <v>97</v>
       </c>
       <c r="F329" s="1">
-        <v>1733</v>
+        <v>1820</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H329" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>99</v>
@@ -14222,7 +14234,7 @@
     </row>
     <row r="330" spans="1:12">
       <c r="A330" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>1</v>
@@ -14233,16 +14245,16 @@
         <v>97</v>
       </c>
       <c r="F330" s="1">
-        <v>1813</v>
+        <v>1733</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H330" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>99</v>
@@ -14254,7 +14266,7 @@
     </row>
     <row r="331" spans="1:12">
       <c r="A331" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>1</v>
@@ -14265,7 +14277,7 @@
         <v>97</v>
       </c>
       <c r="F331" s="1">
-        <v>1790</v>
+        <v>1813</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>98</v>
@@ -14274,7 +14286,7 @@
         <v>2</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J331" s="1" t="s">
         <v>99</v>
@@ -14286,7 +14298,7 @@
     </row>
     <row r="332" spans="1:12">
       <c r="A332" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>1</v>
@@ -14306,10 +14318,10 @@
         <v>2</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J332" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K332" s="4">
         <v>42248</v>
@@ -14318,7 +14330,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="A333" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>1</v>
@@ -14329,19 +14341,19 @@
         <v>97</v>
       </c>
       <c r="F333" s="1">
-        <v>1346</v>
+        <v>1790</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H333" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J333" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K333" s="4">
         <v>42248</v>
@@ -14350,7 +14362,7 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>1</v>
@@ -14370,10 +14382,10 @@
         <v>4</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J334" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K334" s="4">
         <v>42248</v>
@@ -14382,7 +14394,7 @@
     </row>
     <row r="335" spans="1:12">
       <c r="A335" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>1</v>
@@ -14393,19 +14405,19 @@
         <v>97</v>
       </c>
       <c r="F335" s="1">
-        <v>1526</v>
+        <v>1346</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H335" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J335" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K335" s="4">
         <v>42248</v>
@@ -14414,7 +14426,7 @@
     </row>
     <row r="336" spans="1:12">
       <c r="A336" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>1</v>
@@ -14425,7 +14437,7 @@
         <v>97</v>
       </c>
       <c r="F336" s="1">
-        <v>1118</v>
+        <v>1526</v>
       </c>
       <c r="G336" s="1" t="s">
         <v>98</v>
@@ -14434,7 +14446,7 @@
         <v>2</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J336" s="1" t="s">
         <v>99</v>
@@ -14446,7 +14458,7 @@
     </row>
     <row r="337" spans="1:12">
       <c r="A337" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>1</v>
@@ -14457,16 +14469,16 @@
         <v>97</v>
       </c>
       <c r="F337" s="1">
-        <v>1147</v>
+        <v>1118</v>
       </c>
       <c r="G337" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H337" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>99</v>
@@ -14478,7 +14490,7 @@
     </row>
     <row r="338" spans="1:12">
       <c r="A338" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>1</v>
@@ -14489,16 +14501,16 @@
         <v>97</v>
       </c>
       <c r="F338" s="1">
-        <v>1509</v>
+        <v>1147</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H338" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>99</v>
@@ -14510,7 +14522,7 @@
     </row>
     <row r="339" spans="1:12">
       <c r="A339" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>1</v>
@@ -14521,16 +14533,16 @@
         <v>97</v>
       </c>
       <c r="F339" s="1">
-        <v>1702</v>
+        <v>1509</v>
       </c>
       <c r="G339" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H339" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>99</v>
@@ -14542,7 +14554,7 @@
     </row>
     <row r="340" spans="1:12">
       <c r="A340" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>1</v>
@@ -14553,16 +14565,16 @@
         <v>97</v>
       </c>
       <c r="F340" s="1">
-        <v>1716</v>
+        <v>1702</v>
       </c>
       <c r="G340" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H340" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J340" s="1" t="s">
         <v>99</v>
@@ -14574,7 +14586,7 @@
     </row>
     <row r="341" spans="1:12">
       <c r="A341" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>1</v>
@@ -14585,16 +14597,16 @@
         <v>97</v>
       </c>
       <c r="F341" s="1">
-        <v>1685</v>
+        <v>1716</v>
       </c>
       <c r="G341" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H341" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>99</v>
@@ -14606,7 +14618,7 @@
     </row>
     <row r="342" spans="1:12">
       <c r="A342" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>1</v>
@@ -14617,16 +14629,16 @@
         <v>97</v>
       </c>
       <c r="F342" s="1">
-        <v>1350</v>
+        <v>1685</v>
       </c>
       <c r="G342" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H342" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J342" s="1" t="s">
         <v>99</v>
@@ -14638,7 +14650,7 @@
     </row>
     <row r="343" spans="1:12">
       <c r="A343" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>1</v>
@@ -14649,7 +14661,7 @@
         <v>97</v>
       </c>
       <c r="F343" s="1">
-        <v>1507</v>
+        <v>1350</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>98</v>
@@ -14658,7 +14670,7 @@
         <v>3</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J343" s="1" t="s">
         <v>99</v>
@@ -14670,7 +14682,7 @@
     </row>
     <row r="344" spans="1:12">
       <c r="A344" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>1</v>
@@ -14681,27 +14693,60 @@
         <v>97</v>
       </c>
       <c r="F344" s="1">
+        <v>1507</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H344" s="1">
+        <v>3</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K344" s="4">
+        <v>42248</v>
+      </c>
+      <c r="L344" s="1"/>
+    </row>
+    <row r="345" spans="1:12">
+      <c r="A345" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C345" s="1"/>
+      <c r="D345" s="2"/>
+      <c r="E345" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F345" s="1">
         <v>1789</v>
       </c>
-      <c r="G344" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H344" s="1">
+      <c r="G345" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H345" s="1">
         <v>2</v>
       </c>
-      <c r="I344" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="J344" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K344" s="4">
-        <v>42248</v>
-      </c>
-      <c r="L344" s="1"/>
+      <c r="I345" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K345" s="4">
+        <v>42248</v>
+      </c>
+      <c r="L345" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
